--- a/article/家庭财务管理手册2025.xlsx
+++ b/article/家庭财务管理手册2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\byy\code\luyao.github.io-main\luyao.github.io-main\article\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6592D1AF-3A26-4A4D-BBEC-989534C90274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F8E429-DA80-4C6B-B85A-50A46F059DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1、年度预算" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="374">
   <si>
     <t>预算</t>
   </si>
@@ -2572,6 +2572,14 @@
   <si>
     <t>2024.2.16</t>
     <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>温州</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>稠州</t>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4566,6 +4574,39 @@
     <xf numFmtId="0" fontId="13" fillId="17" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4599,38 +4640,26 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4674,29 +4703,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8359,7 +8367,7 @@
   <dimension ref="B1:E27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -9419,13 +9427,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -9482,7 +9490,9 @@
         <v>1060102.51</v>
       </c>
       <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
+      <c r="D2" s="119">
+        <v>948</v>
+      </c>
       <c r="E2" s="119"/>
       <c r="F2" s="119"/>
       <c r="G2" s="119"/>
@@ -9501,7 +9511,9 @@
         <v>41490.800000000003</v>
       </c>
       <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
+      <c r="D3" s="120">
+        <v>114310</v>
+      </c>
       <c r="E3" s="120"/>
       <c r="F3" s="120"/>
       <c r="G3" s="120"/>
@@ -9520,7 +9532,9 @@
         <v>206616</v>
       </c>
       <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
+      <c r="D4" s="119">
+        <v>205674</v>
+      </c>
       <c r="E4" s="119"/>
       <c r="F4" s="119"/>
       <c r="G4" s="119"/>
@@ -9539,7 +9553,9 @@
         <v>25255</v>
       </c>
       <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
+      <c r="D5" s="120">
+        <v>24314</v>
+      </c>
       <c r="E5" s="120"/>
       <c r="F5" s="120"/>
       <c r="G5" s="120"/>
@@ -9558,7 +9574,9 @@
         <v>10195</v>
       </c>
       <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
+      <c r="D6" s="119">
+        <v>10523</v>
+      </c>
       <c r="E6" s="119"/>
       <c r="F6" s="119"/>
       <c r="G6" s="119"/>
@@ -9577,7 +9595,9 @@
         <v>502</v>
       </c>
       <c r="C7" s="120"/>
-      <c r="D7" s="120"/>
+      <c r="D7" s="120">
+        <v>4643</v>
+      </c>
       <c r="E7" s="120"/>
       <c r="F7" s="120"/>
       <c r="G7" s="120"/>
@@ -9596,7 +9616,9 @@
         <v>5839</v>
       </c>
       <c r="C8" s="119"/>
-      <c r="D8" s="119"/>
+      <c r="D8" s="119">
+        <v>7371</v>
+      </c>
       <c r="E8" s="119"/>
       <c r="F8" s="119"/>
       <c r="G8" s="119"/>
@@ -9615,7 +9637,9 @@
         <v>178</v>
       </c>
       <c r="C9" s="119"/>
-      <c r="D9" s="119"/>
+      <c r="D9" s="119">
+        <v>19084</v>
+      </c>
       <c r="E9" s="119"/>
       <c r="F9" s="119"/>
       <c r="G9" s="119"/>
@@ -9634,7 +9658,9 @@
         <v>15453</v>
       </c>
       <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
+      <c r="D10" s="119">
+        <v>48.68</v>
+      </c>
       <c r="E10" s="119"/>
       <c r="F10" s="119"/>
       <c r="G10" s="119"/>
@@ -9646,64 +9672,33 @@
       <c r="M10" s="128"/>
     </row>
     <row r="11" spans="1:13" ht="20.5" customHeight="1">
-      <c r="A11" s="121" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="122">
-        <f t="shared" ref="B11:L11" si="0">SUM(B2:B8)</f>
-        <v>1350000.31</v>
-      </c>
-      <c r="C11" s="122">
-        <f>SUM(C2:C8)</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="122">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="122">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="122">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="122">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="122">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="122">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="122">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="122">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="122">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A11" s="118" t="s">
+        <v>372</v>
+      </c>
+      <c r="B11" s="119"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119">
+        <v>500000</v>
+      </c>
+      <c r="E11" s="119"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="119"/>
+      <c r="K11" s="119"/>
+      <c r="L11" s="119"/>
       <c r="M11" s="128"/>
     </row>
     <row r="12" spans="1:13" ht="20.5" customHeight="1">
       <c r="A12" s="118" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="119">
-        <v>132223</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="B12" s="119"/>
       <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
+      <c r="D12" s="119">
+        <v>500000</v>
+      </c>
       <c r="E12" s="119"/>
       <c r="F12" s="119"/>
       <c r="G12" s="119"/>
@@ -9715,100 +9710,108 @@
       <c r="M12" s="128"/>
     </row>
     <row r="13" spans="1:13" ht="20.5" customHeight="1">
-      <c r="A13" s="118" t="s">
-        <v>364</v>
-      </c>
-      <c r="B13" s="119">
-        <v>90953</v>
-      </c>
-      <c r="C13" s="119"/>
-      <c r="D13" s="119"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="119"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="119"/>
-      <c r="I13" s="119"/>
-      <c r="J13" s="119"/>
-      <c r="K13" s="119"/>
-      <c r="L13" s="119"/>
+      <c r="A13" s="121" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="122">
+        <f t="shared" ref="B13:L13" si="0">SUM(B2:B8)</f>
+        <v>1350000.31</v>
+      </c>
+      <c r="C13" s="122">
+        <f>SUM(C2:C8)</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="122">
+        <f>SUM(D2:D12)</f>
+        <v>1386915.68</v>
+      </c>
+      <c r="E13" s="122">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="122">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="122">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="122">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="122">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="122">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="122">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="122">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M13" s="128"/>
     </row>
     <row r="14" spans="1:13" ht="20.5" customHeight="1">
       <c r="A14" s="118" t="s">
-        <v>365</v>
+        <v>43</v>
       </c>
       <c r="B14" s="119">
-        <v>10133</v>
-      </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="120"/>
-      <c r="J14" s="120"/>
-      <c r="K14" s="120"/>
-      <c r="L14" s="120"/>
+        <v>132223</v>
+      </c>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119">
+        <v>132409</v>
+      </c>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="119"/>
+      <c r="K14" s="119"/>
+      <c r="L14" s="119"/>
       <c r="M14" s="128"/>
     </row>
     <row r="15" spans="1:13" ht="20.5" customHeight="1">
-      <c r="A15" s="123" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="124">
-        <f t="shared" ref="B15:L15" si="1">SUM(B12:B14)</f>
-        <v>233309</v>
-      </c>
-      <c r="C15" s="124">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D15" s="124">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="124">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="124">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="124">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="124">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="124">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="124">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="124">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="124">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="A15" s="118" t="s">
+        <v>364</v>
+      </c>
+      <c r="B15" s="119">
+        <v>90953</v>
+      </c>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119">
+        <v>98337</v>
+      </c>
+      <c r="E15" s="119"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="119"/>
+      <c r="I15" s="119"/>
+      <c r="J15" s="119"/>
+      <c r="K15" s="119"/>
+      <c r="L15" s="119"/>
       <c r="M15" s="128"/>
     </row>
     <row r="16" spans="1:13" ht="20.5" customHeight="1">
       <c r="A16" s="118" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="120"/>
+        <v>365</v>
+      </c>
+      <c r="B16" s="119">
+        <v>10133</v>
+      </c>
       <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
+      <c r="D16" s="120">
+        <v>10370</v>
+      </c>
       <c r="E16" s="120"/>
       <c r="F16" s="120"/>
       <c r="G16" s="120"/>
@@ -9820,171 +9823,238 @@
       <c r="M16" s="128"/>
     </row>
     <row r="17" spans="1:13" ht="20.5" customHeight="1">
-      <c r="A17" s="118" t="s">
+      <c r="A17" s="123" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="124">
+        <f t="shared" ref="B17:L17" si="1">SUM(B14:B16)</f>
+        <v>233309</v>
+      </c>
+      <c r="C17" s="124">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="124">
+        <f t="shared" si="1"/>
+        <v>241116</v>
+      </c>
+      <c r="E17" s="124">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="124">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="124">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="124">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="124">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="124">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="124">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="124">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="128"/>
+    </row>
+    <row r="18" spans="1:13" ht="20.5" customHeight="1">
+      <c r="A18" s="118" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="120"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="120"/>
+      <c r="H18" s="120"/>
+      <c r="I18" s="120"/>
+      <c r="J18" s="120"/>
+      <c r="K18" s="120"/>
+      <c r="L18" s="120"/>
+      <c r="M18" s="128"/>
+    </row>
+    <row r="19" spans="1:13" ht="20.5" customHeight="1">
+      <c r="A19" s="118" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="119"/>
-      <c r="C17" s="119"/>
-      <c r="D17" s="119"/>
-      <c r="E17" s="119"/>
-      <c r="F17" s="119"/>
-      <c r="G17" s="119"/>
-      <c r="H17" s="119"/>
-      <c r="I17" s="119"/>
-      <c r="J17" s="119"/>
-      <c r="K17" s="119"/>
-      <c r="L17" s="119"/>
-      <c r="M17" s="128"/>
-    </row>
-    <row r="18" spans="1:13" ht="20.5" customHeight="1">
-      <c r="A18" s="121" t="s">
+      <c r="B19" s="119"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="119"/>
+      <c r="I19" s="119"/>
+      <c r="J19" s="119"/>
+      <c r="K19" s="119"/>
+      <c r="L19" s="119"/>
+      <c r="M19" s="128"/>
+    </row>
+    <row r="20" spans="1:13" ht="20.5" customHeight="1">
+      <c r="A20" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="122">
-        <f t="shared" ref="B18:L18" si="2">SUM(B16:B17)</f>
+      <c r="B20" s="122">
+        <f t="shared" ref="B20:L20" si="2">SUM(B18:B19)</f>
         <v>0</v>
       </c>
-      <c r="C18" s="122">
-        <f>SUM(C16:C17)</f>
+      <c r="C20" s="122">
+        <f>SUM(C18:C19)</f>
         <v>0</v>
       </c>
-      <c r="D18" s="122">
+      <c r="D20" s="122">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E18" s="122">
+      <c r="E20" s="122">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F18" s="122">
+      <c r="F20" s="122">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G18" s="122">
+      <c r="G20" s="122">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H18" s="122">
+      <c r="H20" s="122">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I18" s="122">
+      <c r="I20" s="122">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J18" s="122">
+      <c r="J20" s="122">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K18" s="122">
+      <c r="K20" s="122">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L18" s="122">
+      <c r="L20" s="122">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M18" s="128"/>
-    </row>
-    <row r="19" spans="1:13" ht="20.5" customHeight="1">
-      <c r="A19" s="125" t="s">
+      <c r="M20" s="128"/>
+    </row>
+    <row r="21" spans="1:13" ht="20.5" customHeight="1">
+      <c r="A21" s="125" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="126">
-        <f t="shared" ref="B19:L19" si="3">SUM(B11,B15)</f>
+      <c r="B21" s="126">
+        <f t="shared" ref="B21:L21" si="3">SUM(B13,B17)</f>
         <v>1583309.31</v>
       </c>
-      <c r="C19" s="126">
+      <c r="C21" s="126">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D19" s="126">
+      <c r="D21" s="126">
+        <f>SUM(D13,D17)</f>
+        <v>1628031.68</v>
+      </c>
+      <c r="E21" s="126">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E19" s="126">
+      <c r="F21" s="126">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F19" s="126">
+      <c r="G21" s="126">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G19" s="126">
+      <c r="H21" s="126">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H19" s="126">
+      <c r="I21" s="126">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I19" s="126">
+      <c r="J21" s="126">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J19" s="126">
+      <c r="K21" s="126">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K19" s="126">
+      <c r="L21" s="126">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L19" s="126">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="128"/>
-    </row>
-    <row r="20" spans="1:13" ht="20.5" customHeight="1">
-      <c r="A20" s="125" t="s">
+      <c r="M21" s="128"/>
+    </row>
+    <row r="22" spans="1:13" ht="20.5" customHeight="1">
+      <c r="A22" s="125" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="126">
-        <f t="shared" ref="B20:L20" si="4">B19-B18</f>
+      <c r="B22" s="126">
+        <f t="shared" ref="B22:L22" si="4">B21-B20</f>
         <v>1583309.31</v>
       </c>
-      <c r="C20" s="126">
+      <c r="C22" s="126">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="D20" s="126">
+      <c r="D22" s="126">
+        <f t="shared" si="4"/>
+        <v>1628031.68</v>
+      </c>
+      <c r="E22" s="126">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E20" s="126">
+      <c r="F22" s="126">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F20" s="126">
+      <c r="G22" s="126">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G20" s="126">
+      <c r="H22" s="126">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H20" s="126">
+      <c r="I22" s="126">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I20" s="126">
+      <c r="J22" s="126">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J20" s="126">
+      <c r="K22" s="126">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K20" s="126">
+      <c r="L22" s="126">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L20" s="126">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="128"/>
+      <c r="M22" s="128"/>
     </row>
   </sheetData>
   <phoneticPr fontId="26" type="noConversion"/>
@@ -10003,11 +10073,11 @@
   </sheetPr>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -10064,7 +10134,10 @@
         <v>895439.19</v>
       </c>
       <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
+      <c r="D2" s="119">
+        <f>125102.3*7.3</f>
+        <v>913246.79</v>
+      </c>
       <c r="E2" s="119"/>
       <c r="F2" s="119"/>
       <c r="G2" s="119"/>
@@ -10083,7 +10156,10 @@
         <v>145270.47</v>
       </c>
       <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
+      <c r="D3" s="120">
+        <f>55379.18+215.17+381.38+1428.41</f>
+        <v>57404.14</v>
+      </c>
       <c r="E3" s="120"/>
       <c r="F3" s="120"/>
       <c r="G3" s="120"/>
@@ -10102,7 +10178,9 @@
         <v>1716.84</v>
       </c>
       <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
+      <c r="D4" s="119">
+        <v>9131.4500000000007</v>
+      </c>
       <c r="E4" s="119"/>
       <c r="F4" s="119"/>
       <c r="G4" s="119"/>
@@ -10118,47 +10196,47 @@
         <v>41</v>
       </c>
       <c r="B5" s="122">
-        <f>SUM(B2:B4)</f>
+        <f t="shared" ref="B5:L5" si="0">SUM(B2:B4)</f>
         <v>1042426.4999999999</v>
       </c>
       <c r="C5" s="122">
-        <f>SUM(C2:C4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D5" s="122">
-        <f>SUM(D2:D4)</f>
+        <f t="shared" ref="D5" si="1">SUM(D2:D4)</f>
+        <v>979782.38</v>
+      </c>
+      <c r="E5" s="122">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E5" s="122">
-        <f>SUM(E2:E4)</f>
+      <c r="F5" s="122">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F5" s="122">
-        <f>SUM(F2:F4)</f>
+      <c r="G5" s="122">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="122">
-        <f>SUM(G2:G4)</f>
+      <c r="H5" s="122">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H5" s="122">
-        <f>SUM(H2:H4)</f>
+      <c r="I5" s="122">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="122">
-        <f>SUM(I2:I4)</f>
+      <c r="J5" s="122">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J5" s="122">
-        <f>SUM(J2:J4)</f>
+      <c r="K5" s="122">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K5" s="122">
-        <f>SUM(K2:K4)</f>
-        <v>0</v>
-      </c>
       <c r="L5" s="122">
-        <f>SUM(L2:L4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M5" s="128"/>
@@ -10171,7 +10249,10 @@
         <v>106103.82</v>
       </c>
       <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
+      <c r="D6" s="119">
+        <f>32930.16+57813.86</f>
+        <v>90744.02</v>
+      </c>
       <c r="E6" s="119"/>
       <c r="F6" s="119"/>
       <c r="G6" s="119"/>
@@ -10190,7 +10271,9 @@
         <v>12000</v>
       </c>
       <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
+      <c r="D7" s="119">
+        <v>12642.04</v>
+      </c>
       <c r="E7" s="119"/>
       <c r="F7" s="119"/>
       <c r="G7" s="119"/>
@@ -10206,47 +10289,47 @@
         <v>41</v>
       </c>
       <c r="B8" s="124">
-        <f>SUM(B6:B7)</f>
+        <f t="shared" ref="B8:L8" si="2">SUM(B6:B7)</f>
         <v>118103.82</v>
       </c>
       <c r="C8" s="124">
-        <f>SUM(C6:C7)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D8" s="124">
         <f>SUM(D6:D7)</f>
+        <v>103386.06</v>
+      </c>
+      <c r="E8" s="124">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E8" s="124">
-        <f>SUM(E6:E7)</f>
+      <c r="F8" s="124">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F8" s="124">
-        <f>SUM(F6:F7)</f>
+      <c r="G8" s="124">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G8" s="124">
-        <f>SUM(G6:G7)</f>
+      <c r="H8" s="124">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H8" s="124">
-        <f>SUM(H6:H7)</f>
+      <c r="I8" s="124">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I8" s="124">
-        <f>SUM(I6:I7)</f>
+      <c r="J8" s="124">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J8" s="124">
-        <f>SUM(J6:J7)</f>
+      <c r="K8" s="124">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K8" s="124">
-        <f>SUM(K6:K7)</f>
-        <v>0</v>
-      </c>
       <c r="L8" s="124">
-        <f>SUM(L6:L7)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M8" s="128"/>
@@ -10290,7 +10373,7 @@
         <v>46</v>
       </c>
       <c r="B11" s="122">
-        <f t="shared" ref="B11:L11" si="0">SUM(B9:B10)</f>
+        <f t="shared" ref="B11:L11" si="3">SUM(B9:B10)</f>
         <v>0</v>
       </c>
       <c r="C11" s="122">
@@ -10298,39 +10381,39 @@
         <v>0</v>
       </c>
       <c r="D11" s="122">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D11" si="4">SUM(D9:D10)</f>
         <v>0</v>
       </c>
       <c r="E11" s="122">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F11" s="122">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G11" s="122">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H11" s="122">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I11" s="122">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J11" s="122">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K11" s="122">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L11" s="122">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M11" s="128"/>
@@ -10340,47 +10423,47 @@
         <v>47</v>
       </c>
       <c r="B12" s="126">
-        <f>SUM(B5,B8)</f>
+        <f t="shared" ref="B12:L12" si="5">SUM(B5,B8)</f>
         <v>1160530.3199999998</v>
       </c>
       <c r="C12" s="126">
-        <f>SUM(C5,C8)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D12" s="126">
-        <f>SUM(D5,D8)</f>
+        <f t="shared" si="5"/>
+        <v>1083168.44</v>
+      </c>
+      <c r="E12" s="126">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E12" s="126">
-        <f>SUM(E5,E8)</f>
+      <c r="F12" s="126">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F12" s="126">
-        <f>SUM(F5,F8)</f>
+      <c r="G12" s="126">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G12" s="126">
-        <f>SUM(G5,G8)</f>
+      <c r="H12" s="126">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H12" s="126">
-        <f>SUM(H5,H8)</f>
+      <c r="I12" s="126">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I12" s="126">
-        <f>SUM(I5,I8)</f>
+      <c r="J12" s="126">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J12" s="126">
-        <f>SUM(J5,J8)</f>
+      <c r="K12" s="126">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K12" s="126">
-        <f>SUM(K5,K8)</f>
-        <v>0</v>
-      </c>
       <c r="L12" s="126">
-        <f>SUM(L5,L8)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M12" s="128"/>
@@ -10390,47 +10473,47 @@
         <v>48</v>
       </c>
       <c r="B13" s="126">
-        <f t="shared" ref="B13:L13" si="1">B12-B11</f>
+        <f t="shared" ref="B13:L13" si="6">B12-B11</f>
         <v>1160530.3199999998</v>
       </c>
       <c r="C13" s="126">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D13" s="126">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
+        <v>1083168.44</v>
+      </c>
+      <c r="E13" s="126">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E13" s="126">
-        <f t="shared" si="1"/>
+      <c r="F13" s="126">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F13" s="126">
-        <f t="shared" si="1"/>
+      <c r="G13" s="126">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G13" s="126">
-        <f t="shared" si="1"/>
+      <c r="H13" s="126">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H13" s="126">
-        <f t="shared" si="1"/>
+      <c r="I13" s="126">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I13" s="126">
-        <f t="shared" si="1"/>
+      <c r="J13" s="126">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J13" s="126">
-        <f t="shared" si="1"/>
+      <c r="K13" s="126">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K13" s="126">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="L13" s="126">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M13" s="128"/>
@@ -10483,10 +10566,10 @@
       <c r="B2" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="203" t="s">
+      <c r="C2" s="214" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="204"/>
+      <c r="D2" s="215"/>
       <c r="E2" s="100" t="s">
         <v>51</v>
       </c>
@@ -10519,10 +10602,10 @@
       </c>
     </row>
     <row r="3" spans="2:14" ht="23.5" customHeight="1">
-      <c r="B3" s="205" t="s">
+      <c r="B3" s="194" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="208" t="s">
+      <c r="C3" s="197" t="s">
         <v>62</v>
       </c>
       <c r="D3" s="101" t="s">
@@ -10550,18 +10633,18 @@
       <c r="L3" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="M3" s="194">
+      <c r="M3" s="205">
         <f>SUM(J3:J10)</f>
         <v>58430.5</v>
       </c>
-      <c r="N3" s="199">
+      <c r="N3" s="210">
         <f>SUM(M3:M25)</f>
         <v>104966.35</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="23" customHeight="1">
-      <c r="B4" s="206"/>
-      <c r="C4" s="209"/>
+      <c r="B4" s="195"/>
+      <c r="C4" s="198"/>
       <c r="D4" s="102" t="s">
         <v>70</v>
       </c>
@@ -10585,12 +10668,12 @@
       </c>
       <c r="K4" s="105"/>
       <c r="L4" s="105"/>
-      <c r="M4" s="195"/>
-      <c r="N4" s="200"/>
+      <c r="M4" s="206"/>
+      <c r="N4" s="211"/>
     </row>
     <row r="5" spans="2:14" ht="23" customHeight="1">
-      <c r="B5" s="206"/>
-      <c r="C5" s="210" t="s">
+      <c r="B5" s="195"/>
+      <c r="C5" s="199" t="s">
         <v>74</v>
       </c>
       <c r="D5" s="103" t="s">
@@ -10618,12 +10701,12 @@
       <c r="L5" s="103" t="s">
         <v>80</v>
       </c>
-      <c r="M5" s="196"/>
-      <c r="N5" s="201"/>
+      <c r="M5" s="207"/>
+      <c r="N5" s="212"/>
     </row>
     <row r="6" spans="2:14" ht="23" customHeight="1">
-      <c r="B6" s="206"/>
-      <c r="C6" s="209"/>
+      <c r="B6" s="195"/>
+      <c r="C6" s="198"/>
       <c r="D6" s="102" t="s">
         <v>81</v>
       </c>
@@ -10647,11 +10730,11 @@
       </c>
       <c r="K6" s="105"/>
       <c r="L6" s="105"/>
-      <c r="M6" s="195"/>
-      <c r="N6" s="200"/>
+      <c r="M6" s="206"/>
+      <c r="N6" s="211"/>
     </row>
     <row r="7" spans="2:14" ht="23" customHeight="1">
-      <c r="B7" s="206"/>
+      <c r="B7" s="195"/>
       <c r="C7" s="103" t="s">
         <v>87</v>
       </c>
@@ -10678,12 +10761,12 @@
       </c>
       <c r="K7" s="110"/>
       <c r="L7" s="110"/>
-      <c r="M7" s="196"/>
-      <c r="N7" s="201"/>
+      <c r="M7" s="207"/>
+      <c r="N7" s="212"/>
     </row>
     <row r="8" spans="2:14" ht="23" customHeight="1">
-      <c r="B8" s="206"/>
-      <c r="C8" s="211" t="s">
+      <c r="B8" s="195"/>
+      <c r="C8" s="200" t="s">
         <v>92</v>
       </c>
       <c r="D8" s="102" t="s">
@@ -10709,12 +10792,12 @@
       </c>
       <c r="K8" s="105"/>
       <c r="L8" s="105"/>
-      <c r="M8" s="195"/>
-      <c r="N8" s="200"/>
+      <c r="M8" s="206"/>
+      <c r="N8" s="211"/>
     </row>
     <row r="9" spans="2:14" ht="23" customHeight="1">
-      <c r="B9" s="206"/>
-      <c r="C9" s="212"/>
+      <c r="B9" s="195"/>
+      <c r="C9" s="201"/>
       <c r="D9" s="103" t="s">
         <v>97</v>
       </c>
@@ -10738,11 +10821,11 @@
       </c>
       <c r="K9" s="110"/>
       <c r="L9" s="110"/>
-      <c r="M9" s="196"/>
-      <c r="N9" s="201"/>
+      <c r="M9" s="207"/>
+      <c r="N9" s="212"/>
     </row>
     <row r="10" spans="2:14" ht="23.5" customHeight="1">
-      <c r="B10" s="207"/>
+      <c r="B10" s="196"/>
       <c r="C10" s="104" t="s">
         <v>101</v>
       </c>
@@ -10769,14 +10852,14 @@
       </c>
       <c r="K10" s="112"/>
       <c r="L10" s="112"/>
-      <c r="M10" s="197"/>
-      <c r="N10" s="200"/>
+      <c r="M10" s="208"/>
+      <c r="N10" s="211"/>
     </row>
     <row r="11" spans="2:14" ht="23.5" customHeight="1">
-      <c r="B11" s="205" t="s">
+      <c r="B11" s="194" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="208" t="s">
+      <c r="C11" s="197" t="s">
         <v>62</v>
       </c>
       <c r="D11" s="101" t="s">
@@ -10802,15 +10885,15 @@
       </c>
       <c r="K11" s="108"/>
       <c r="L11" s="108"/>
-      <c r="M11" s="194">
+      <c r="M11" s="205">
         <f>SUM(J11:J18)</f>
         <v>9113.5</v>
       </c>
-      <c r="N11" s="201"/>
+      <c r="N11" s="212"/>
     </row>
     <row r="12" spans="2:14" ht="23" customHeight="1">
-      <c r="B12" s="206"/>
-      <c r="C12" s="213"/>
+      <c r="B12" s="195"/>
+      <c r="C12" s="202"/>
       <c r="D12" s="102" t="s">
         <v>70</v>
       </c>
@@ -10834,12 +10917,12 @@
       </c>
       <c r="K12" s="105"/>
       <c r="L12" s="105"/>
-      <c r="M12" s="195"/>
-      <c r="N12" s="200"/>
+      <c r="M12" s="206"/>
+      <c r="N12" s="211"/>
     </row>
     <row r="13" spans="2:14" ht="23" customHeight="1">
-      <c r="B13" s="206"/>
-      <c r="C13" s="214"/>
+      <c r="B13" s="195"/>
+      <c r="C13" s="203"/>
       <c r="D13" s="103" t="s">
         <v>70</v>
       </c>
@@ -10865,12 +10948,12 @@
       <c r="L13" s="103" t="s">
         <v>115</v>
       </c>
-      <c r="M13" s="196"/>
-      <c r="N13" s="201"/>
+      <c r="M13" s="207"/>
+      <c r="N13" s="212"/>
     </row>
     <row r="14" spans="2:14" ht="23" customHeight="1">
-      <c r="B14" s="206"/>
-      <c r="C14" s="211" t="s">
+      <c r="B14" s="195"/>
+      <c r="C14" s="200" t="s">
         <v>74</v>
       </c>
       <c r="D14" s="102" t="s">
@@ -10896,12 +10979,12 @@
       </c>
       <c r="K14" s="105"/>
       <c r="L14" s="105"/>
-      <c r="M14" s="195"/>
-      <c r="N14" s="200"/>
+      <c r="M14" s="206"/>
+      <c r="N14" s="211"/>
     </row>
     <row r="15" spans="2:14" ht="23" customHeight="1">
-      <c r="B15" s="206"/>
-      <c r="C15" s="212"/>
+      <c r="B15" s="195"/>
+      <c r="C15" s="201"/>
       <c r="D15" s="103" t="s">
         <v>75</v>
       </c>
@@ -10925,11 +11008,11 @@
       </c>
       <c r="K15" s="110"/>
       <c r="L15" s="110"/>
-      <c r="M15" s="196"/>
-      <c r="N15" s="201"/>
+      <c r="M15" s="207"/>
+      <c r="N15" s="212"/>
     </row>
     <row r="16" spans="2:14" ht="23" customHeight="1">
-      <c r="B16" s="206"/>
+      <c r="B16" s="195"/>
       <c r="C16" s="102" t="s">
         <v>87</v>
       </c>
@@ -10956,12 +11039,12 @@
       </c>
       <c r="K16" s="105"/>
       <c r="L16" s="105"/>
-      <c r="M16" s="195"/>
-      <c r="N16" s="200"/>
+      <c r="M16" s="206"/>
+      <c r="N16" s="211"/>
     </row>
     <row r="17" spans="2:14" ht="23" customHeight="1">
-      <c r="B17" s="206"/>
-      <c r="C17" s="210" t="s">
+      <c r="B17" s="195"/>
+      <c r="C17" s="199" t="s">
         <v>92</v>
       </c>
       <c r="D17" s="103" t="s">
@@ -10987,12 +11070,12 @@
       </c>
       <c r="K17" s="110"/>
       <c r="L17" s="110"/>
-      <c r="M17" s="196"/>
-      <c r="N17" s="201"/>
+      <c r="M17" s="207"/>
+      <c r="N17" s="212"/>
     </row>
     <row r="18" spans="2:14" ht="23.5" customHeight="1">
-      <c r="B18" s="207"/>
-      <c r="C18" s="213"/>
+      <c r="B18" s="196"/>
+      <c r="C18" s="202"/>
       <c r="D18" s="104" t="s">
         <v>93</v>
       </c>
@@ -11016,14 +11099,14 @@
       </c>
       <c r="K18" s="112"/>
       <c r="L18" s="112"/>
-      <c r="M18" s="197"/>
-      <c r="N18" s="200"/>
+      <c r="M18" s="208"/>
+      <c r="N18" s="211"/>
     </row>
     <row r="19" spans="2:14" ht="23.5" customHeight="1">
-      <c r="B19" s="205" t="s">
+      <c r="B19" s="194" t="s">
         <v>125</v>
       </c>
-      <c r="C19" s="208" t="s">
+      <c r="C19" s="197" t="s">
         <v>62</v>
       </c>
       <c r="D19" s="101" t="s">
@@ -11049,15 +11132,15 @@
       </c>
       <c r="K19" s="108"/>
       <c r="L19" s="108"/>
-      <c r="M19" s="194">
+      <c r="M19" s="205">
         <f>SUM(J19:J25)</f>
         <v>37422.35</v>
       </c>
-      <c r="N19" s="201"/>
+      <c r="N19" s="212"/>
     </row>
     <row r="20" spans="2:14" ht="23" customHeight="1">
-      <c r="B20" s="206"/>
-      <c r="C20" s="209"/>
+      <c r="B20" s="195"/>
+      <c r="C20" s="198"/>
       <c r="D20" s="102" t="s">
         <v>70</v>
       </c>
@@ -11081,12 +11164,12 @@
       </c>
       <c r="K20" s="105"/>
       <c r="L20" s="105"/>
-      <c r="M20" s="195"/>
-      <c r="N20" s="200"/>
+      <c r="M20" s="206"/>
+      <c r="N20" s="211"/>
     </row>
     <row r="21" spans="2:14" ht="23" customHeight="1">
-      <c r="B21" s="206"/>
-      <c r="C21" s="210" t="s">
+      <c r="B21" s="195"/>
+      <c r="C21" s="199" t="s">
         <v>74</v>
       </c>
       <c r="D21" s="103" t="s">
@@ -11112,12 +11195,12 @@
       </c>
       <c r="K21" s="110"/>
       <c r="L21" s="110"/>
-      <c r="M21" s="196"/>
-      <c r="N21" s="201"/>
+      <c r="M21" s="207"/>
+      <c r="N21" s="212"/>
     </row>
     <row r="22" spans="2:14" ht="23" customHeight="1">
-      <c r="B22" s="206"/>
-      <c r="C22" s="215"/>
+      <c r="B22" s="195"/>
+      <c r="C22" s="204"/>
       <c r="D22" s="102" t="s">
         <v>132</v>
       </c>
@@ -11141,12 +11224,12 @@
       </c>
       <c r="K22" s="105"/>
       <c r="L22" s="105"/>
-      <c r="M22" s="195"/>
-      <c r="N22" s="200"/>
+      <c r="M22" s="206"/>
+      <c r="N22" s="211"/>
     </row>
     <row r="23" spans="2:14" ht="23" customHeight="1">
-      <c r="B23" s="206"/>
-      <c r="C23" s="210" t="s">
+      <c r="B23" s="195"/>
+      <c r="C23" s="199" t="s">
         <v>92</v>
       </c>
       <c r="D23" s="103" t="s">
@@ -11172,12 +11255,12 @@
       </c>
       <c r="K23" s="110"/>
       <c r="L23" s="110"/>
-      <c r="M23" s="196"/>
-      <c r="N23" s="201"/>
+      <c r="M23" s="207"/>
+      <c r="N23" s="212"/>
     </row>
     <row r="24" spans="2:14" ht="23" customHeight="1">
-      <c r="B24" s="206"/>
-      <c r="C24" s="209"/>
+      <c r="B24" s="195"/>
+      <c r="C24" s="198"/>
       <c r="D24" s="102" t="s">
         <v>97</v>
       </c>
@@ -11201,11 +11284,11 @@
       </c>
       <c r="K24" s="105"/>
       <c r="L24" s="105"/>
-      <c r="M24" s="195"/>
-      <c r="N24" s="200"/>
+      <c r="M24" s="206"/>
+      <c r="N24" s="211"/>
     </row>
     <row r="25" spans="2:14" ht="23.5" customHeight="1">
-      <c r="B25" s="207"/>
+      <c r="B25" s="196"/>
       <c r="C25" s="106" t="s">
         <v>101</v>
       </c>
@@ -11234,11 +11317,16 @@
       <c r="L25" s="106" t="s">
         <v>143</v>
       </c>
-      <c r="M25" s="198"/>
-      <c r="N25" s="202"/>
+      <c r="M25" s="209"/>
+      <c r="N25" s="213"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="M3:M10"/>
+    <mergeCell ref="M11:M18"/>
+    <mergeCell ref="M19:M25"/>
+    <mergeCell ref="N3:N25"/>
+    <mergeCell ref="C2:D2"/>
     <mergeCell ref="B3:B10"/>
     <mergeCell ref="B11:B18"/>
     <mergeCell ref="B19:B25"/>
@@ -11251,11 +11339,6 @@
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C23:C24"/>
-    <mergeCell ref="M3:M10"/>
-    <mergeCell ref="M11:M18"/>
-    <mergeCell ref="M19:M25"/>
-    <mergeCell ref="N3:N25"/>
-    <mergeCell ref="C2:D2"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -12930,39 +13013,39 @@
   <sheetData>
     <row r="1" spans="2:30" ht="31" customHeight="1"/>
     <row r="2" spans="2:30" ht="25" customHeight="1">
-      <c r="B2" s="234" t="s">
+      <c r="B2" s="216" t="s">
         <v>295</v>
       </c>
-      <c r="C2" s="234"/>
+      <c r="C2" s="216"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="I2" s="234" t="s">
+      <c r="I2" s="216" t="s">
         <v>296</v>
       </c>
-      <c r="J2" s="234"/>
-      <c r="K2" s="234"/>
-      <c r="L2" s="234"/>
-      <c r="M2" s="234"/>
-      <c r="N2" s="234"/>
-      <c r="Q2" s="234" t="s">
+      <c r="J2" s="216"/>
+      <c r="K2" s="216"/>
+      <c r="L2" s="216"/>
+      <c r="M2" s="216"/>
+      <c r="N2" s="216"/>
+      <c r="Q2" s="216" t="s">
         <v>297</v>
       </c>
-      <c r="R2" s="234"/>
-      <c r="S2" s="234"/>
-      <c r="T2" s="234"/>
-      <c r="U2" s="234"/>
-      <c r="V2" s="234"/>
-      <c r="W2" s="234"/>
-      <c r="Y2" s="234" t="s">
+      <c r="R2" s="216"/>
+      <c r="S2" s="216"/>
+      <c r="T2" s="216"/>
+      <c r="U2" s="216"/>
+      <c r="V2" s="216"/>
+      <c r="W2" s="216"/>
+      <c r="Y2" s="216" t="s">
         <v>298</v>
       </c>
-      <c r="Z2" s="234"/>
-      <c r="AA2" s="234"/>
-      <c r="AB2" s="234"/>
-      <c r="AC2" s="234"/>
-      <c r="AD2" s="234"/>
+      <c r="Z2" s="216"/>
+      <c r="AA2" s="216"/>
+      <c r="AB2" s="216"/>
+      <c r="AC2" s="216"/>
+      <c r="AD2" s="216"/>
     </row>
     <row r="3" spans="2:30" ht="20" customHeight="1">
       <c r="B3" s="3" t="s">
@@ -13044,7 +13127,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="I4" s="223" t="s">
+      <c r="I4" s="230" t="s">
         <v>317</v>
       </c>
       <c r="J4" s="47" t="s">
@@ -13053,14 +13136,14 @@
       <c r="K4" s="48">
         <v>13000</v>
       </c>
-      <c r="L4" s="229">
+      <c r="L4" s="236">
         <f>SUM(K4:K8)</f>
         <v>13000</v>
       </c>
       <c r="M4" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="N4" s="235">
+      <c r="N4" s="217">
         <f>L4/J14</f>
         <v>0.56521739130434778</v>
       </c>
@@ -13124,18 +13207,18 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="I5" s="224"/>
+      <c r="I5" s="231"/>
       <c r="J5" s="47" t="s">
         <v>320</v>
       </c>
       <c r="K5" s="48">
         <v>0</v>
       </c>
-      <c r="L5" s="230"/>
+      <c r="L5" s="218"/>
       <c r="M5" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="N5" s="230"/>
+      <c r="N5" s="218"/>
       <c r="Q5" s="63" t="s">
         <v>254</v>
       </c>
@@ -13199,16 +13282,16 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-      <c r="I6" s="225"/>
+      <c r="I6" s="232"/>
       <c r="J6" s="47" t="s">
         <v>322</v>
       </c>
       <c r="K6" s="49"/>
-      <c r="L6" s="231"/>
+      <c r="L6" s="219"/>
       <c r="M6" s="54">
         <v>582000</v>
       </c>
-      <c r="N6" s="231"/>
+      <c r="N6" s="219"/>
       <c r="Q6" s="63" t="s">
         <v>256</v>
       </c>
@@ -13273,16 +13356,16 @@
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
-      <c r="I7" s="226"/>
+      <c r="I7" s="233"/>
       <c r="J7" s="47" t="s">
         <v>324</v>
       </c>
       <c r="K7" s="48">
         <v>0</v>
       </c>
-      <c r="L7" s="232"/>
+      <c r="L7" s="220"/>
       <c r="M7" s="55"/>
-      <c r="N7" s="232"/>
+      <c r="N7" s="220"/>
       <c r="Q7" s="63" t="s">
         <v>258</v>
       </c>
@@ -13346,14 +13429,14 @@
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="I8" s="226"/>
+      <c r="I8" s="233"/>
       <c r="J8" s="47" t="s">
         <v>326</v>
       </c>
       <c r="K8" s="49"/>
-      <c r="L8" s="232"/>
+      <c r="L8" s="220"/>
       <c r="M8" s="55"/>
-      <c r="N8" s="232"/>
+      <c r="N8" s="220"/>
       <c r="Q8" s="63" t="s">
         <v>260</v>
       </c>
@@ -13407,21 +13490,21 @@
       </c>
     </row>
     <row r="9" spans="2:30" ht="20" customHeight="1">
-      <c r="I9" s="223" t="s">
+      <c r="I9" s="230" t="s">
         <v>327</v>
       </c>
       <c r="J9" s="47" t="s">
         <v>328</v>
       </c>
       <c r="K9" s="49"/>
-      <c r="L9" s="233">
+      <c r="L9" s="237">
         <f>SUM(K9:K13)</f>
         <v>10000</v>
       </c>
       <c r="M9" s="54">
         <v>1000000</v>
       </c>
-      <c r="N9" s="236">
+      <c r="N9" s="221">
         <f>L9/J14</f>
         <v>0.43478260869565216</v>
       </c>
@@ -13478,18 +13561,18 @@
       </c>
     </row>
     <row r="10" spans="2:30" ht="20" customHeight="1">
-      <c r="I10" s="227"/>
+      <c r="I10" s="234"/>
       <c r="J10" s="47" t="s">
         <v>329</v>
       </c>
       <c r="K10" s="48">
         <v>0</v>
       </c>
-      <c r="L10" s="230"/>
+      <c r="L10" s="218"/>
       <c r="M10" s="54">
         <v>400000</v>
       </c>
-      <c r="N10" s="230"/>
+      <c r="N10" s="218"/>
       <c r="Q10" s="63" t="s">
         <v>264</v>
       </c>
@@ -13543,18 +13626,18 @@
       </c>
     </row>
     <row r="11" spans="2:30" ht="20" customHeight="1">
-      <c r="I11" s="227"/>
+      <c r="I11" s="234"/>
       <c r="J11" s="47" t="s">
         <v>330</v>
       </c>
       <c r="K11" s="50">
         <v>10000</v>
       </c>
-      <c r="L11" s="230"/>
+      <c r="L11" s="218"/>
       <c r="M11" s="56">
         <v>2000000</v>
       </c>
-      <c r="N11" s="230"/>
+      <c r="N11" s="218"/>
       <c r="Q11" s="63" t="s">
         <v>266</v>
       </c>
@@ -13608,24 +13691,24 @@
       </c>
     </row>
     <row r="12" spans="2:30" ht="20" customHeight="1">
-      <c r="B12" s="234" t="s">
+      <c r="B12" s="216" t="s">
         <v>331</v>
       </c>
-      <c r="C12" s="234"/>
-      <c r="D12" s="234"/>
-      <c r="E12" s="234"/>
-      <c r="F12" s="234"/>
-      <c r="G12" s="234"/>
-      <c r="I12" s="227"/>
+      <c r="C12" s="216"/>
+      <c r="D12" s="216"/>
+      <c r="E12" s="216"/>
+      <c r="F12" s="216"/>
+      <c r="G12" s="216"/>
+      <c r="I12" s="234"/>
       <c r="J12" s="47" t="s">
         <v>332</v>
       </c>
       <c r="K12" s="48">
         <v>0</v>
       </c>
-      <c r="L12" s="230"/>
+      <c r="L12" s="218"/>
       <c r="M12" s="55"/>
-      <c r="N12" s="230"/>
+      <c r="N12" s="218"/>
       <c r="Q12" s="63" t="s">
         <v>268</v>
       </c>
@@ -13697,16 +13780,16 @@
       <c r="G13" s="30" t="s">
         <v>336</v>
       </c>
-      <c r="I13" s="228"/>
+      <c r="I13" s="235"/>
       <c r="J13" s="51" t="s">
         <v>338</v>
       </c>
       <c r="K13" s="51" t="s">
         <v>338</v>
       </c>
-      <c r="L13" s="231"/>
+      <c r="L13" s="219"/>
       <c r="M13" s="55"/>
-      <c r="N13" s="237"/>
+      <c r="N13" s="222"/>
       <c r="Q13" s="63" t="s">
         <v>270</v>
       </c>
@@ -13783,12 +13866,12 @@
       <c r="I14" s="52" t="s">
         <v>339</v>
       </c>
-      <c r="J14" s="216">
+      <c r="J14" s="223">
         <f>SUM(K4:K13)</f>
         <v>23000</v>
       </c>
-      <c r="K14" s="217"/>
-      <c r="L14" s="218"/>
+      <c r="K14" s="224"/>
+      <c r="L14" s="225"/>
       <c r="M14" s="57">
         <f>SUM(M5:M11)</f>
         <v>3982000</v>
@@ -13871,12 +13954,12 @@
       <c r="I15" s="52" t="s">
         <v>340</v>
       </c>
-      <c r="J15" s="216">
+      <c r="J15" s="223">
         <f>J14/C7</f>
         <v>5321.681319084737</v>
       </c>
-      <c r="K15" s="217"/>
-      <c r="L15" s="219"/>
+      <c r="K15" s="224"/>
+      <c r="L15" s="226"/>
       <c r="M15" s="55"/>
       <c r="N15" s="59"/>
       <c r="Q15" s="63" t="s">
@@ -13956,13 +14039,13 @@
       <c r="I16" s="52" t="s">
         <v>341</v>
       </c>
-      <c r="J16" s="220">
+      <c r="J16" s="227">
         <f>J14/C7</f>
         <v>5321.681319084737</v>
       </c>
-      <c r="K16" s="221"/>
-      <c r="L16" s="221"/>
-      <c r="M16" s="222"/>
+      <c r="K16" s="228"/>
+      <c r="L16" s="228"/>
+      <c r="M16" s="229"/>
       <c r="N16" s="60"/>
       <c r="Q16" s="63" t="s">
         <v>276</v>
@@ -15355,6 +15438,13 @@
     <row r="110" ht="26.4" customHeight="1"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="L4:L8"/>
+    <mergeCell ref="L9:L13"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="I2:N2"/>
     <mergeCell ref="Q2:W2"/>
@@ -15362,20 +15452,13 @@
     <mergeCell ref="B12:G12"/>
     <mergeCell ref="N4:N8"/>
     <mergeCell ref="N9:N13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="L4:L8"/>
-    <mergeCell ref="L9:L13"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/article/家庭财务管理手册2025.xlsx
+++ b/article/家庭财务管理手册2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\byy\code\luyao.github.io-main\luyao.github.io-main\article\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F8E429-DA80-4C6B-B85A-50A46F059DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A47655-3939-45F5-8768-CD8B9B6AE8DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1、年度预算" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="375">
   <si>
     <t>预算</t>
   </si>
@@ -2580,6 +2580,10 @@
   <si>
     <t>稠州</t>
     <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标完成率</t>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2890,7 +2894,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="74">
+  <borders count="75">
     <border>
       <left/>
       <right/>
@@ -3985,13 +3989,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="25"/>
+      </left>
+      <right style="thin">
+        <color indexed="25"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="238">
+  <cellXfs count="240">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4705,6 +4720,12 @@
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="7" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5683,7 +5704,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2、收入结余表'!$B$15</c:f>
+              <c:f>'2、收入结余表'!$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6042,30 +6063,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2、收入结余表'!$C$15:$I$15</c:f>
+              <c:f>'2、收入结余表'!$C$14:$I$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>14000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>108000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6225,10 +6246,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2、收入结余表'!$B$3:$B$14</c:f>
+              <c:f>'2、收入结余表'!$B$3:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>m"月"</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>44562</c:v>
                 </c:pt>
@@ -6236,33 +6257,30 @@
                   <c:v>44593</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44621</c:v>
+                  <c:v>44652</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44652</c:v>
+                  <c:v>44682</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44682</c:v>
+                  <c:v>44713</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44713</c:v>
+                  <c:v>44743</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44743</c:v>
+                  <c:v>44774</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44774</c:v>
+                  <c:v>44805</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44805</c:v>
+                  <c:v>44835</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44835</c:v>
+                  <c:v>44866</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44866</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>44896</c:v>
                 </c:pt>
               </c:numCache>
@@ -6270,45 +6288,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2、收入结余表'!$N$3:$N$14</c:f>
+              <c:f>'2、收入结余表'!$N$3:$N$13</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>6800</c:v>
-                </c:pt>
+                <c:ptCount val="11"/>
                 <c:pt idx="1">
-                  <c:v>28400</c:v>
+                  <c:v>2743839.63</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38900</c:v>
+                  <c:v>2711200.12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>56000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>55300</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>61100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80400</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>87400</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>103100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>112000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>117500</c:v>
+                  <c:v>3202467.2060000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6439,8 +6430,6 @@
         <c:crossAx val="2094734552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="15000"/>
-        <c:minorUnit val="7500"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -6689,13 +6678,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>201241</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>20755</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6725,13 +6714,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>12163</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>285751</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>59114</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8450,8 +8439,8 @@
         <v>10000</v>
       </c>
       <c r="D6" s="150">
-        <f>'2、收入结余表'!G15</f>
-        <v>10000</v>
+        <f>'2、收入结余表'!G14</f>
+        <v>0</v>
       </c>
       <c r="E6" s="182" t="s">
         <v>9</v>
@@ -8509,7 +8498,7 @@
       </c>
       <c r="D10" s="158">
         <f>SUM(D3:D9)</f>
-        <v>235000</v>
+        <v>225000</v>
       </c>
       <c r="E10" s="158"/>
     </row>
@@ -8709,11 +8698,11 @@
       </c>
       <c r="D26" s="176">
         <f>D10-D23</f>
-        <v>117500</v>
+        <v>107500</v>
       </c>
       <c r="E26" s="189">
         <f>D26/C26</f>
-        <v>1.4911167512690355</v>
+        <v>1.3642131979695431</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="25.5" customHeight="1">
@@ -8726,11 +8715,11 @@
       </c>
       <c r="D27" s="179">
         <f>D26/D$10</f>
-        <v>0.5</v>
+        <v>0.4777777777777778</v>
       </c>
       <c r="E27" s="179">
         <f>D27/C27</f>
-        <v>1.2944162436548223</v>
+        <v>1.2368866328257191</v>
       </c>
     </row>
   </sheetData>
@@ -8753,11 +8742,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:N16"/>
+  <dimension ref="B1:O15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q15" sqref="Q15"/>
+      <selection pane="bottomLeft" activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -8772,8 +8761,8 @@
     <col min="16" max="16384" width="16.36328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="20.25" customHeight="1"/>
-    <row r="2" spans="2:14" ht="25" customHeight="1">
+    <row r="1" spans="2:15" ht="20.25" customHeight="1"/>
+    <row r="2" spans="2:15" ht="25" customHeight="1">
       <c r="B2" s="129">
         <v>2023</v>
       </c>
@@ -8813,612 +8802,330 @@
       <c r="N2" s="68" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="2:14" ht="24.65" customHeight="1">
+      <c r="O2" s="238" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" ht="24.65" customHeight="1">
       <c r="B3" s="130">
         <v>44562</v>
       </c>
       <c r="C3" s="131"/>
-      <c r="D3" s="131">
-        <v>8000</v>
-      </c>
-      <c r="E3" s="131">
-        <v>3000</v>
-      </c>
-      <c r="F3" s="131">
-        <v>1500</v>
-      </c>
-      <c r="G3" s="131">
-        <v>800</v>
-      </c>
-      <c r="H3" s="131">
-        <v>1500</v>
-      </c>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
       <c r="I3" s="136"/>
-      <c r="J3" s="131">
-        <f t="shared" ref="J3:J14" si="0">SUM(C3:I3)</f>
-        <v>14800</v>
-      </c>
-      <c r="K3" s="137">
-        <v>8000</v>
-      </c>
-      <c r="L3" s="138">
-        <f>J3-K3-C3</f>
-        <v>6800</v>
-      </c>
-      <c r="M3" s="141">
-        <f t="shared" ref="M3:M15" si="1">L3/J3</f>
-        <v>0.45945945945945948</v>
-      </c>
-      <c r="N3" s="138">
-        <f>L3</f>
-        <v>6800</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" ht="24.65" customHeight="1">
+      <c r="J3" s="131"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="138"/>
+      <c r="M3" s="141"/>
+      <c r="N3" s="138"/>
+      <c r="O3" s="239"/>
+    </row>
+    <row r="4" spans="2:15" ht="24.65" customHeight="1">
       <c r="B4" s="130">
         <v>44593</v>
       </c>
-      <c r="C4" s="131">
-        <v>14000</v>
-      </c>
-      <c r="D4" s="131">
-        <v>8000</v>
-      </c>
-      <c r="E4" s="131">
-        <v>6000</v>
-      </c>
-      <c r="F4" s="131">
-        <v>2000</v>
-      </c>
-      <c r="G4" s="131">
-        <v>800</v>
-      </c>
-      <c r="H4" s="131">
-        <v>800</v>
-      </c>
-      <c r="I4" s="131">
-        <v>5000</v>
-      </c>
-      <c r="J4" s="131">
+      <c r="C4" s="131"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131"/>
+      <c r="G4" s="131"/>
+      <c r="H4" s="131"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="131"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="138"/>
+      <c r="M4" s="141"/>
+      <c r="N4" s="138">
+        <f>'3、存量资产-y'!B21+'3、存量资产-k'!B13</f>
+        <v>2743839.63</v>
+      </c>
+      <c r="O4" s="239">
+        <f>(N4-2510000)/(3500000-2510000)</f>
+        <v>0.23620164646464636</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="24.65" customHeight="1">
+      <c r="B5" s="130">
+        <v>44652</v>
+      </c>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="131"/>
+      <c r="K5" s="137"/>
+      <c r="L5" s="138"/>
+      <c r="M5" s="141"/>
+      <c r="N5" s="138">
+        <f>'3、存量资产-y'!D21+'3、存量资产-k'!D13</f>
+        <v>2711200.12</v>
+      </c>
+      <c r="O5" s="239">
+        <f t="shared" ref="O5:O6" si="0">(N5-2510000)/(3500000-2510000)</f>
+        <v>0.20323244444444455</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="24.65" customHeight="1">
+      <c r="B6" s="130">
+        <v>44682</v>
+      </c>
+      <c r="C6" s="131"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="137"/>
+      <c r="L6" s="138"/>
+      <c r="M6" s="141"/>
+      <c r="N6" s="138">
+        <f>'3、存量资产-y'!E21+'3、存量资产-k'!E13</f>
+        <v>3202467.2060000002</v>
+      </c>
+      <c r="O6" s="239">
         <f t="shared" si="0"/>
-        <v>36600</v>
-      </c>
-      <c r="K4" s="137">
-        <v>15000</v>
-      </c>
-      <c r="L4" s="138">
-        <f t="shared" ref="L4:L14" si="2">J4-K4</f>
-        <v>21600</v>
-      </c>
-      <c r="M4" s="141">
+        <v>0.69946182424242453</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="24.65" customHeight="1">
+      <c r="B7" s="130">
+        <v>44713</v>
+      </c>
+      <c r="C7" s="131"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="131"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="131"/>
+      <c r="J7" s="131"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="138"/>
+      <c r="M7" s="141"/>
+      <c r="N7" s="138"/>
+      <c r="O7" s="239"/>
+    </row>
+    <row r="8" spans="2:15" ht="24.65" customHeight="1">
+      <c r="B8" s="130">
+        <v>44743</v>
+      </c>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="131"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="131"/>
+      <c r="H8" s="131"/>
+      <c r="I8" s="131"/>
+      <c r="J8" s="131"/>
+      <c r="K8" s="137"/>
+      <c r="L8" s="138"/>
+      <c r="M8" s="141"/>
+      <c r="N8" s="138"/>
+      <c r="O8" s="239"/>
+    </row>
+    <row r="9" spans="2:15" ht="24.65" customHeight="1">
+      <c r="B9" s="130">
+        <v>44774</v>
+      </c>
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="131"/>
+      <c r="H9" s="131"/>
+      <c r="I9" s="131"/>
+      <c r="J9" s="131"/>
+      <c r="K9" s="137"/>
+      <c r="L9" s="138"/>
+      <c r="M9" s="141"/>
+      <c r="N9" s="138"/>
+      <c r="O9" s="239"/>
+    </row>
+    <row r="10" spans="2:15" ht="24.65" customHeight="1">
+      <c r="B10" s="130">
+        <v>44805</v>
+      </c>
+      <c r="C10" s="131"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="131"/>
+      <c r="F10" s="131"/>
+      <c r="G10" s="131"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="131"/>
+      <c r="J10" s="131"/>
+      <c r="K10" s="137"/>
+      <c r="L10" s="138"/>
+      <c r="M10" s="141"/>
+      <c r="N10" s="138"/>
+      <c r="O10" s="239"/>
+    </row>
+    <row r="11" spans="2:15" ht="24.65" customHeight="1">
+      <c r="B11" s="130">
+        <v>44835</v>
+      </c>
+      <c r="C11" s="131"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="131"/>
+      <c r="F11" s="131"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="131"/>
+      <c r="I11" s="131"/>
+      <c r="J11" s="131"/>
+      <c r="K11" s="137"/>
+      <c r="L11" s="138"/>
+      <c r="M11" s="141"/>
+      <c r="N11" s="138"/>
+      <c r="O11" s="239"/>
+    </row>
+    <row r="12" spans="2:15" ht="24.65" customHeight="1">
+      <c r="B12" s="130">
+        <v>44866</v>
+      </c>
+      <c r="C12" s="131"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="131"/>
+      <c r="H12" s="131"/>
+      <c r="I12" s="131"/>
+      <c r="J12" s="131"/>
+      <c r="K12" s="137"/>
+      <c r="L12" s="138"/>
+      <c r="M12" s="141"/>
+      <c r="N12" s="138"/>
+      <c r="O12" s="239"/>
+    </row>
+    <row r="13" spans="2:15" ht="24.65" customHeight="1">
+      <c r="B13" s="130">
+        <v>44896</v>
+      </c>
+      <c r="C13" s="131"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="131"/>
+      <c r="F13" s="131"/>
+      <c r="G13" s="131"/>
+      <c r="H13" s="131"/>
+      <c r="I13" s="131"/>
+      <c r="J13" s="131"/>
+      <c r="K13" s="137"/>
+      <c r="L13" s="138"/>
+      <c r="M13" s="141"/>
+      <c r="N13" s="138"/>
+      <c r="O13" s="239"/>
+    </row>
+    <row r="14" spans="2:15" ht="25" customHeight="1">
+      <c r="B14" s="132" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="133">
+        <f t="shared" ref="C14:L14" si="1">SUM(C3:C13)</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="133">
         <f t="shared" si="1"/>
-        <v>0.5901639344262295</v>
-      </c>
-      <c r="N4" s="138">
-        <f t="shared" ref="N4:N14" si="3">N3+L4</f>
-        <v>28400</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" ht="24.65" customHeight="1">
-      <c r="B5" s="130">
-        <v>44621</v>
-      </c>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131">
-        <v>8000</v>
-      </c>
-      <c r="E5" s="131">
         <v>0</v>
       </c>
-      <c r="F5" s="131">
-        <v>8000</v>
-      </c>
-      <c r="G5" s="131">
-        <v>800</v>
-      </c>
-      <c r="H5" s="131">
-        <v>1500</v>
-      </c>
-      <c r="I5" s="131"/>
-      <c r="J5" s="131">
-        <f t="shared" si="0"/>
-        <v>18300</v>
-      </c>
-      <c r="K5" s="137">
-        <v>7800</v>
-      </c>
-      <c r="L5" s="138">
-        <f t="shared" si="2"/>
-        <v>10500</v>
-      </c>
-      <c r="M5" s="141">
+      <c r="E14" s="133">
         <f t="shared" si="1"/>
-        <v>0.57377049180327866</v>
-      </c>
-      <c r="N5" s="138">
+        <v>0</v>
+      </c>
+      <c r="F14" s="133">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="133">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="133">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="133">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="133">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="139">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="140">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="142" t="e">
+        <f t="shared" ref="M14" si="2">L14/J14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N14" s="140"/>
+      <c r="O14" s="239"/>
+    </row>
+    <row r="15" spans="2:15" ht="25" customHeight="1">
+      <c r="B15" s="134" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="135" t="e">
+        <f t="shared" ref="C15:J15" si="3">C14/$J14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D15" s="135" t="e">
         <f t="shared" si="3"/>
-        <v>38900</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" ht="24.65" customHeight="1">
-      <c r="B6" s="130">
-        <v>44652</v>
-      </c>
-      <c r="C6" s="131"/>
-      <c r="D6" s="131">
-        <v>8000</v>
-      </c>
-      <c r="E6" s="131">
-        <v>4000</v>
-      </c>
-      <c r="F6" s="131">
-        <v>0</v>
-      </c>
-      <c r="G6" s="131">
-        <v>800</v>
-      </c>
-      <c r="H6" s="131">
-        <v>-2000</v>
-      </c>
-      <c r="I6" s="131"/>
-      <c r="J6" s="131">
-        <f t="shared" si="0"/>
-        <v>10800</v>
-      </c>
-      <c r="K6" s="137">
-        <v>7700</v>
-      </c>
-      <c r="L6" s="138">
-        <f t="shared" si="2"/>
-        <v>3100</v>
-      </c>
-      <c r="M6" s="141">
-        <f t="shared" si="1"/>
-        <v>0.28703703703703703</v>
-      </c>
-      <c r="N6" s="138">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E15" s="135" t="e">
         <f t="shared" si="3"/>
-        <v>42000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" ht="24.65" customHeight="1">
-      <c r="B7" s="130">
-        <v>44682</v>
-      </c>
-      <c r="C7" s="131"/>
-      <c r="D7" s="131">
-        <v>8000</v>
-      </c>
-      <c r="E7" s="131">
-        <v>7500</v>
-      </c>
-      <c r="F7" s="131">
-        <v>2000</v>
-      </c>
-      <c r="G7" s="131">
-        <v>800</v>
-      </c>
-      <c r="H7" s="131">
-        <v>700</v>
-      </c>
-      <c r="I7" s="131">
-        <v>4000</v>
-      </c>
-      <c r="J7" s="131">
-        <f t="shared" si="0"/>
-        <v>23000</v>
-      </c>
-      <c r="K7" s="137">
-        <v>9000</v>
-      </c>
-      <c r="L7" s="138">
-        <f t="shared" si="2"/>
-        <v>14000</v>
-      </c>
-      <c r="M7" s="141">
-        <f t="shared" si="1"/>
-        <v>0.60869565217391308</v>
-      </c>
-      <c r="N7" s="138">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F15" s="135" t="e">
         <f t="shared" si="3"/>
-        <v>56000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" ht="24.65" customHeight="1">
-      <c r="B8" s="130">
-        <v>44713</v>
-      </c>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131">
-        <v>8000</v>
-      </c>
-      <c r="E8" s="131">
-        <v>2500</v>
-      </c>
-      <c r="F8" s="131">
-        <v>1500</v>
-      </c>
-      <c r="G8" s="131">
-        <v>800</v>
-      </c>
-      <c r="H8" s="131">
-        <v>1500</v>
-      </c>
-      <c r="I8" s="131"/>
-      <c r="J8" s="131">
-        <f t="shared" si="0"/>
-        <v>14300</v>
-      </c>
-      <c r="K8" s="137">
-        <v>15000</v>
-      </c>
-      <c r="L8" s="138">
-        <f t="shared" si="2"/>
-        <v>-700</v>
-      </c>
-      <c r="M8" s="141">
-        <f t="shared" si="1"/>
-        <v>-4.8951048951048952E-2</v>
-      </c>
-      <c r="N8" s="138">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G15" s="135" t="e">
         <f t="shared" si="3"/>
-        <v>55300</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" ht="24.65" customHeight="1">
-      <c r="B9" s="130">
-        <v>44743</v>
-      </c>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131">
-        <v>10000</v>
-      </c>
-      <c r="E9" s="131">
-        <v>1000</v>
-      </c>
-      <c r="F9" s="131">
-        <v>3000</v>
-      </c>
-      <c r="G9" s="131">
-        <v>800</v>
-      </c>
-      <c r="H9" s="131">
-        <v>1500</v>
-      </c>
-      <c r="I9" s="131"/>
-      <c r="J9" s="131">
-        <f t="shared" si="0"/>
-        <v>16300</v>
-      </c>
-      <c r="K9" s="137">
-        <v>10500</v>
-      </c>
-      <c r="L9" s="138">
-        <f t="shared" si="2"/>
-        <v>5800</v>
-      </c>
-      <c r="M9" s="141">
-        <f t="shared" si="1"/>
-        <v>0.35582822085889571</v>
-      </c>
-      <c r="N9" s="138">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H15" s="135" t="e">
         <f t="shared" si="3"/>
-        <v>61100</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" ht="24.65" customHeight="1">
-      <c r="B10" s="130">
-        <v>44774</v>
-      </c>
-      <c r="C10" s="131"/>
-      <c r="D10" s="131">
-        <v>10000</v>
-      </c>
-      <c r="E10" s="131">
-        <v>15000</v>
-      </c>
-      <c r="F10" s="131">
-        <v>0</v>
-      </c>
-      <c r="G10" s="131">
-        <v>800</v>
-      </c>
-      <c r="H10" s="131">
-        <v>-500</v>
-      </c>
-      <c r="I10" s="131">
-        <v>3000</v>
-      </c>
-      <c r="J10" s="131">
-        <f t="shared" si="0"/>
-        <v>28300</v>
-      </c>
-      <c r="K10" s="137">
-        <v>9000</v>
-      </c>
-      <c r="L10" s="138">
-        <f t="shared" si="2"/>
-        <v>19300</v>
-      </c>
-      <c r="M10" s="141">
-        <f t="shared" si="1"/>
-        <v>0.6819787985865724</v>
-      </c>
-      <c r="N10" s="138">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I15" s="135" t="e">
         <f t="shared" si="3"/>
-        <v>80400</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" ht="24.65" customHeight="1">
-      <c r="B11" s="130">
-        <v>44805</v>
-      </c>
-      <c r="C11" s="131"/>
-      <c r="D11" s="131">
-        <v>10000</v>
-      </c>
-      <c r="E11" s="131">
-        <v>3000</v>
-      </c>
-      <c r="F11" s="131">
-        <v>3000</v>
-      </c>
-      <c r="G11" s="131">
-        <v>800</v>
-      </c>
-      <c r="H11" s="131">
-        <v>800</v>
-      </c>
-      <c r="I11" s="131"/>
-      <c r="J11" s="131">
-        <f t="shared" si="0"/>
-        <v>17600</v>
-      </c>
-      <c r="K11" s="137">
-        <v>10600</v>
-      </c>
-      <c r="L11" s="138">
-        <f t="shared" si="2"/>
-        <v>7000</v>
-      </c>
-      <c r="M11" s="141">
-        <f t="shared" si="1"/>
-        <v>0.39772727272727271</v>
-      </c>
-      <c r="N11" s="138">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J15" s="135" t="e">
         <f t="shared" si="3"/>
-        <v>87400</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" ht="24.65" customHeight="1">
-      <c r="B12" s="130">
-        <v>44835</v>
-      </c>
-      <c r="C12" s="131"/>
-      <c r="D12" s="131">
-        <v>10000</v>
-      </c>
-      <c r="E12" s="131">
-        <v>6000</v>
-      </c>
-      <c r="F12" s="131">
-        <v>6000</v>
-      </c>
-      <c r="G12" s="131">
-        <v>800</v>
-      </c>
-      <c r="H12" s="131">
-        <v>1500</v>
-      </c>
-      <c r="I12" s="131"/>
-      <c r="J12" s="131">
-        <f t="shared" si="0"/>
-        <v>24300</v>
-      </c>
-      <c r="K12" s="137">
-        <v>8600</v>
-      </c>
-      <c r="L12" s="138">
-        <f t="shared" si="2"/>
-        <v>15700</v>
-      </c>
-      <c r="M12" s="141">
-        <f t="shared" si="1"/>
-        <v>0.64609053497942381</v>
-      </c>
-      <c r="N12" s="138">
-        <f t="shared" si="3"/>
-        <v>103100</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" ht="24.65" customHeight="1">
-      <c r="B13" s="130">
-        <v>44866</v>
-      </c>
-      <c r="C13" s="131"/>
-      <c r="D13" s="131">
-        <v>10000</v>
-      </c>
-      <c r="E13" s="131">
-        <v>1000</v>
-      </c>
-      <c r="F13" s="131">
-        <v>3000</v>
-      </c>
-      <c r="G13" s="131">
-        <v>1000</v>
-      </c>
-      <c r="H13" s="131">
-        <v>1200</v>
-      </c>
-      <c r="I13" s="131"/>
-      <c r="J13" s="131">
-        <f t="shared" si="0"/>
-        <v>16200</v>
-      </c>
-      <c r="K13" s="137">
-        <v>7300</v>
-      </c>
-      <c r="L13" s="138">
-        <f t="shared" si="2"/>
-        <v>8900</v>
-      </c>
-      <c r="M13" s="141">
-        <f t="shared" si="1"/>
-        <v>0.54938271604938271</v>
-      </c>
-      <c r="N13" s="138">
-        <f t="shared" si="3"/>
-        <v>112000</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" ht="24.65" customHeight="1">
-      <c r="B14" s="130">
-        <v>44896</v>
-      </c>
-      <c r="C14" s="131"/>
-      <c r="D14" s="131">
-        <v>10000</v>
-      </c>
-      <c r="E14" s="131">
-        <v>7000</v>
-      </c>
-      <c r="F14" s="131">
-        <v>0</v>
-      </c>
-      <c r="G14" s="131">
-        <v>1000</v>
-      </c>
-      <c r="H14" s="131">
-        <v>-3500</v>
-      </c>
-      <c r="I14" s="131"/>
-      <c r="J14" s="131">
-        <f t="shared" si="0"/>
-        <v>14500</v>
-      </c>
-      <c r="K14" s="137">
-        <v>9000</v>
-      </c>
-      <c r="L14" s="138">
-        <f t="shared" si="2"/>
-        <v>5500</v>
-      </c>
-      <c r="M14" s="141">
-        <f t="shared" si="1"/>
-        <v>0.37931034482758619</v>
-      </c>
-      <c r="N14" s="138">
-        <f t="shared" si="3"/>
-        <v>117500</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" ht="25" customHeight="1">
-      <c r="B15" s="132" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="133">
-        <f t="shared" ref="C15:L15" si="4">SUM(C3:C14)</f>
-        <v>14000</v>
-      </c>
-      <c r="D15" s="133">
-        <f t="shared" si="4"/>
-        <v>108000</v>
-      </c>
-      <c r="E15" s="133">
-        <f t="shared" si="4"/>
-        <v>56000</v>
-      </c>
-      <c r="F15" s="133">
-        <f t="shared" si="4"/>
-        <v>30000</v>
-      </c>
-      <c r="G15" s="133">
-        <f t="shared" si="4"/>
-        <v>10000</v>
-      </c>
-      <c r="H15" s="133">
-        <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="I15" s="133">
-        <f t="shared" si="4"/>
-        <v>12000</v>
-      </c>
-      <c r="J15" s="133">
-        <f t="shared" si="4"/>
-        <v>235000</v>
-      </c>
-      <c r="K15" s="139">
-        <f t="shared" si="4"/>
-        <v>117500</v>
-      </c>
-      <c r="L15" s="140">
-        <f t="shared" si="4"/>
-        <v>117500</v>
-      </c>
-      <c r="M15" s="142">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="N15" s="140">
-        <f>N14</f>
-        <v>117500</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" ht="25" customHeight="1">
-      <c r="B16" s="134" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="135">
-        <f t="shared" ref="C16:J16" si="5">C15/$J15</f>
-        <v>5.9574468085106386E-2</v>
-      </c>
-      <c r="D16" s="135">
-        <f t="shared" si="5"/>
-        <v>0.45957446808510638</v>
-      </c>
-      <c r="E16" s="135">
-        <f t="shared" si="5"/>
-        <v>0.23829787234042554</v>
-      </c>
-      <c r="F16" s="135">
-        <f t="shared" si="5"/>
-        <v>0.1276595744680851</v>
-      </c>
-      <c r="G16" s="135">
-        <f t="shared" si="5"/>
-        <v>4.2553191489361701E-2</v>
-      </c>
-      <c r="H16" s="135">
-        <f t="shared" si="5"/>
-        <v>2.1276595744680851E-2</v>
-      </c>
-      <c r="I16" s="135">
-        <f t="shared" si="5"/>
-        <v>5.106382978723404E-2</v>
-      </c>
-      <c r="J16" s="135">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="K16" s="135"/>
-      <c r="L16" s="135"/>
-      <c r="M16" s="135">
-        <f>N15/J15</f>
-        <v>0.5</v>
-      </c>
-      <c r="N16" s="135"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K15" s="135"/>
+      <c r="L15" s="135"/>
+      <c r="M15" s="135" t="e">
+        <f>N14/J14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N15" s="135"/>
+      <c r="O15" s="239"/>
     </row>
   </sheetData>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -9429,11 +9136,11 @@
   </sheetPr>
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -9493,8 +9200,10 @@
       <c r="D2" s="119">
         <v>948</v>
       </c>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
+      <c r="E2" s="119">
+        <v>993</v>
+      </c>
+      <c r="F2" s="118"/>
       <c r="G2" s="119"/>
       <c r="H2" s="119"/>
       <c r="I2" s="119"/>
@@ -9514,9 +9223,11 @@
       <c r="D3" s="120">
         <v>114310</v>
       </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
+      <c r="E3" s="120">
+        <v>109830</v>
+      </c>
+      <c r="F3" s="118"/>
+      <c r="G3" s="119"/>
       <c r="H3" s="120"/>
       <c r="I3" s="120"/>
       <c r="J3" s="120"/>
@@ -9535,8 +9246,10 @@
       <c r="D4" s="119">
         <v>205674</v>
       </c>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
+      <c r="E4" s="119">
+        <v>300346</v>
+      </c>
+      <c r="F4" s="118"/>
       <c r="G4" s="119"/>
       <c r="H4" s="119"/>
       <c r="I4" s="119"/>
@@ -9556,9 +9269,11 @@
       <c r="D5" s="120">
         <v>24314</v>
       </c>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
+      <c r="E5" s="120">
+        <v>100131</v>
+      </c>
+      <c r="F5" s="118"/>
+      <c r="G5" s="119"/>
       <c r="H5" s="120"/>
       <c r="I5" s="120"/>
       <c r="J5" s="120"/>
@@ -9577,8 +9292,10 @@
       <c r="D6" s="119">
         <v>10523</v>
       </c>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
+      <c r="E6" s="119">
+        <v>61952</v>
+      </c>
+      <c r="F6" s="118"/>
       <c r="G6" s="119"/>
       <c r="H6" s="119"/>
       <c r="I6" s="119"/>
@@ -9598,9 +9315,11 @@
       <c r="D7" s="120">
         <v>4643</v>
       </c>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="120"/>
+      <c r="E7" s="120">
+        <v>0</v>
+      </c>
+      <c r="F7" s="118"/>
+      <c r="G7" s="119"/>
       <c r="H7" s="120"/>
       <c r="I7" s="120"/>
       <c r="J7" s="120"/>
@@ -9619,8 +9338,10 @@
       <c r="D8" s="119">
         <v>7371</v>
       </c>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
+      <c r="E8" s="119">
+        <v>8304</v>
+      </c>
+      <c r="F8" s="118"/>
       <c r="G8" s="119"/>
       <c r="H8" s="119"/>
       <c r="I8" s="119"/>
@@ -9640,8 +9361,10 @@
       <c r="D9" s="119">
         <v>19084</v>
       </c>
-      <c r="E9" s="119"/>
-      <c r="F9" s="119"/>
+      <c r="E9" s="119">
+        <v>1003</v>
+      </c>
+      <c r="F9" s="118"/>
       <c r="G9" s="119"/>
       <c r="H9" s="119"/>
       <c r="I9" s="119"/>
@@ -9661,8 +9384,10 @@
       <c r="D10" s="119">
         <v>48.68</v>
       </c>
-      <c r="E10" s="119"/>
-      <c r="F10" s="119"/>
+      <c r="E10" s="119">
+        <v>65963</v>
+      </c>
+      <c r="F10" s="118"/>
       <c r="G10" s="119"/>
       <c r="H10" s="119"/>
       <c r="I10" s="119"/>
@@ -9680,8 +9405,10 @@
       <c r="D11" s="119">
         <v>500000</v>
       </c>
-      <c r="E11" s="119"/>
-      <c r="F11" s="119"/>
+      <c r="E11" s="119">
+        <v>500000</v>
+      </c>
+      <c r="F11" s="118"/>
       <c r="G11" s="119"/>
       <c r="H11" s="119"/>
       <c r="I11" s="119"/>
@@ -9699,8 +9426,10 @@
       <c r="D12" s="119">
         <v>500000</v>
       </c>
-      <c r="E12" s="119"/>
-      <c r="F12" s="119"/>
+      <c r="E12" s="119">
+        <v>500000</v>
+      </c>
+      <c r="F12" s="118"/>
       <c r="G12" s="119"/>
       <c r="H12" s="119"/>
       <c r="I12" s="119"/>
@@ -9726,8 +9455,8 @@
         <v>1386915.68</v>
       </c>
       <c r="E13" s="122">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(E2:E12)</f>
+        <v>1648522</v>
       </c>
       <c r="F13" s="122">
         <f t="shared" si="0"/>
@@ -9770,7 +9499,9 @@
       <c r="D14" s="119">
         <v>132409</v>
       </c>
-      <c r="E14" s="119"/>
+      <c r="E14" s="119">
+        <v>132595</v>
+      </c>
       <c r="F14" s="119"/>
       <c r="G14" s="119"/>
       <c r="H14" s="119"/>
@@ -9791,7 +9522,9 @@
       <c r="D15" s="119">
         <v>98337</v>
       </c>
-      <c r="E15" s="119"/>
+      <c r="E15" s="119">
+        <v>105721</v>
+      </c>
       <c r="F15" s="119"/>
       <c r="G15" s="119"/>
       <c r="H15" s="119"/>
@@ -9812,7 +9545,9 @@
       <c r="D16" s="120">
         <v>10370</v>
       </c>
-      <c r="E16" s="120"/>
+      <c r="E16" s="120">
+        <v>10642</v>
+      </c>
       <c r="F16" s="120"/>
       <c r="G16" s="120"/>
       <c r="H16" s="120"/>
@@ -9840,7 +9575,7 @@
       </c>
       <c r="E17" s="124">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>248958</v>
       </c>
       <c r="F17" s="124">
         <f t="shared" si="1"/>
@@ -9974,7 +9709,7 @@
       </c>
       <c r="E21" s="126">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1897480</v>
       </c>
       <c r="F21" s="126">
         <f t="shared" si="3"/>
@@ -10024,7 +9759,7 @@
       </c>
       <c r="E22" s="126">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1897480</v>
       </c>
       <c r="F22" s="126">
         <f t="shared" si="4"/>
@@ -10059,7 +9794,7 @@
   </sheetData>
   <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -10077,7 +9812,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -10138,7 +9873,10 @@
         <f>125102.3*7.3</f>
         <v>913246.79</v>
       </c>
-      <c r="E2" s="119"/>
+      <c r="E2" s="119">
+        <f>151164.33*7.2</f>
+        <v>1088383.176</v>
+      </c>
       <c r="F2" s="119"/>
       <c r="G2" s="119"/>
       <c r="H2" s="119"/>
@@ -10160,7 +9898,10 @@
         <f>55379.18+215.17+381.38+1428.41</f>
         <v>57404.14</v>
       </c>
-      <c r="E3" s="120"/>
+      <c r="E3" s="120">
+        <f>80591.16+1391.55+403.72+287.31</f>
+        <v>82673.740000000005</v>
+      </c>
       <c r="F3" s="120"/>
       <c r="G3" s="120"/>
       <c r="H3" s="120"/>
@@ -10181,7 +9922,10 @@
       <c r="D4" s="119">
         <v>9131.4500000000007</v>
       </c>
-      <c r="E4" s="119"/>
+      <c r="E4" s="119">
+        <f>3095.47+12088.8</f>
+        <v>15184.269999999999</v>
+      </c>
       <c r="F4" s="119"/>
       <c r="G4" s="119"/>
       <c r="H4" s="119"/>
@@ -10208,8 +9952,8 @@
         <v>979782.38</v>
       </c>
       <c r="E5" s="122">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="E5" si="2">SUM(E2:E4)</f>
+        <v>1186241.186</v>
       </c>
       <c r="F5" s="122">
         <f t="shared" si="0"/>
@@ -10253,7 +9997,10 @@
         <f>32930.16+57813.86</f>
         <v>90744.02</v>
       </c>
-      <c r="E6" s="119"/>
+      <c r="E6" s="119">
+        <f>32930.16+57813.86+15360</f>
+        <v>106104.02</v>
+      </c>
       <c r="F6" s="119"/>
       <c r="G6" s="119"/>
       <c r="H6" s="119"/>
@@ -10274,7 +10021,9 @@
       <c r="D7" s="119">
         <v>12642.04</v>
       </c>
-      <c r="E7" s="119"/>
+      <c r="E7" s="119">
+        <v>12642</v>
+      </c>
       <c r="F7" s="119"/>
       <c r="G7" s="119"/>
       <c r="H7" s="119"/>
@@ -10289,11 +10038,11 @@
         <v>41</v>
       </c>
       <c r="B8" s="124">
-        <f t="shared" ref="B8:L8" si="2">SUM(B6:B7)</f>
+        <f t="shared" ref="B8:L8" si="3">SUM(B6:B7)</f>
         <v>118103.82</v>
       </c>
       <c r="C8" s="124">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D8" s="124">
@@ -10301,35 +10050,35 @@
         <v>103386.06</v>
       </c>
       <c r="E8" s="124">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="E8" si="4">SUM(E6:E7)</f>
+        <v>118746.02</v>
+      </c>
+      <c r="F8" s="124">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F8" s="124">
-        <f t="shared" si="2"/>
+      <c r="G8" s="124">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G8" s="124">
-        <f t="shared" si="2"/>
+      <c r="H8" s="124">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H8" s="124">
-        <f t="shared" si="2"/>
+      <c r="I8" s="124">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I8" s="124">
-        <f t="shared" si="2"/>
+      <c r="J8" s="124">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J8" s="124">
-        <f t="shared" si="2"/>
+      <c r="K8" s="124">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K8" s="124">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="L8" s="124">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M8" s="128"/>
@@ -10373,7 +10122,7 @@
         <v>46</v>
       </c>
       <c r="B11" s="122">
-        <f t="shared" ref="B11:L11" si="3">SUM(B9:B10)</f>
+        <f t="shared" ref="B11:L11" si="5">SUM(B9:B10)</f>
         <v>0</v>
       </c>
       <c r="C11" s="122">
@@ -10381,39 +10130,39 @@
         <v>0</v>
       </c>
       <c r="D11" s="122">
-        <f t="shared" ref="D11" si="4">SUM(D9:D10)</f>
+        <f t="shared" ref="D11:E11" si="6">SUM(D9:D10)</f>
         <v>0</v>
       </c>
       <c r="E11" s="122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F11" s="122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G11" s="122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H11" s="122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I11" s="122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J11" s="122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K11" s="122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L11" s="122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M11" s="128"/>
@@ -10423,47 +10172,47 @@
         <v>47</v>
       </c>
       <c r="B12" s="126">
-        <f t="shared" ref="B12:L12" si="5">SUM(B5,B8)</f>
+        <f t="shared" ref="B12:L12" si="7">SUM(B5,B8)</f>
         <v>1160530.3199999998</v>
       </c>
       <c r="C12" s="126">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D12" s="126">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1083168.44</v>
       </c>
       <c r="E12" s="126">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>1304987.206</v>
+      </c>
+      <c r="F12" s="126">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F12" s="126">
-        <f t="shared" si="5"/>
+      <c r="G12" s="126">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G12" s="126">
-        <f t="shared" si="5"/>
+      <c r="H12" s="126">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H12" s="126">
-        <f t="shared" si="5"/>
+      <c r="I12" s="126">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I12" s="126">
-        <f t="shared" si="5"/>
+      <c r="J12" s="126">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J12" s="126">
-        <f t="shared" si="5"/>
+      <c r="K12" s="126">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K12" s="126">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="L12" s="126">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M12" s="128"/>
@@ -10473,47 +10222,47 @@
         <v>48</v>
       </c>
       <c r="B13" s="126">
-        <f t="shared" ref="B13:L13" si="6">B12-B11</f>
+        <f t="shared" ref="B13:L13" si="8">B12-B11</f>
         <v>1160530.3199999998</v>
       </c>
       <c r="C13" s="126">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D13" s="126">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1083168.44</v>
       </c>
       <c r="E13" s="126">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
+        <v>1304987.206</v>
+      </c>
+      <c r="F13" s="126">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F13" s="126">
-        <f t="shared" si="6"/>
+      <c r="G13" s="126">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G13" s="126">
-        <f t="shared" si="6"/>
+      <c r="H13" s="126">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H13" s="126">
-        <f t="shared" si="6"/>
+      <c r="I13" s="126">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I13" s="126">
-        <f t="shared" si="6"/>
+      <c r="J13" s="126">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J13" s="126">
-        <f t="shared" si="6"/>
+      <c r="K13" s="126">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K13" s="126">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="L13" s="126">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M13" s="128"/>
@@ -11358,7 +11107,7 @@
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="O14" sqref="O14"/>

--- a/article/家庭财务管理手册2025.xlsx
+++ b/article/家庭财务管理手册2025.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\byy\code\luyao.github.io-main\luyao.github.io-main\article\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18717\Documents\GitHub\luyao.github.io\article\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A47655-3939-45F5-8768-CD8B9B6AE8DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3017B883-766D-444A-9F48-8AC007987C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="377">
   <si>
     <t>预算</t>
   </si>
@@ -2584,6 +2584,14 @@
   <si>
     <t>目标完成率</t>
     <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>易方达</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹏华</t>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4006,7 +4014,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="240">
+  <cellXfs count="242">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4577,6 +4585,12 @@
     <xf numFmtId="181" fontId="24" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="7" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="13" fillId="14" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4588,6 +4602,39 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="17" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4622,38 +4669,59 @@
     <xf numFmtId="0" fontId="14" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="1" fontId="9" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4661,71 +4729,17 @@
     <xf numFmtId="10" fontId="2" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="7" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6300,6 +6314,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3202467.2060000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3287716.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8378,10 +8395,10 @@
       </c>
     </row>
     <row r="2" spans="2:5" ht="22.75" customHeight="1">
-      <c r="B2" s="190" t="s">
+      <c r="B2" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="191"/>
+      <c r="C2" s="193"/>
       <c r="D2" s="144" t="s">
         <v>2</v>
       </c>
@@ -8509,10 +8526,10 @@
       <c r="E11" s="159"/>
     </row>
     <row r="12" spans="2:5" ht="22.75" customHeight="1">
-      <c r="B12" s="192" t="s">
+      <c r="B12" s="194" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="193"/>
+      <c r="C12" s="195"/>
       <c r="D12" s="160" t="s">
         <v>2</v>
       </c>
@@ -8746,7 +8763,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q16" sqref="Q16"/>
+      <selection pane="bottomLeft" activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -8802,7 +8819,7 @@
       <c r="N2" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="238" t="s">
+      <c r="O2" s="190" t="s">
         <v>374</v>
       </c>
     </row>
@@ -8822,7 +8839,7 @@
       <c r="L3" s="138"/>
       <c r="M3" s="141"/>
       <c r="N3" s="138"/>
-      <c r="O3" s="239"/>
+      <c r="O3" s="191"/>
     </row>
     <row r="4" spans="2:15" ht="24.65" customHeight="1">
       <c r="B4" s="130">
@@ -8840,10 +8857,10 @@
       <c r="L4" s="138"/>
       <c r="M4" s="141"/>
       <c r="N4" s="138">
-        <f>'3、存量资产-y'!B21+'3、存量资产-k'!B13</f>
+        <f>'3、存量资产-y'!B24+'3、存量资产-k'!B13</f>
         <v>2743839.63</v>
       </c>
-      <c r="O4" s="239">
+      <c r="O4" s="191">
         <f>(N4-2510000)/(3500000-2510000)</f>
         <v>0.23620164646464636</v>
       </c>
@@ -8864,10 +8881,10 @@
       <c r="L5" s="138"/>
       <c r="M5" s="141"/>
       <c r="N5" s="138">
-        <f>'3、存量资产-y'!D21+'3、存量资产-k'!D13</f>
+        <f>'3、存量资产-y'!D24+'3、存量资产-k'!D13</f>
         <v>2711200.12</v>
       </c>
-      <c r="O5" s="239">
+      <c r="O5" s="191">
         <f t="shared" ref="O5:O6" si="0">(N5-2510000)/(3500000-2510000)</f>
         <v>0.20323244444444455</v>
       </c>
@@ -8888,10 +8905,10 @@
       <c r="L6" s="138"/>
       <c r="M6" s="141"/>
       <c r="N6" s="138">
-        <f>'3、存量资产-y'!E21+'3、存量资产-k'!E13</f>
+        <f>'3、存量资产-y'!E24+'3、存量资产-k'!E13</f>
         <v>3202467.2060000002</v>
       </c>
-      <c r="O6" s="239">
+      <c r="O6" s="191">
         <f t="shared" si="0"/>
         <v>0.69946182424242453</v>
       </c>
@@ -8911,8 +8928,11 @@
       <c r="K7" s="137"/>
       <c r="L7" s="138"/>
       <c r="M7" s="141"/>
-      <c r="N7" s="138"/>
-      <c r="O7" s="239"/>
+      <c r="N7" s="138">
+        <f>'3、存量资产-y'!F24+'3、存量资产-k'!F13</f>
+        <v>3287716.7</v>
+      </c>
+      <c r="O7" s="191"/>
     </row>
     <row r="8" spans="2:15" ht="24.65" customHeight="1">
       <c r="B8" s="130">
@@ -8930,7 +8950,7 @@
       <c r="L8" s="138"/>
       <c r="M8" s="141"/>
       <c r="N8" s="138"/>
-      <c r="O8" s="239"/>
+      <c r="O8" s="191"/>
     </row>
     <row r="9" spans="2:15" ht="24.65" customHeight="1">
       <c r="B9" s="130">
@@ -8948,7 +8968,7 @@
       <c r="L9" s="138"/>
       <c r="M9" s="141"/>
       <c r="N9" s="138"/>
-      <c r="O9" s="239"/>
+      <c r="O9" s="191"/>
     </row>
     <row r="10" spans="2:15" ht="24.65" customHeight="1">
       <c r="B10" s="130">
@@ -8966,7 +8986,7 @@
       <c r="L10" s="138"/>
       <c r="M10" s="141"/>
       <c r="N10" s="138"/>
-      <c r="O10" s="239"/>
+      <c r="O10" s="191"/>
     </row>
     <row r="11" spans="2:15" ht="24.65" customHeight="1">
       <c r="B11" s="130">
@@ -8984,7 +9004,7 @@
       <c r="L11" s="138"/>
       <c r="M11" s="141"/>
       <c r="N11" s="138"/>
-      <c r="O11" s="239"/>
+      <c r="O11" s="191"/>
     </row>
     <row r="12" spans="2:15" ht="24.65" customHeight="1">
       <c r="B12" s="130">
@@ -9002,7 +9022,7 @@
       <c r="L12" s="138"/>
       <c r="M12" s="141"/>
       <c r="N12" s="138"/>
-      <c r="O12" s="239"/>
+      <c r="O12" s="191"/>
     </row>
     <row r="13" spans="2:15" ht="24.65" customHeight="1">
       <c r="B13" s="130">
@@ -9020,7 +9040,7 @@
       <c r="L13" s="138"/>
       <c r="M13" s="141"/>
       <c r="N13" s="138"/>
-      <c r="O13" s="239"/>
+      <c r="O13" s="191"/>
     </row>
     <row r="14" spans="2:15" ht="25" customHeight="1">
       <c r="B14" s="132" t="s">
@@ -9071,7 +9091,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N14" s="140"/>
-      <c r="O14" s="239"/>
+      <c r="O14" s="191"/>
     </row>
     <row r="15" spans="2:15" ht="25" customHeight="1">
       <c r="B15" s="134" t="s">
@@ -9116,7 +9136,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N15" s="135"/>
-      <c r="O15" s="239"/>
+      <c r="O15" s="191"/>
     </row>
   </sheetData>
   <phoneticPr fontId="25" type="noConversion"/>
@@ -9134,13 +9154,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -9203,7 +9223,9 @@
       <c r="E2" s="119">
         <v>993</v>
       </c>
-      <c r="F2" s="118"/>
+      <c r="F2" s="240">
+        <v>1000</v>
+      </c>
       <c r="G2" s="119"/>
       <c r="H2" s="119"/>
       <c r="I2" s="119"/>
@@ -9226,7 +9248,9 @@
       <c r="E3" s="120">
         <v>109830</v>
       </c>
-      <c r="F3" s="118"/>
+      <c r="F3" s="240">
+        <v>47595.07</v>
+      </c>
       <c r="G3" s="119"/>
       <c r="H3" s="120"/>
       <c r="I3" s="120"/>
@@ -9249,7 +9273,9 @@
       <c r="E4" s="119">
         <v>300346</v>
       </c>
-      <c r="F4" s="118"/>
+      <c r="F4" s="241">
+        <v>215335</v>
+      </c>
       <c r="G4" s="119"/>
       <c r="H4" s="119"/>
       <c r="I4" s="119"/>
@@ -9272,7 +9298,9 @@
       <c r="E5" s="120">
         <v>100131</v>
       </c>
-      <c r="F5" s="118"/>
+      <c r="F5" s="119">
+        <v>25450</v>
+      </c>
       <c r="G5" s="119"/>
       <c r="H5" s="120"/>
       <c r="I5" s="120"/>
@@ -9295,7 +9323,9 @@
       <c r="E6" s="119">
         <v>61952</v>
       </c>
-      <c r="F6" s="118"/>
+      <c r="F6" s="119">
+        <v>200401</v>
+      </c>
       <c r="G6" s="119"/>
       <c r="H6" s="119"/>
       <c r="I6" s="119"/>
@@ -9318,7 +9348,9 @@
       <c r="E7" s="120">
         <v>0</v>
       </c>
-      <c r="F7" s="118"/>
+      <c r="F7" s="119">
+        <v>0</v>
+      </c>
       <c r="G7" s="119"/>
       <c r="H7" s="120"/>
       <c r="I7" s="120"/>
@@ -9341,7 +9373,9 @@
       <c r="E8" s="119">
         <v>8304</v>
       </c>
-      <c r="F8" s="118"/>
+      <c r="F8" s="119">
+        <v>7303.76</v>
+      </c>
       <c r="G8" s="119"/>
       <c r="H8" s="119"/>
       <c r="I8" s="119"/>
@@ -9364,7 +9398,9 @@
       <c r="E9" s="119">
         <v>1003</v>
       </c>
-      <c r="F9" s="118"/>
+      <c r="F9" s="119">
+        <v>162</v>
+      </c>
       <c r="G9" s="119"/>
       <c r="H9" s="119"/>
       <c r="I9" s="119"/>
@@ -9387,7 +9423,9 @@
       <c r="E10" s="119">
         <v>65963</v>
       </c>
-      <c r="F10" s="118"/>
+      <c r="F10" s="119">
+        <v>10690</v>
+      </c>
       <c r="G10" s="119"/>
       <c r="H10" s="119"/>
       <c r="I10" s="119"/>
@@ -9400,7 +9438,9 @@
       <c r="A11" s="118" t="s">
         <v>372</v>
       </c>
-      <c r="B11" s="119"/>
+      <c r="B11" s="119">
+        <v>0</v>
+      </c>
       <c r="C11" s="119"/>
       <c r="D11" s="119">
         <v>500000</v>
@@ -9408,7 +9448,9 @@
       <c r="E11" s="119">
         <v>500000</v>
       </c>
-      <c r="F11" s="118"/>
+      <c r="F11" s="119">
+        <v>500000</v>
+      </c>
       <c r="G11" s="119"/>
       <c r="H11" s="119"/>
       <c r="I11" s="119"/>
@@ -9421,7 +9463,9 @@
       <c r="A12" s="118" t="s">
         <v>373</v>
       </c>
-      <c r="B12" s="119"/>
+      <c r="B12" s="119">
+        <v>0</v>
+      </c>
       <c r="C12" s="119"/>
       <c r="D12" s="119">
         <v>500000</v>
@@ -9429,7 +9473,9 @@
       <c r="E12" s="119">
         <v>500000</v>
       </c>
-      <c r="F12" s="118"/>
+      <c r="F12" s="119">
+        <v>500000</v>
+      </c>
       <c r="G12" s="119"/>
       <c r="H12" s="119"/>
       <c r="I12" s="119"/>
@@ -9439,70 +9485,43 @@
       <c r="M12" s="128"/>
     </row>
     <row r="13" spans="1:13" ht="20.5" customHeight="1">
-      <c r="A13" s="121" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="122">
-        <f t="shared" ref="B13:L13" si="0">SUM(B2:B8)</f>
-        <v>1350000.31</v>
-      </c>
-      <c r="C13" s="122">
-        <f>SUM(C2:C8)</f>
+      <c r="A13" s="118" t="s">
+        <v>375</v>
+      </c>
+      <c r="B13" s="119">
         <v>0</v>
       </c>
-      <c r="D13" s="122">
-        <f>SUM(D2:D12)</f>
-        <v>1386915.68</v>
-      </c>
-      <c r="E13" s="122">
-        <f>SUM(E2:E12)</f>
-        <v>1648522</v>
-      </c>
-      <c r="F13" s="122">
-        <f t="shared" si="0"/>
+      <c r="C13" s="119">
         <v>0</v>
       </c>
-      <c r="G13" s="122">
-        <f t="shared" si="0"/>
+      <c r="D13" s="119">
         <v>0</v>
       </c>
-      <c r="H13" s="122">
-        <f t="shared" si="0"/>
+      <c r="E13" s="119">
         <v>0</v>
       </c>
-      <c r="I13" s="122">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="122">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="122">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="122">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="F13" s="119">
+        <v>4022</v>
+      </c>
+      <c r="G13" s="119"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="119"/>
+      <c r="L13" s="119"/>
       <c r="M13" s="128"/>
     </row>
     <row r="14" spans="1:13" ht="20.5" customHeight="1">
       <c r="A14" s="118" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="119">
-        <v>132223</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="B14" s="119"/>
       <c r="C14" s="119"/>
-      <c r="D14" s="119">
-        <v>132409</v>
-      </c>
-      <c r="E14" s="119">
-        <v>132595</v>
-      </c>
-      <c r="F14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119">
+        <v>150235</v>
+      </c>
       <c r="G14" s="119"/>
       <c r="H14" s="119"/>
       <c r="I14" s="119"/>
@@ -9512,110 +9531,122 @@
       <c r="M14" s="128"/>
     </row>
     <row r="15" spans="1:13" ht="20.5" customHeight="1">
-      <c r="A15" s="118" t="s">
-        <v>364</v>
-      </c>
-      <c r="B15" s="119">
-        <v>90953</v>
-      </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119">
-        <v>98337</v>
-      </c>
-      <c r="E15" s="119">
-        <v>105721</v>
-      </c>
-      <c r="F15" s="119"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="119"/>
-      <c r="J15" s="119"/>
-      <c r="K15" s="119"/>
-      <c r="L15" s="119"/>
+      <c r="A15" s="121" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="122">
+        <f>SUM(B2:B8)</f>
+        <v>1350000.31</v>
+      </c>
+      <c r="C15" s="122">
+        <f>SUM(C2:C8)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="122">
+        <f>SUM(D2:D12)</f>
+        <v>1386915.68</v>
+      </c>
+      <c r="E15" s="122">
+        <f>SUM(E2:E12)</f>
+        <v>1648522</v>
+      </c>
+      <c r="F15" s="122">
+        <f>SUM(F2:F14)</f>
+        <v>1662193.83</v>
+      </c>
+      <c r="G15" s="122">
+        <f t="shared" ref="G15:L15" si="0">SUM(G2:G8)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="122">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="122">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="122">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="122">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="122">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M15" s="128"/>
     </row>
     <row r="16" spans="1:13" ht="20.5" customHeight="1">
       <c r="A16" s="118" t="s">
-        <v>365</v>
+        <v>43</v>
       </c>
       <c r="B16" s="119">
-        <v>10133</v>
-      </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120">
-        <v>10370</v>
-      </c>
-      <c r="E16" s="120">
-        <v>10642</v>
-      </c>
-      <c r="F16" s="120"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="120"/>
-      <c r="J16" s="120"/>
-      <c r="K16" s="120"/>
-      <c r="L16" s="120"/>
+        <v>132223</v>
+      </c>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119">
+        <v>132409</v>
+      </c>
+      <c r="E16" s="119">
+        <v>132595</v>
+      </c>
+      <c r="F16" s="119">
+        <v>132595</v>
+      </c>
+      <c r="G16" s="119"/>
+      <c r="H16" s="119"/>
+      <c r="I16" s="119"/>
+      <c r="J16" s="119"/>
+      <c r="K16" s="119"/>
+      <c r="L16" s="119"/>
       <c r="M16" s="128"/>
     </row>
     <row r="17" spans="1:13" ht="20.5" customHeight="1">
-      <c r="A17" s="123" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="124">
-        <f t="shared" ref="B17:L17" si="1">SUM(B14:B16)</f>
-        <v>233309</v>
-      </c>
-      <c r="C17" s="124">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D17" s="124">
-        <f t="shared" si="1"/>
-        <v>241116</v>
-      </c>
-      <c r="E17" s="124">
-        <f t="shared" si="1"/>
-        <v>248958</v>
-      </c>
-      <c r="F17" s="124">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="124">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="124">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="124">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="124">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="124">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="124">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="A17" s="118" t="s">
+        <v>364</v>
+      </c>
+      <c r="B17" s="119">
+        <v>90953</v>
+      </c>
+      <c r="C17" s="119"/>
+      <c r="D17" s="119">
+        <v>98337</v>
+      </c>
+      <c r="E17" s="119">
+        <v>105721</v>
+      </c>
+      <c r="F17" s="119">
+        <v>105721</v>
+      </c>
+      <c r="G17" s="119"/>
+      <c r="H17" s="119"/>
+      <c r="I17" s="119"/>
+      <c r="J17" s="119"/>
+      <c r="K17" s="119"/>
+      <c r="L17" s="119"/>
       <c r="M17" s="128"/>
     </row>
     <row r="18" spans="1:13" ht="20.5" customHeight="1">
       <c r="A18" s="118" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="120"/>
+        <v>365</v>
+      </c>
+      <c r="B18" s="119">
+        <v>10133</v>
+      </c>
       <c r="C18" s="120"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="120"/>
-      <c r="F18" s="120"/>
+      <c r="D18" s="120">
+        <v>10370</v>
+      </c>
+      <c r="E18" s="120">
+        <v>10642</v>
+      </c>
+      <c r="F18" s="120">
+        <v>10763</v>
+      </c>
       <c r="G18" s="120"/>
       <c r="H18" s="120"/>
       <c r="I18" s="120"/>
@@ -9625,171 +9656,238 @@
       <c r="M18" s="128"/>
     </row>
     <row r="19" spans="1:13" ht="20.5" customHeight="1">
-      <c r="A19" s="118" t="s">
+      <c r="A19" s="123" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="124">
+        <f t="shared" ref="B19:L19" si="1">SUM(B16:B18)</f>
+        <v>233309</v>
+      </c>
+      <c r="C19" s="124">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="124">
+        <f t="shared" si="1"/>
+        <v>241116</v>
+      </c>
+      <c r="E19" s="124">
+        <f t="shared" si="1"/>
+        <v>248958</v>
+      </c>
+      <c r="F19" s="124">
+        <f t="shared" si="1"/>
+        <v>249079</v>
+      </c>
+      <c r="G19" s="124">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="124">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="124">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="124">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="124">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="124">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="128"/>
+    </row>
+    <row r="20" spans="1:13" ht="20.5" customHeight="1">
+      <c r="A20" s="118" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="120"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="120"/>
+      <c r="H20" s="120"/>
+      <c r="I20" s="120"/>
+      <c r="J20" s="120"/>
+      <c r="K20" s="120"/>
+      <c r="L20" s="120"/>
+      <c r="M20" s="128"/>
+    </row>
+    <row r="21" spans="1:13" ht="20.5" customHeight="1">
+      <c r="A21" s="118" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="119"/>
-      <c r="C19" s="119"/>
-      <c r="D19" s="119"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="119"/>
-      <c r="G19" s="119"/>
-      <c r="H19" s="119"/>
-      <c r="I19" s="119"/>
-      <c r="J19" s="119"/>
-      <c r="K19" s="119"/>
-      <c r="L19" s="119"/>
-      <c r="M19" s="128"/>
-    </row>
-    <row r="20" spans="1:13" ht="20.5" customHeight="1">
-      <c r="A20" s="121" t="s">
+      <c r="B21" s="119"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="119"/>
+      <c r="J21" s="119"/>
+      <c r="K21" s="119"/>
+      <c r="L21" s="119"/>
+      <c r="M21" s="128"/>
+    </row>
+    <row r="22" spans="1:13" ht="20.5" customHeight="1">
+      <c r="A22" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="122">
-        <f t="shared" ref="B20:L20" si="2">SUM(B18:B19)</f>
+      <c r="B22" s="122">
+        <f t="shared" ref="B22:L22" si="2">SUM(B20:B21)</f>
         <v>0</v>
       </c>
-      <c r="C20" s="122">
-        <f>SUM(C18:C19)</f>
+      <c r="C22" s="122">
+        <f>SUM(C20:C21)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="122">
+      <c r="D22" s="122">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E20" s="122">
+      <c r="E22" s="122">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F20" s="122">
+      <c r="F22" s="122">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G20" s="122">
+      <c r="G22" s="122">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H20" s="122">
+      <c r="H22" s="122">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I20" s="122">
+      <c r="I22" s="122">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J20" s="122">
+      <c r="J22" s="122">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K20" s="122">
+      <c r="K22" s="122">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L20" s="122">
+      <c r="L22" s="122">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M20" s="128"/>
-    </row>
-    <row r="21" spans="1:13" ht="20.5" customHeight="1">
-      <c r="A21" s="125" t="s">
+      <c r="M22" s="128"/>
+    </row>
+    <row r="23" spans="1:13" ht="19.899999999999999" customHeight="1">
+      <c r="A23" s="125" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="126">
-        <f t="shared" ref="B21:L21" si="3">SUM(B13,B17)</f>
+      <c r="B23" s="126">
+        <f t="shared" ref="B23:L23" si="3">SUM(B15,B19)</f>
         <v>1583309.31</v>
       </c>
-      <c r="C21" s="126">
+      <c r="C23" s="126">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D21" s="126">
-        <f>SUM(D13,D17)</f>
+      <c r="D23" s="126">
+        <f t="shared" si="3"/>
         <v>1628031.68</v>
       </c>
-      <c r="E21" s="126">
+      <c r="E23" s="126">
         <f t="shared" si="3"/>
         <v>1897480</v>
       </c>
-      <c r="F21" s="126">
+      <c r="F23" s="126">
+        <f t="shared" si="3"/>
+        <v>1911272.83</v>
+      </c>
+      <c r="G23" s="126">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G21" s="126">
+      <c r="H23" s="126">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H21" s="126">
+      <c r="I23" s="126">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I21" s="126">
+      <c r="J23" s="126">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J21" s="126">
+      <c r="K23" s="126">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K21" s="126">
+      <c r="L23" s="126">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L21" s="126">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="128"/>
-    </row>
-    <row r="22" spans="1:13" ht="20.5" customHeight="1">
-      <c r="A22" s="125" t="s">
+      <c r="M23" s="128"/>
+    </row>
+    <row r="24" spans="1:13" ht="19.899999999999999" customHeight="1">
+      <c r="A24" s="125" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="126">
-        <f t="shared" ref="B22:L22" si="4">B21-B20</f>
+      <c r="B24" s="126">
+        <f t="shared" ref="B24:L24" si="4">B23-B22</f>
         <v>1583309.31</v>
       </c>
-      <c r="C22" s="126">
+      <c r="C24" s="126">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="D22" s="126">
+      <c r="D24" s="126">
         <f t="shared" si="4"/>
         <v>1628031.68</v>
       </c>
-      <c r="E22" s="126">
+      <c r="E24" s="126">
         <f t="shared" si="4"/>
         <v>1897480</v>
       </c>
-      <c r="F22" s="126">
+      <c r="F24" s="126">
+        <f t="shared" si="4"/>
+        <v>1911272.83</v>
+      </c>
+      <c r="G24" s="126">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G22" s="126">
+      <c r="H24" s="126">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H22" s="126">
+      <c r="I24" s="126">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I22" s="126">
+      <c r="J24" s="126">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J22" s="126">
+      <c r="K24" s="126">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K22" s="126">
+      <c r="L24" s="126">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L22" s="126">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="128"/>
+      <c r="M24" s="128"/>
     </row>
   </sheetData>
   <phoneticPr fontId="26" type="noConversion"/>
@@ -9812,7 +9910,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -9877,7 +9975,9 @@
         <f>151164.33*7.2</f>
         <v>1088383.176</v>
       </c>
-      <c r="F2" s="119"/>
+      <c r="F2" s="119">
+        <v>1164890.8600000001</v>
+      </c>
       <c r="G2" s="119"/>
       <c r="H2" s="119"/>
       <c r="I2" s="119"/>
@@ -9902,7 +10002,9 @@
         <f>80591.16+1391.55+403.72+287.31</f>
         <v>82673.740000000005</v>
       </c>
-      <c r="F3" s="120"/>
+      <c r="F3" s="120">
+        <v>89636.03</v>
+      </c>
       <c r="G3" s="120"/>
       <c r="H3" s="120"/>
       <c r="I3" s="120"/>
@@ -9926,7 +10028,9 @@
         <f>3095.47+12088.8</f>
         <v>15184.269999999999</v>
       </c>
-      <c r="F4" s="119"/>
+      <c r="F4" s="119">
+        <v>3170.96</v>
+      </c>
       <c r="G4" s="119"/>
       <c r="H4" s="119"/>
       <c r="I4" s="119"/>
@@ -9956,8 +10060,7 @@
         <v>1186241.186</v>
       </c>
       <c r="F5" s="122">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1257697.8500000001</v>
       </c>
       <c r="G5" s="122">
         <f t="shared" si="0"/>
@@ -10001,7 +10104,9 @@
         <f>32930.16+57813.86+15360</f>
         <v>106104.02</v>
       </c>
-      <c r="F6" s="119"/>
+      <c r="F6" s="119">
+        <v>106104.02</v>
+      </c>
       <c r="G6" s="119"/>
       <c r="H6" s="119"/>
       <c r="I6" s="119"/>
@@ -10024,7 +10129,9 @@
       <c r="E7" s="119">
         <v>12642</v>
       </c>
-      <c r="F7" s="119"/>
+      <c r="F7" s="119">
+        <v>12642</v>
+      </c>
       <c r="G7" s="119"/>
       <c r="H7" s="119"/>
       <c r="I7" s="119"/>
@@ -10054,8 +10161,7 @@
         <v>118746.02</v>
       </c>
       <c r="F8" s="124">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>118746.02</v>
       </c>
       <c r="G8" s="124">
         <f t="shared" si="3"/>
@@ -10138,7 +10244,6 @@
         <v>0</v>
       </c>
       <c r="F11" s="122">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G11" s="122">
@@ -10188,8 +10293,7 @@
         <v>1304987.206</v>
       </c>
       <c r="F12" s="126">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1376443.87</v>
       </c>
       <c r="G12" s="126">
         <f t="shared" si="7"/>
@@ -10238,8 +10342,7 @@
         <v>1304987.206</v>
       </c>
       <c r="F13" s="126">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1376443.87</v>
       </c>
       <c r="G13" s="126">
         <f t="shared" si="8"/>
@@ -10315,10 +10418,10 @@
       <c r="B2" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="214" t="s">
+      <c r="C2" s="205" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="215"/>
+      <c r="D2" s="206"/>
       <c r="E2" s="100" t="s">
         <v>51</v>
       </c>
@@ -10351,10 +10454,10 @@
       </c>
     </row>
     <row r="3" spans="2:14" ht="23.5" customHeight="1">
-      <c r="B3" s="194" t="s">
+      <c r="B3" s="207" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="197" t="s">
+      <c r="C3" s="210" t="s">
         <v>62</v>
       </c>
       <c r="D3" s="101" t="s">
@@ -10382,18 +10485,18 @@
       <c r="L3" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="M3" s="205">
+      <c r="M3" s="196">
         <f>SUM(J3:J10)</f>
         <v>58430.5</v>
       </c>
-      <c r="N3" s="210">
+      <c r="N3" s="201">
         <f>SUM(M3:M25)</f>
         <v>104966.35</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="23" customHeight="1">
-      <c r="B4" s="195"/>
-      <c r="C4" s="198"/>
+      <c r="B4" s="208"/>
+      <c r="C4" s="211"/>
       <c r="D4" s="102" t="s">
         <v>70</v>
       </c>
@@ -10417,12 +10520,12 @@
       </c>
       <c r="K4" s="105"/>
       <c r="L4" s="105"/>
-      <c r="M4" s="206"/>
-      <c r="N4" s="211"/>
+      <c r="M4" s="197"/>
+      <c r="N4" s="202"/>
     </row>
     <row r="5" spans="2:14" ht="23" customHeight="1">
-      <c r="B5" s="195"/>
-      <c r="C5" s="199" t="s">
+      <c r="B5" s="208"/>
+      <c r="C5" s="212" t="s">
         <v>74</v>
       </c>
       <c r="D5" s="103" t="s">
@@ -10450,12 +10553,12 @@
       <c r="L5" s="103" t="s">
         <v>80</v>
       </c>
-      <c r="M5" s="207"/>
-      <c r="N5" s="212"/>
+      <c r="M5" s="198"/>
+      <c r="N5" s="203"/>
     </row>
     <row r="6" spans="2:14" ht="23" customHeight="1">
-      <c r="B6" s="195"/>
-      <c r="C6" s="198"/>
+      <c r="B6" s="208"/>
+      <c r="C6" s="211"/>
       <c r="D6" s="102" t="s">
         <v>81</v>
       </c>
@@ -10479,11 +10582,11 @@
       </c>
       <c r="K6" s="105"/>
       <c r="L6" s="105"/>
-      <c r="M6" s="206"/>
-      <c r="N6" s="211"/>
+      <c r="M6" s="197"/>
+      <c r="N6" s="202"/>
     </row>
     <row r="7" spans="2:14" ht="23" customHeight="1">
-      <c r="B7" s="195"/>
+      <c r="B7" s="208"/>
       <c r="C7" s="103" t="s">
         <v>87</v>
       </c>
@@ -10510,12 +10613,12 @@
       </c>
       <c r="K7" s="110"/>
       <c r="L7" s="110"/>
-      <c r="M7" s="207"/>
-      <c r="N7" s="212"/>
+      <c r="M7" s="198"/>
+      <c r="N7" s="203"/>
     </row>
     <row r="8" spans="2:14" ht="23" customHeight="1">
-      <c r="B8" s="195"/>
-      <c r="C8" s="200" t="s">
+      <c r="B8" s="208"/>
+      <c r="C8" s="213" t="s">
         <v>92</v>
       </c>
       <c r="D8" s="102" t="s">
@@ -10541,12 +10644,12 @@
       </c>
       <c r="K8" s="105"/>
       <c r="L8" s="105"/>
-      <c r="M8" s="206"/>
-      <c r="N8" s="211"/>
+      <c r="M8" s="197"/>
+      <c r="N8" s="202"/>
     </row>
     <row r="9" spans="2:14" ht="23" customHeight="1">
-      <c r="B9" s="195"/>
-      <c r="C9" s="201"/>
+      <c r="B9" s="208"/>
+      <c r="C9" s="214"/>
       <c r="D9" s="103" t="s">
         <v>97</v>
       </c>
@@ -10570,11 +10673,11 @@
       </c>
       <c r="K9" s="110"/>
       <c r="L9" s="110"/>
-      <c r="M9" s="207"/>
-      <c r="N9" s="212"/>
+      <c r="M9" s="198"/>
+      <c r="N9" s="203"/>
     </row>
     <row r="10" spans="2:14" ht="23.5" customHeight="1">
-      <c r="B10" s="196"/>
+      <c r="B10" s="209"/>
       <c r="C10" s="104" t="s">
         <v>101</v>
       </c>
@@ -10601,14 +10704,14 @@
       </c>
       <c r="K10" s="112"/>
       <c r="L10" s="112"/>
-      <c r="M10" s="208"/>
-      <c r="N10" s="211"/>
+      <c r="M10" s="199"/>
+      <c r="N10" s="202"/>
     </row>
     <row r="11" spans="2:14" ht="23.5" customHeight="1">
-      <c r="B11" s="194" t="s">
+      <c r="B11" s="207" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="197" t="s">
+      <c r="C11" s="210" t="s">
         <v>62</v>
       </c>
       <c r="D11" s="101" t="s">
@@ -10634,15 +10737,15 @@
       </c>
       <c r="K11" s="108"/>
       <c r="L11" s="108"/>
-      <c r="M11" s="205">
+      <c r="M11" s="196">
         <f>SUM(J11:J18)</f>
         <v>9113.5</v>
       </c>
-      <c r="N11" s="212"/>
+      <c r="N11" s="203"/>
     </row>
     <row r="12" spans="2:14" ht="23" customHeight="1">
-      <c r="B12" s="195"/>
-      <c r="C12" s="202"/>
+      <c r="B12" s="208"/>
+      <c r="C12" s="215"/>
       <c r="D12" s="102" t="s">
         <v>70</v>
       </c>
@@ -10666,12 +10769,12 @@
       </c>
       <c r="K12" s="105"/>
       <c r="L12" s="105"/>
-      <c r="M12" s="206"/>
-      <c r="N12" s="211"/>
+      <c r="M12" s="197"/>
+      <c r="N12" s="202"/>
     </row>
     <row r="13" spans="2:14" ht="23" customHeight="1">
-      <c r="B13" s="195"/>
-      <c r="C13" s="203"/>
+      <c r="B13" s="208"/>
+      <c r="C13" s="216"/>
       <c r="D13" s="103" t="s">
         <v>70</v>
       </c>
@@ -10697,12 +10800,12 @@
       <c r="L13" s="103" t="s">
         <v>115</v>
       </c>
-      <c r="M13" s="207"/>
-      <c r="N13" s="212"/>
+      <c r="M13" s="198"/>
+      <c r="N13" s="203"/>
     </row>
     <row r="14" spans="2:14" ht="23" customHeight="1">
-      <c r="B14" s="195"/>
-      <c r="C14" s="200" t="s">
+      <c r="B14" s="208"/>
+      <c r="C14" s="213" t="s">
         <v>74</v>
       </c>
       <c r="D14" s="102" t="s">
@@ -10728,12 +10831,12 @@
       </c>
       <c r="K14" s="105"/>
       <c r="L14" s="105"/>
-      <c r="M14" s="206"/>
-      <c r="N14" s="211"/>
+      <c r="M14" s="197"/>
+      <c r="N14" s="202"/>
     </row>
     <row r="15" spans="2:14" ht="23" customHeight="1">
-      <c r="B15" s="195"/>
-      <c r="C15" s="201"/>
+      <c r="B15" s="208"/>
+      <c r="C15" s="214"/>
       <c r="D15" s="103" t="s">
         <v>75</v>
       </c>
@@ -10757,11 +10860,11 @@
       </c>
       <c r="K15" s="110"/>
       <c r="L15" s="110"/>
-      <c r="M15" s="207"/>
-      <c r="N15" s="212"/>
+      <c r="M15" s="198"/>
+      <c r="N15" s="203"/>
     </row>
     <row r="16" spans="2:14" ht="23" customHeight="1">
-      <c r="B16" s="195"/>
+      <c r="B16" s="208"/>
       <c r="C16" s="102" t="s">
         <v>87</v>
       </c>
@@ -10788,12 +10891,12 @@
       </c>
       <c r="K16" s="105"/>
       <c r="L16" s="105"/>
-      <c r="M16" s="206"/>
-      <c r="N16" s="211"/>
+      <c r="M16" s="197"/>
+      <c r="N16" s="202"/>
     </row>
     <row r="17" spans="2:14" ht="23" customHeight="1">
-      <c r="B17" s="195"/>
-      <c r="C17" s="199" t="s">
+      <c r="B17" s="208"/>
+      <c r="C17" s="212" t="s">
         <v>92</v>
       </c>
       <c r="D17" s="103" t="s">
@@ -10819,12 +10922,12 @@
       </c>
       <c r="K17" s="110"/>
       <c r="L17" s="110"/>
-      <c r="M17" s="207"/>
-      <c r="N17" s="212"/>
+      <c r="M17" s="198"/>
+      <c r="N17" s="203"/>
     </row>
     <row r="18" spans="2:14" ht="23.5" customHeight="1">
-      <c r="B18" s="196"/>
-      <c r="C18" s="202"/>
+      <c r="B18" s="209"/>
+      <c r="C18" s="215"/>
       <c r="D18" s="104" t="s">
         <v>93</v>
       </c>
@@ -10848,14 +10951,14 @@
       </c>
       <c r="K18" s="112"/>
       <c r="L18" s="112"/>
-      <c r="M18" s="208"/>
-      <c r="N18" s="211"/>
+      <c r="M18" s="199"/>
+      <c r="N18" s="202"/>
     </row>
     <row r="19" spans="2:14" ht="23.5" customHeight="1">
-      <c r="B19" s="194" t="s">
+      <c r="B19" s="207" t="s">
         <v>125</v>
       </c>
-      <c r="C19" s="197" t="s">
+      <c r="C19" s="210" t="s">
         <v>62</v>
       </c>
       <c r="D19" s="101" t="s">
@@ -10881,15 +10984,15 @@
       </c>
       <c r="K19" s="108"/>
       <c r="L19" s="108"/>
-      <c r="M19" s="205">
+      <c r="M19" s="196">
         <f>SUM(J19:J25)</f>
         <v>37422.35</v>
       </c>
-      <c r="N19" s="212"/>
+      <c r="N19" s="203"/>
     </row>
     <row r="20" spans="2:14" ht="23" customHeight="1">
-      <c r="B20" s="195"/>
-      <c r="C20" s="198"/>
+      <c r="B20" s="208"/>
+      <c r="C20" s="211"/>
       <c r="D20" s="102" t="s">
         <v>70</v>
       </c>
@@ -10913,12 +11016,12 @@
       </c>
       <c r="K20" s="105"/>
       <c r="L20" s="105"/>
-      <c r="M20" s="206"/>
-      <c r="N20" s="211"/>
+      <c r="M20" s="197"/>
+      <c r="N20" s="202"/>
     </row>
     <row r="21" spans="2:14" ht="23" customHeight="1">
-      <c r="B21" s="195"/>
-      <c r="C21" s="199" t="s">
+      <c r="B21" s="208"/>
+      <c r="C21" s="212" t="s">
         <v>74</v>
       </c>
       <c r="D21" s="103" t="s">
@@ -10944,12 +11047,12 @@
       </c>
       <c r="K21" s="110"/>
       <c r="L21" s="110"/>
-      <c r="M21" s="207"/>
-      <c r="N21" s="212"/>
+      <c r="M21" s="198"/>
+      <c r="N21" s="203"/>
     </row>
     <row r="22" spans="2:14" ht="23" customHeight="1">
-      <c r="B22" s="195"/>
-      <c r="C22" s="204"/>
+      <c r="B22" s="208"/>
+      <c r="C22" s="217"/>
       <c r="D22" s="102" t="s">
         <v>132</v>
       </c>
@@ -10973,12 +11076,12 @@
       </c>
       <c r="K22" s="105"/>
       <c r="L22" s="105"/>
-      <c r="M22" s="206"/>
-      <c r="N22" s="211"/>
+      <c r="M22" s="197"/>
+      <c r="N22" s="202"/>
     </row>
     <row r="23" spans="2:14" ht="23" customHeight="1">
-      <c r="B23" s="195"/>
-      <c r="C23" s="199" t="s">
+      <c r="B23" s="208"/>
+      <c r="C23" s="212" t="s">
         <v>92</v>
       </c>
       <c r="D23" s="103" t="s">
@@ -11004,12 +11107,12 @@
       </c>
       <c r="K23" s="110"/>
       <c r="L23" s="110"/>
-      <c r="M23" s="207"/>
-      <c r="N23" s="212"/>
+      <c r="M23" s="198"/>
+      <c r="N23" s="203"/>
     </row>
     <row r="24" spans="2:14" ht="23" customHeight="1">
-      <c r="B24" s="195"/>
-      <c r="C24" s="198"/>
+      <c r="B24" s="208"/>
+      <c r="C24" s="211"/>
       <c r="D24" s="102" t="s">
         <v>97</v>
       </c>
@@ -11033,11 +11136,11 @@
       </c>
       <c r="K24" s="105"/>
       <c r="L24" s="105"/>
-      <c r="M24" s="206"/>
-      <c r="N24" s="211"/>
+      <c r="M24" s="197"/>
+      <c r="N24" s="202"/>
     </row>
     <row r="25" spans="2:14" ht="23.5" customHeight="1">
-      <c r="B25" s="196"/>
+      <c r="B25" s="209"/>
       <c r="C25" s="106" t="s">
         <v>101</v>
       </c>
@@ -11066,16 +11169,11 @@
       <c r="L25" s="106" t="s">
         <v>143</v>
       </c>
-      <c r="M25" s="209"/>
-      <c r="N25" s="213"/>
+      <c r="M25" s="200"/>
+      <c r="N25" s="204"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="M3:M10"/>
-    <mergeCell ref="M11:M18"/>
-    <mergeCell ref="M19:M25"/>
-    <mergeCell ref="N3:N25"/>
-    <mergeCell ref="C2:D2"/>
     <mergeCell ref="B3:B10"/>
     <mergeCell ref="B11:B18"/>
     <mergeCell ref="B19:B25"/>
@@ -11088,6 +11186,11 @@
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C23:C24"/>
+    <mergeCell ref="M3:M10"/>
+    <mergeCell ref="M11:M18"/>
+    <mergeCell ref="M19:M25"/>
+    <mergeCell ref="N3:N25"/>
+    <mergeCell ref="C2:D2"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -12762,39 +12865,39 @@
   <sheetData>
     <row r="1" spans="2:30" ht="31" customHeight="1"/>
     <row r="2" spans="2:30" ht="25" customHeight="1">
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="236" t="s">
         <v>295</v>
       </c>
-      <c r="C2" s="216"/>
+      <c r="C2" s="236"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="I2" s="216" t="s">
+      <c r="I2" s="236" t="s">
         <v>296</v>
       </c>
-      <c r="J2" s="216"/>
-      <c r="K2" s="216"/>
-      <c r="L2" s="216"/>
-      <c r="M2" s="216"/>
-      <c r="N2" s="216"/>
-      <c r="Q2" s="216" t="s">
+      <c r="J2" s="236"/>
+      <c r="K2" s="236"/>
+      <c r="L2" s="236"/>
+      <c r="M2" s="236"/>
+      <c r="N2" s="236"/>
+      <c r="Q2" s="236" t="s">
         <v>297</v>
       </c>
-      <c r="R2" s="216"/>
-      <c r="S2" s="216"/>
-      <c r="T2" s="216"/>
-      <c r="U2" s="216"/>
-      <c r="V2" s="216"/>
-      <c r="W2" s="216"/>
-      <c r="Y2" s="216" t="s">
+      <c r="R2" s="236"/>
+      <c r="S2" s="236"/>
+      <c r="T2" s="236"/>
+      <c r="U2" s="236"/>
+      <c r="V2" s="236"/>
+      <c r="W2" s="236"/>
+      <c r="Y2" s="236" t="s">
         <v>298</v>
       </c>
-      <c r="Z2" s="216"/>
-      <c r="AA2" s="216"/>
-      <c r="AB2" s="216"/>
-      <c r="AC2" s="216"/>
-      <c r="AD2" s="216"/>
+      <c r="Z2" s="236"/>
+      <c r="AA2" s="236"/>
+      <c r="AB2" s="236"/>
+      <c r="AC2" s="236"/>
+      <c r="AD2" s="236"/>
     </row>
     <row r="3" spans="2:30" ht="20" customHeight="1">
       <c r="B3" s="3" t="s">
@@ -12876,7 +12979,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="I4" s="230" t="s">
+      <c r="I4" s="225" t="s">
         <v>317</v>
       </c>
       <c r="J4" s="47" t="s">
@@ -12885,14 +12988,14 @@
       <c r="K4" s="48">
         <v>13000</v>
       </c>
-      <c r="L4" s="236">
+      <c r="L4" s="231">
         <f>SUM(K4:K8)</f>
         <v>13000</v>
       </c>
       <c r="M4" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="N4" s="217">
+      <c r="N4" s="237">
         <f>L4/J14</f>
         <v>0.56521739130434778</v>
       </c>
@@ -12956,18 +13059,18 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="I5" s="231"/>
+      <c r="I5" s="226"/>
       <c r="J5" s="47" t="s">
         <v>320</v>
       </c>
       <c r="K5" s="48">
         <v>0</v>
       </c>
-      <c r="L5" s="218"/>
+      <c r="L5" s="232"/>
       <c r="M5" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="N5" s="218"/>
+      <c r="N5" s="232"/>
       <c r="Q5" s="63" t="s">
         <v>254</v>
       </c>
@@ -13031,16 +13134,16 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-      <c r="I6" s="232"/>
+      <c r="I6" s="227"/>
       <c r="J6" s="47" t="s">
         <v>322</v>
       </c>
       <c r="K6" s="49"/>
-      <c r="L6" s="219"/>
+      <c r="L6" s="233"/>
       <c r="M6" s="54">
         <v>582000</v>
       </c>
-      <c r="N6" s="219"/>
+      <c r="N6" s="233"/>
       <c r="Q6" s="63" t="s">
         <v>256</v>
       </c>
@@ -13105,16 +13208,16 @@
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
-      <c r="I7" s="233"/>
+      <c r="I7" s="228"/>
       <c r="J7" s="47" t="s">
         <v>324</v>
       </c>
       <c r="K7" s="48">
         <v>0</v>
       </c>
-      <c r="L7" s="220"/>
+      <c r="L7" s="234"/>
       <c r="M7" s="55"/>
-      <c r="N7" s="220"/>
+      <c r="N7" s="234"/>
       <c r="Q7" s="63" t="s">
         <v>258</v>
       </c>
@@ -13178,14 +13281,14 @@
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="I8" s="233"/>
+      <c r="I8" s="228"/>
       <c r="J8" s="47" t="s">
         <v>326</v>
       </c>
       <c r="K8" s="49"/>
-      <c r="L8" s="220"/>
+      <c r="L8" s="234"/>
       <c r="M8" s="55"/>
-      <c r="N8" s="220"/>
+      <c r="N8" s="234"/>
       <c r="Q8" s="63" t="s">
         <v>260</v>
       </c>
@@ -13239,21 +13342,21 @@
       </c>
     </row>
     <row r="9" spans="2:30" ht="20" customHeight="1">
-      <c r="I9" s="230" t="s">
+      <c r="I9" s="225" t="s">
         <v>327</v>
       </c>
       <c r="J9" s="47" t="s">
         <v>328</v>
       </c>
       <c r="K9" s="49"/>
-      <c r="L9" s="237">
+      <c r="L9" s="235">
         <f>SUM(K9:K13)</f>
         <v>10000</v>
       </c>
       <c r="M9" s="54">
         <v>1000000</v>
       </c>
-      <c r="N9" s="221">
+      <c r="N9" s="238">
         <f>L9/J14</f>
         <v>0.43478260869565216</v>
       </c>
@@ -13310,18 +13413,18 @@
       </c>
     </row>
     <row r="10" spans="2:30" ht="20" customHeight="1">
-      <c r="I10" s="234"/>
+      <c r="I10" s="229"/>
       <c r="J10" s="47" t="s">
         <v>329</v>
       </c>
       <c r="K10" s="48">
         <v>0</v>
       </c>
-      <c r="L10" s="218"/>
+      <c r="L10" s="232"/>
       <c r="M10" s="54">
         <v>400000</v>
       </c>
-      <c r="N10" s="218"/>
+      <c r="N10" s="232"/>
       <c r="Q10" s="63" t="s">
         <v>264</v>
       </c>
@@ -13375,18 +13478,18 @@
       </c>
     </row>
     <row r="11" spans="2:30" ht="20" customHeight="1">
-      <c r="I11" s="234"/>
+      <c r="I11" s="229"/>
       <c r="J11" s="47" t="s">
         <v>330</v>
       </c>
       <c r="K11" s="50">
         <v>10000</v>
       </c>
-      <c r="L11" s="218"/>
+      <c r="L11" s="232"/>
       <c r="M11" s="56">
         <v>2000000</v>
       </c>
-      <c r="N11" s="218"/>
+      <c r="N11" s="232"/>
       <c r="Q11" s="63" t="s">
         <v>266</v>
       </c>
@@ -13440,24 +13543,24 @@
       </c>
     </row>
     <row r="12" spans="2:30" ht="20" customHeight="1">
-      <c r="B12" s="216" t="s">
+      <c r="B12" s="236" t="s">
         <v>331</v>
       </c>
-      <c r="C12" s="216"/>
-      <c r="D12" s="216"/>
-      <c r="E12" s="216"/>
-      <c r="F12" s="216"/>
-      <c r="G12" s="216"/>
-      <c r="I12" s="234"/>
+      <c r="C12" s="236"/>
+      <c r="D12" s="236"/>
+      <c r="E12" s="236"/>
+      <c r="F12" s="236"/>
+      <c r="G12" s="236"/>
+      <c r="I12" s="229"/>
       <c r="J12" s="47" t="s">
         <v>332</v>
       </c>
       <c r="K12" s="48">
         <v>0</v>
       </c>
-      <c r="L12" s="218"/>
+      <c r="L12" s="232"/>
       <c r="M12" s="55"/>
-      <c r="N12" s="218"/>
+      <c r="N12" s="232"/>
       <c r="Q12" s="63" t="s">
         <v>268</v>
       </c>
@@ -13529,16 +13632,16 @@
       <c r="G13" s="30" t="s">
         <v>336</v>
       </c>
-      <c r="I13" s="235"/>
+      <c r="I13" s="230"/>
       <c r="J13" s="51" t="s">
         <v>338</v>
       </c>
       <c r="K13" s="51" t="s">
         <v>338</v>
       </c>
-      <c r="L13" s="219"/>
+      <c r="L13" s="233"/>
       <c r="M13" s="55"/>
-      <c r="N13" s="222"/>
+      <c r="N13" s="239"/>
       <c r="Q13" s="63" t="s">
         <v>270</v>
       </c>
@@ -13615,12 +13718,12 @@
       <c r="I14" s="52" t="s">
         <v>339</v>
       </c>
-      <c r="J14" s="223">
+      <c r="J14" s="218">
         <f>SUM(K4:K13)</f>
         <v>23000</v>
       </c>
-      <c r="K14" s="224"/>
-      <c r="L14" s="225"/>
+      <c r="K14" s="219"/>
+      <c r="L14" s="220"/>
       <c r="M14" s="57">
         <f>SUM(M5:M11)</f>
         <v>3982000</v>
@@ -13703,12 +13806,12 @@
       <c r="I15" s="52" t="s">
         <v>340</v>
       </c>
-      <c r="J15" s="223">
+      <c r="J15" s="218">
         <f>J14/C7</f>
         <v>5321.681319084737</v>
       </c>
-      <c r="K15" s="224"/>
-      <c r="L15" s="226"/>
+      <c r="K15" s="219"/>
+      <c r="L15" s="221"/>
       <c r="M15" s="55"/>
       <c r="N15" s="59"/>
       <c r="Q15" s="63" t="s">
@@ -13788,13 +13891,13 @@
       <c r="I16" s="52" t="s">
         <v>341</v>
       </c>
-      <c r="J16" s="227">
+      <c r="J16" s="222">
         <f>J14/C7</f>
         <v>5321.681319084737</v>
       </c>
-      <c r="K16" s="228"/>
-      <c r="L16" s="228"/>
-      <c r="M16" s="229"/>
+      <c r="K16" s="223"/>
+      <c r="L16" s="223"/>
+      <c r="M16" s="224"/>
       <c r="N16" s="60"/>
       <c r="Q16" s="63" t="s">
         <v>276</v>
@@ -15187,6 +15290,13 @@
     <row r="110" ht="26.4" customHeight="1"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="Q2:W2"/>
+    <mergeCell ref="Y2:AD2"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="N4:N8"/>
+    <mergeCell ref="N9:N13"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J16:M16"/>
@@ -15194,13 +15304,6 @@
     <mergeCell ref="I9:I13"/>
     <mergeCell ref="L4:L8"/>
     <mergeCell ref="L9:L13"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="Q2:W2"/>
-    <mergeCell ref="Y2:AD2"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="N4:N8"/>
-    <mergeCell ref="N9:N13"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/article/家庭财务管理手册2025.xlsx
+++ b/article/家庭财务管理手册2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18717\Documents\GitHub\luyao.github.io\article\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3017B883-766D-444A-9F48-8AC007987C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5088B2DD-01B0-4D4A-9DDC-AB1681FDAFF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="379">
   <si>
     <t>预算</t>
   </si>
@@ -2570,10 +2570,6 @@
     <t>个人养老金</t>
   </si>
   <si>
-    <t>2024.2.16</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>温州</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
@@ -2591,6 +2587,17 @@
   </si>
   <si>
     <t>鹏华</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.2.16</t>
+  </si>
+  <si>
+    <t>华安</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇添富</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
 </sst>
@@ -4591,6 +4598,12 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="13" fillId="14" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4601,6 +4614,39 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="17" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4636,38 +4682,26 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4711,34 +4745,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6317,6 +6324,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3287716.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3611833.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8395,10 +8405,10 @@
       </c>
     </row>
     <row r="2" spans="2:5" ht="22.75" customHeight="1">
-      <c r="B2" s="192" t="s">
+      <c r="B2" s="194" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="193"/>
+      <c r="C2" s="195"/>
       <c r="D2" s="144" t="s">
         <v>2</v>
       </c>
@@ -8526,10 +8536,10 @@
       <c r="E11" s="159"/>
     </row>
     <row r="12" spans="2:5" ht="22.75" customHeight="1">
-      <c r="B12" s="194" t="s">
+      <c r="B12" s="196" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="195"/>
+      <c r="C12" s="197"/>
       <c r="D12" s="160" t="s">
         <v>2</v>
       </c>
@@ -8763,7 +8773,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q21" sqref="Q21"/>
+      <selection pane="bottomLeft" activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -8820,7 +8830,7 @@
         <v>40</v>
       </c>
       <c r="O2" s="190" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="24.65" customHeight="1">
@@ -8857,7 +8867,7 @@
       <c r="L4" s="138"/>
       <c r="M4" s="141"/>
       <c r="N4" s="138">
-        <f>'3、存量资产-y'!B24+'3、存量资产-k'!B13</f>
+        <f>'3、存量资产-y'!B26+'3、存量资产-k'!B13</f>
         <v>2743839.63</v>
       </c>
       <c r="O4" s="191">
@@ -8881,7 +8891,7 @@
       <c r="L5" s="138"/>
       <c r="M5" s="141"/>
       <c r="N5" s="138">
-        <f>'3、存量资产-y'!D24+'3、存量资产-k'!D13</f>
+        <f>'3、存量资产-y'!D26+'3、存量资产-k'!D13</f>
         <v>2711200.12</v>
       </c>
       <c r="O5" s="191">
@@ -8905,7 +8915,7 @@
       <c r="L6" s="138"/>
       <c r="M6" s="141"/>
       <c r="N6" s="138">
-        <f>'3、存量资产-y'!E24+'3、存量资产-k'!E13</f>
+        <f>'3、存量资产-y'!E26+'3、存量资产-k'!E13</f>
         <v>3202467.2060000002</v>
       </c>
       <c r="O6" s="191">
@@ -8929,7 +8939,7 @@
       <c r="L7" s="138"/>
       <c r="M7" s="141"/>
       <c r="N7" s="138">
-        <f>'3、存量资产-y'!F24+'3、存量资产-k'!F13</f>
+        <f>'3、存量资产-y'!F26+'3、存量资产-k'!F13</f>
         <v>3287716.7</v>
       </c>
       <c r="O7" s="191"/>
@@ -8949,8 +8959,14 @@
       <c r="K8" s="137"/>
       <c r="L8" s="138"/>
       <c r="M8" s="141"/>
-      <c r="N8" s="138"/>
-      <c r="O8" s="191"/>
+      <c r="N8" s="138">
+        <f>'3、存量资产-y'!G26+'3、存量资产-k'!G13</f>
+        <v>3611833.05</v>
+      </c>
+      <c r="O8" s="191">
+        <f>(N8-3500000)/500000</f>
+        <v>0.22366609999999962</v>
+      </c>
     </row>
     <row r="9" spans="2:15" ht="24.65" customHeight="1">
       <c r="B9" s="130">
@@ -9154,13 +9170,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -9223,10 +9239,12 @@
       <c r="E2" s="119">
         <v>993</v>
       </c>
-      <c r="F2" s="240">
+      <c r="F2" s="192">
         <v>1000</v>
       </c>
-      <c r="G2" s="119"/>
+      <c r="G2" s="119">
+        <v>1039</v>
+      </c>
       <c r="H2" s="119"/>
       <c r="I2" s="119"/>
       <c r="J2" s="119"/>
@@ -9248,10 +9266,12 @@
       <c r="E3" s="120">
         <v>109830</v>
       </c>
-      <c r="F3" s="240">
+      <c r="F3" s="192">
         <v>47595.07</v>
       </c>
-      <c r="G3" s="119"/>
+      <c r="G3" s="119">
+        <v>101284</v>
+      </c>
       <c r="H3" s="120"/>
       <c r="I3" s="120"/>
       <c r="J3" s="120"/>
@@ -9273,10 +9293,12 @@
       <c r="E4" s="119">
         <v>300346</v>
       </c>
-      <c r="F4" s="241">
+      <c r="F4" s="193">
         <v>215335</v>
       </c>
-      <c r="G4" s="119"/>
+      <c r="G4" s="119">
+        <v>13.62</v>
+      </c>
       <c r="H4" s="119"/>
       <c r="I4" s="119"/>
       <c r="J4" s="119"/>
@@ -9301,7 +9323,9 @@
       <c r="F5" s="119">
         <v>25450</v>
       </c>
-      <c r="G5" s="119"/>
+      <c r="G5" s="119">
+        <v>45995</v>
+      </c>
       <c r="H5" s="120"/>
       <c r="I5" s="120"/>
       <c r="J5" s="120"/>
@@ -9326,7 +9350,9 @@
       <c r="F6" s="119">
         <v>200401</v>
       </c>
-      <c r="G6" s="119"/>
+      <c r="G6" s="119">
+        <v>157196</v>
+      </c>
       <c r="H6" s="119"/>
       <c r="I6" s="119"/>
       <c r="J6" s="119"/>
@@ -9376,7 +9402,9 @@
       <c r="F8" s="119">
         <v>7303.76</v>
       </c>
-      <c r="G8" s="119"/>
+      <c r="G8" s="119">
+        <v>6861</v>
+      </c>
       <c r="H8" s="119"/>
       <c r="I8" s="119"/>
       <c r="J8" s="119"/>
@@ -9436,7 +9464,7 @@
     </row>
     <row r="11" spans="1:13" ht="20.5" customHeight="1">
       <c r="A11" s="118" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B11" s="119">
         <v>0</v>
@@ -9451,7 +9479,9 @@
       <c r="F11" s="119">
         <v>500000</v>
       </c>
-      <c r="G11" s="119"/>
+      <c r="G11" s="119">
+        <v>500000</v>
+      </c>
       <c r="H11" s="119"/>
       <c r="I11" s="119"/>
       <c r="J11" s="119"/>
@@ -9461,7 +9491,7 @@
     </row>
     <row r="12" spans="1:13" ht="20.5" customHeight="1">
       <c r="A12" s="118" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B12" s="119">
         <v>0</v>
@@ -9476,7 +9506,9 @@
       <c r="F12" s="119">
         <v>500000</v>
       </c>
-      <c r="G12" s="119"/>
+      <c r="G12" s="119">
+        <v>500000</v>
+      </c>
       <c r="H12" s="119"/>
       <c r="I12" s="119"/>
       <c r="J12" s="119"/>
@@ -9486,7 +9518,7 @@
     </row>
     <row r="13" spans="1:13" ht="20.5" customHeight="1">
       <c r="A13" s="118" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B13" s="119">
         <v>0</v>
@@ -9503,7 +9535,9 @@
       <c r="F13" s="119">
         <v>4022</v>
       </c>
-      <c r="G13" s="119"/>
+      <c r="G13" s="119">
+        <v>13516</v>
+      </c>
       <c r="H13" s="119"/>
       <c r="I13" s="119"/>
       <c r="J13" s="119"/>
@@ -9513,7 +9547,7 @@
     </row>
     <row r="14" spans="1:13" ht="20.5" customHeight="1">
       <c r="A14" s="118" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B14" s="119"/>
       <c r="C14" s="119"/>
@@ -9522,7 +9556,9 @@
       <c r="F14" s="119">
         <v>150235</v>
       </c>
-      <c r="G14" s="119"/>
+      <c r="G14" s="119">
+        <v>350073</v>
+      </c>
       <c r="H14" s="119"/>
       <c r="I14" s="119"/>
       <c r="J14" s="119"/>
@@ -9531,73 +9567,36 @@
       <c r="M14" s="128"/>
     </row>
     <row r="15" spans="1:13" ht="20.5" customHeight="1">
-      <c r="A15" s="121" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="122">
-        <f>SUM(B2:B8)</f>
-        <v>1350000.31</v>
-      </c>
-      <c r="C15" s="122">
-        <f>SUM(C2:C8)</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="122">
-        <f>SUM(D2:D12)</f>
-        <v>1386915.68</v>
-      </c>
-      <c r="E15" s="122">
-        <f>SUM(E2:E12)</f>
-        <v>1648522</v>
-      </c>
-      <c r="F15" s="122">
-        <f>SUM(F2:F14)</f>
-        <v>1662193.83</v>
-      </c>
-      <c r="G15" s="122">
-        <f t="shared" ref="G15:L15" si="0">SUM(G2:G8)</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="122">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="122">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="122">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="122">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="122">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A15" s="118" t="s">
+        <v>377</v>
+      </c>
+      <c r="B15" s="119"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="119">
+        <v>16971</v>
+      </c>
+      <c r="H15" s="119"/>
+      <c r="I15" s="119"/>
+      <c r="J15" s="119"/>
+      <c r="K15" s="119"/>
+      <c r="L15" s="119"/>
       <c r="M15" s="128"/>
     </row>
     <row r="16" spans="1:13" ht="20.5" customHeight="1">
       <c r="A16" s="118" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="119">
-        <v>132223</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="B16" s="119"/>
       <c r="C16" s="119"/>
-      <c r="D16" s="119">
-        <v>132409</v>
-      </c>
-      <c r="E16" s="119">
-        <v>132595</v>
-      </c>
-      <c r="F16" s="119">
-        <v>132595</v>
-      </c>
-      <c r="G16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="119">
+        <v>3000</v>
+      </c>
       <c r="H16" s="119"/>
       <c r="I16" s="119"/>
       <c r="J16" s="119"/>
@@ -9606,115 +9605,129 @@
       <c r="M16" s="128"/>
     </row>
     <row r="17" spans="1:13" ht="20.5" customHeight="1">
-      <c r="A17" s="118" t="s">
-        <v>364</v>
-      </c>
-      <c r="B17" s="119">
-        <v>90953</v>
-      </c>
-      <c r="C17" s="119"/>
-      <c r="D17" s="119">
-        <v>98337</v>
-      </c>
-      <c r="E17" s="119">
-        <v>105721</v>
-      </c>
-      <c r="F17" s="119">
-        <v>105721</v>
-      </c>
-      <c r="G17" s="119"/>
-      <c r="H17" s="119"/>
-      <c r="I17" s="119"/>
-      <c r="J17" s="119"/>
-      <c r="K17" s="119"/>
-      <c r="L17" s="119"/>
+      <c r="A17" s="121" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="122">
+        <f>SUM(B2:B8)</f>
+        <v>1350000.31</v>
+      </c>
+      <c r="C17" s="122">
+        <f>SUM(C2:C8)</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="122">
+        <f>SUM(D2:D12)</f>
+        <v>1386915.68</v>
+      </c>
+      <c r="E17" s="122">
+        <f>SUM(E2:E12)</f>
+        <v>1648522</v>
+      </c>
+      <c r="F17" s="122">
+        <f>SUM(F2:F14)</f>
+        <v>1662193.83</v>
+      </c>
+      <c r="G17" s="122">
+        <f>SUM(G2:G16)</f>
+        <v>1695948.62</v>
+      </c>
+      <c r="H17" s="122">
+        <f>SUM(H2:H8)</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="122">
+        <f>SUM(I2:I8)</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="122">
+        <f>SUM(J2:J8)</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="122">
+        <f>SUM(K2:K8)</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="122">
+        <f>SUM(L2:L8)</f>
+        <v>0</v>
+      </c>
       <c r="M17" s="128"/>
     </row>
     <row r="18" spans="1:13" ht="20.5" customHeight="1">
       <c r="A18" s="118" t="s">
-        <v>365</v>
+        <v>43</v>
       </c>
       <c r="B18" s="119">
-        <v>10133</v>
-      </c>
-      <c r="C18" s="120"/>
-      <c r="D18" s="120">
-        <v>10370</v>
-      </c>
-      <c r="E18" s="120">
-        <v>10642</v>
-      </c>
-      <c r="F18" s="120">
-        <v>10763</v>
-      </c>
-      <c r="G18" s="120"/>
-      <c r="H18" s="120"/>
-      <c r="I18" s="120"/>
-      <c r="J18" s="120"/>
-      <c r="K18" s="120"/>
-      <c r="L18" s="120"/>
+        <v>132223</v>
+      </c>
+      <c r="C18" s="119"/>
+      <c r="D18" s="119">
+        <v>132409</v>
+      </c>
+      <c r="E18" s="119">
+        <v>132595</v>
+      </c>
+      <c r="F18" s="119">
+        <v>132595</v>
+      </c>
+      <c r="G18" s="119">
+        <v>134702</v>
+      </c>
+      <c r="H18" s="119"/>
+      <c r="I18" s="119"/>
+      <c r="J18" s="119"/>
+      <c r="K18" s="119"/>
+      <c r="L18" s="119"/>
       <c r="M18" s="128"/>
     </row>
     <row r="19" spans="1:13" ht="20.5" customHeight="1">
-      <c r="A19" s="123" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="124">
-        <f t="shared" ref="B19:L19" si="1">SUM(B16:B18)</f>
-        <v>233309</v>
-      </c>
-      <c r="C19" s="124">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D19" s="124">
-        <f t="shared" si="1"/>
-        <v>241116</v>
-      </c>
-      <c r="E19" s="124">
-        <f t="shared" si="1"/>
-        <v>248958</v>
-      </c>
-      <c r="F19" s="124">
-        <f t="shared" si="1"/>
-        <v>249079</v>
-      </c>
-      <c r="G19" s="124">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="124">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="124">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="124">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="124">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="124">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="A19" s="118" t="s">
+        <v>364</v>
+      </c>
+      <c r="B19" s="119">
+        <v>90953</v>
+      </c>
+      <c r="C19" s="119"/>
+      <c r="D19" s="119">
+        <v>98337</v>
+      </c>
+      <c r="E19" s="119">
+        <v>105721</v>
+      </c>
+      <c r="F19" s="119">
+        <v>105721</v>
+      </c>
+      <c r="G19" s="119">
+        <v>110729</v>
+      </c>
+      <c r="H19" s="119"/>
+      <c r="I19" s="119"/>
+      <c r="J19" s="119"/>
+      <c r="K19" s="119"/>
+      <c r="L19" s="119"/>
       <c r="M19" s="128"/>
     </row>
     <row r="20" spans="1:13" ht="20.5" customHeight="1">
       <c r="A20" s="118" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="120"/>
+        <v>365</v>
+      </c>
+      <c r="B20" s="119">
+        <v>10133</v>
+      </c>
       <c r="C20" s="120"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="120"/>
+      <c r="D20" s="120">
+        <v>10370</v>
+      </c>
+      <c r="E20" s="120">
+        <v>10642</v>
+      </c>
+      <c r="F20" s="120">
+        <v>10763</v>
+      </c>
+      <c r="G20" s="120">
+        <v>11234</v>
+      </c>
       <c r="H20" s="120"/>
       <c r="I20" s="120"/>
       <c r="J20" s="120"/>
@@ -9723,171 +9736,238 @@
       <c r="M20" s="128"/>
     </row>
     <row r="21" spans="1:13" ht="20.5" customHeight="1">
-      <c r="A21" s="118" t="s">
+      <c r="A21" s="123" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="124">
+        <f t="shared" ref="B21:L21" si="0">SUM(B18:B20)</f>
+        <v>233309</v>
+      </c>
+      <c r="C21" s="124">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="124">
+        <f t="shared" si="0"/>
+        <v>241116</v>
+      </c>
+      <c r="E21" s="124">
+        <f t="shared" si="0"/>
+        <v>248958</v>
+      </c>
+      <c r="F21" s="124">
+        <f t="shared" si="0"/>
+        <v>249079</v>
+      </c>
+      <c r="G21" s="124">
+        <f t="shared" si="0"/>
+        <v>256665</v>
+      </c>
+      <c r="H21" s="124">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="124">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="124">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="124">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="124">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="128"/>
+    </row>
+    <row r="22" spans="1:13" ht="20.5" customHeight="1">
+      <c r="A22" s="118" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="120"/>
+      <c r="C22" s="120"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="120"/>
+      <c r="H22" s="120"/>
+      <c r="I22" s="120"/>
+      <c r="J22" s="120"/>
+      <c r="K22" s="120"/>
+      <c r="L22" s="120"/>
+      <c r="M22" s="128"/>
+    </row>
+    <row r="23" spans="1:13" ht="20.5" customHeight="1">
+      <c r="A23" s="118" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="119"/>
-      <c r="C21" s="119"/>
-      <c r="D21" s="119"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="119"/>
-      <c r="J21" s="119"/>
-      <c r="K21" s="119"/>
-      <c r="L21" s="119"/>
-      <c r="M21" s="128"/>
-    </row>
-    <row r="22" spans="1:13" ht="20.5" customHeight="1">
-      <c r="A22" s="121" t="s">
+      <c r="B23" s="119"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="119"/>
+      <c r="H23" s="119"/>
+      <c r="I23" s="119"/>
+      <c r="J23" s="119"/>
+      <c r="K23" s="119"/>
+      <c r="L23" s="119"/>
+      <c r="M23" s="128"/>
+    </row>
+    <row r="24" spans="1:13" ht="20.5" customHeight="1">
+      <c r="A24" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="122">
-        <f t="shared" ref="B22:L22" si="2">SUM(B20:B21)</f>
+      <c r="B24" s="122">
+        <f t="shared" ref="B24:L24" si="1">SUM(B22:B23)</f>
         <v>0</v>
       </c>
-      <c r="C22" s="122">
-        <f>SUM(C20:C21)</f>
+      <c r="C24" s="122">
+        <f>SUM(C22:C23)</f>
         <v>0</v>
       </c>
-      <c r="D22" s="122">
+      <c r="D24" s="122">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="122">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="122">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="122">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="122">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="122">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="122">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="122">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="122">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="128"/>
+    </row>
+    <row r="25" spans="1:13" ht="19.899999999999999" customHeight="1">
+      <c r="A25" s="125" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="126">
+        <f>SUM(B17,B21)</f>
+        <v>1583309.31</v>
+      </c>
+      <c r="C25" s="126">
+        <f>SUM(C17,C21)</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="126">
+        <f>SUM(D17,D21)</f>
+        <v>1628031.68</v>
+      </c>
+      <c r="E25" s="126">
+        <f>SUM(E17,E21)</f>
+        <v>1897480</v>
+      </c>
+      <c r="F25" s="126">
+        <f>SUM(F17,F21)</f>
+        <v>1911272.83</v>
+      </c>
+      <c r="G25" s="126">
+        <f>SUM(G17,G21)</f>
+        <v>1952613.62</v>
+      </c>
+      <c r="H25" s="126">
+        <f>SUM(H17,H21)</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="126">
+        <f>SUM(I17,I21)</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="126">
+        <f>SUM(J17,J21)</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="126">
+        <f>SUM(K17,K21)</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="126">
+        <f>SUM(L17,L21)</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="128"/>
+    </row>
+    <row r="26" spans="1:13" ht="19.899999999999999" customHeight="1">
+      <c r="A26" s="125" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="126">
+        <f t="shared" ref="B26:L26" si="2">B25-B24</f>
+        <v>1583309.31</v>
+      </c>
+      <c r="C26" s="126">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E22" s="122">
+      <c r="D26" s="126">
+        <f t="shared" si="2"/>
+        <v>1628031.68</v>
+      </c>
+      <c r="E26" s="126">
+        <f t="shared" si="2"/>
+        <v>1897480</v>
+      </c>
+      <c r="F26" s="126">
+        <f t="shared" si="2"/>
+        <v>1911272.83</v>
+      </c>
+      <c r="G26" s="126">
+        <f t="shared" si="2"/>
+        <v>1952613.62</v>
+      </c>
+      <c r="H26" s="126">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F22" s="122">
+      <c r="I26" s="126">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G22" s="122">
+      <c r="J26" s="126">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H22" s="122">
+      <c r="K26" s="126">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I22" s="122">
+      <c r="L26" s="126">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J22" s="122">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="122">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="122">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="128"/>
-    </row>
-    <row r="23" spans="1:13" ht="19.899999999999999" customHeight="1">
-      <c r="A23" s="125" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="126">
-        <f t="shared" ref="B23:L23" si="3">SUM(B15,B19)</f>
-        <v>1583309.31</v>
-      </c>
-      <c r="C23" s="126">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D23" s="126">
-        <f t="shared" si="3"/>
-        <v>1628031.68</v>
-      </c>
-      <c r="E23" s="126">
-        <f t="shared" si="3"/>
-        <v>1897480</v>
-      </c>
-      <c r="F23" s="126">
-        <f t="shared" si="3"/>
-        <v>1911272.83</v>
-      </c>
-      <c r="G23" s="126">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="126">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="126">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="126">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="126">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L23" s="126">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="128"/>
-    </row>
-    <row r="24" spans="1:13" ht="19.899999999999999" customHeight="1">
-      <c r="A24" s="125" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="126">
-        <f t="shared" ref="B24:L24" si="4">B23-B22</f>
-        <v>1583309.31</v>
-      </c>
-      <c r="C24" s="126">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D24" s="126">
-        <f t="shared" si="4"/>
-        <v>1628031.68</v>
-      </c>
-      <c r="E24" s="126">
-        <f t="shared" si="4"/>
-        <v>1897480</v>
-      </c>
-      <c r="F24" s="126">
-        <f t="shared" si="4"/>
-        <v>1911272.83</v>
-      </c>
-      <c r="G24" s="126">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="126">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="126">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="126">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="126">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L24" s="126">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="128"/>
+      <c r="M26" s="128"/>
     </row>
   </sheetData>
   <phoneticPr fontId="26" type="noConversion"/>
@@ -9910,7 +9990,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1:F13"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -9926,37 +10006,37 @@
         <v>366</v>
       </c>
       <c r="B1" s="117" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="C1" s="117">
-        <v>2024.3</v>
+        <v>2025.3</v>
       </c>
       <c r="D1" s="117">
-        <v>2024.4</v>
+        <v>2025.4</v>
       </c>
       <c r="E1" s="117">
-        <v>2024.5</v>
+        <v>2025.5</v>
       </c>
       <c r="F1" s="117">
-        <v>2024.6</v>
+        <v>2025.6</v>
       </c>
       <c r="G1" s="117">
-        <v>2024.7</v>
+        <v>2025.7</v>
       </c>
       <c r="H1" s="117">
-        <v>2024.8</v>
+        <v>2025.8</v>
       </c>
       <c r="I1" s="117">
-        <v>2024.9</v>
+        <v>2025.9</v>
       </c>
       <c r="J1" s="127">
-        <v>2024.1</v>
+        <v>2025.1</v>
       </c>
       <c r="K1" s="117">
-        <v>2024.11</v>
+        <v>2025.11</v>
       </c>
       <c r="L1" s="117">
-        <v>2024.12</v>
+        <v>2025.12</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="20.5" customHeight="1">
@@ -9978,7 +10058,9 @@
       <c r="F2" s="119">
         <v>1164890.8600000001</v>
       </c>
-      <c r="G2" s="119"/>
+      <c r="G2" s="119">
+        <v>1411027.96</v>
+      </c>
       <c r="H2" s="119"/>
       <c r="I2" s="119"/>
       <c r="J2" s="119"/>
@@ -10005,7 +10087,10 @@
       <c r="F3" s="120">
         <v>89636.03</v>
       </c>
-      <c r="G3" s="120"/>
+      <c r="G3" s="120">
+        <f>111420.37+1605.8+174.82+4000</f>
+        <v>117200.99</v>
+      </c>
       <c r="H3" s="120"/>
       <c r="I3" s="120"/>
       <c r="J3" s="120"/>
@@ -10031,7 +10116,9 @@
       <c r="F4" s="119">
         <v>3170.96</v>
       </c>
-      <c r="G4" s="119"/>
+      <c r="G4" s="119">
+        <v>4391.9799999999996</v>
+      </c>
       <c r="H4" s="119"/>
       <c r="I4" s="119"/>
       <c r="J4" s="119"/>
@@ -10064,7 +10151,7 @@
       </c>
       <c r="G5" s="122">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1532620.93</v>
       </c>
       <c r="H5" s="122">
         <f t="shared" si="0"/>
@@ -10107,7 +10194,10 @@
       <c r="F6" s="119">
         <v>106104.02</v>
       </c>
-      <c r="G6" s="119"/>
+      <c r="G6" s="119">
+        <f>32930.16+57813.86+23212.48</f>
+        <v>113956.5</v>
+      </c>
       <c r="H6" s="119"/>
       <c r="I6" s="119"/>
       <c r="J6" s="119"/>
@@ -10132,7 +10222,10 @@
       <c r="F7" s="119">
         <v>12642</v>
       </c>
-      <c r="G7" s="119"/>
+      <c r="G7" s="119">
+        <f>F7</f>
+        <v>12642</v>
+      </c>
       <c r="H7" s="119"/>
       <c r="I7" s="119"/>
       <c r="J7" s="119"/>
@@ -10165,7 +10258,7 @@
       </c>
       <c r="G8" s="124">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>126598.5</v>
       </c>
       <c r="H8" s="124">
         <f t="shared" si="3"/>
@@ -10297,7 +10390,7 @@
       </c>
       <c r="G12" s="126">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1659219.43</v>
       </c>
       <c r="H12" s="126">
         <f t="shared" si="7"/>
@@ -10346,7 +10439,7 @@
       </c>
       <c r="G13" s="126">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1659219.43</v>
       </c>
       <c r="H13" s="126">
         <f t="shared" si="8"/>
@@ -10373,7 +10466,7 @@
   </sheetData>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -10418,10 +10511,10 @@
       <c r="B2" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="205" t="s">
+      <c r="C2" s="218" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="206"/>
+      <c r="D2" s="219"/>
       <c r="E2" s="100" t="s">
         <v>51</v>
       </c>
@@ -10454,10 +10547,10 @@
       </c>
     </row>
     <row r="3" spans="2:14" ht="23.5" customHeight="1">
-      <c r="B3" s="207" t="s">
+      <c r="B3" s="198" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="210" t="s">
+      <c r="C3" s="201" t="s">
         <v>62</v>
       </c>
       <c r="D3" s="101" t="s">
@@ -10485,18 +10578,18 @@
       <c r="L3" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="M3" s="196">
+      <c r="M3" s="209">
         <f>SUM(J3:J10)</f>
         <v>58430.5</v>
       </c>
-      <c r="N3" s="201">
+      <c r="N3" s="214">
         <f>SUM(M3:M25)</f>
         <v>104966.35</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="23" customHeight="1">
-      <c r="B4" s="208"/>
-      <c r="C4" s="211"/>
+      <c r="B4" s="199"/>
+      <c r="C4" s="202"/>
       <c r="D4" s="102" t="s">
         <v>70</v>
       </c>
@@ -10520,12 +10613,12 @@
       </c>
       <c r="K4" s="105"/>
       <c r="L4" s="105"/>
-      <c r="M4" s="197"/>
-      <c r="N4" s="202"/>
+      <c r="M4" s="210"/>
+      <c r="N4" s="215"/>
     </row>
     <row r="5" spans="2:14" ht="23" customHeight="1">
-      <c r="B5" s="208"/>
-      <c r="C5" s="212" t="s">
+      <c r="B5" s="199"/>
+      <c r="C5" s="203" t="s">
         <v>74</v>
       </c>
       <c r="D5" s="103" t="s">
@@ -10553,12 +10646,12 @@
       <c r="L5" s="103" t="s">
         <v>80</v>
       </c>
-      <c r="M5" s="198"/>
-      <c r="N5" s="203"/>
+      <c r="M5" s="211"/>
+      <c r="N5" s="216"/>
     </row>
     <row r="6" spans="2:14" ht="23" customHeight="1">
-      <c r="B6" s="208"/>
-      <c r="C6" s="211"/>
+      <c r="B6" s="199"/>
+      <c r="C6" s="202"/>
       <c r="D6" s="102" t="s">
         <v>81</v>
       </c>
@@ -10582,11 +10675,11 @@
       </c>
       <c r="K6" s="105"/>
       <c r="L6" s="105"/>
-      <c r="M6" s="197"/>
-      <c r="N6" s="202"/>
+      <c r="M6" s="210"/>
+      <c r="N6" s="215"/>
     </row>
     <row r="7" spans="2:14" ht="23" customHeight="1">
-      <c r="B7" s="208"/>
+      <c r="B7" s="199"/>
       <c r="C7" s="103" t="s">
         <v>87</v>
       </c>
@@ -10613,12 +10706,12 @@
       </c>
       <c r="K7" s="110"/>
       <c r="L7" s="110"/>
-      <c r="M7" s="198"/>
-      <c r="N7" s="203"/>
+      <c r="M7" s="211"/>
+      <c r="N7" s="216"/>
     </row>
     <row r="8" spans="2:14" ht="23" customHeight="1">
-      <c r="B8" s="208"/>
-      <c r="C8" s="213" t="s">
+      <c r="B8" s="199"/>
+      <c r="C8" s="204" t="s">
         <v>92</v>
       </c>
       <c r="D8" s="102" t="s">
@@ -10644,12 +10737,12 @@
       </c>
       <c r="K8" s="105"/>
       <c r="L8" s="105"/>
-      <c r="M8" s="197"/>
-      <c r="N8" s="202"/>
+      <c r="M8" s="210"/>
+      <c r="N8" s="215"/>
     </row>
     <row r="9" spans="2:14" ht="23" customHeight="1">
-      <c r="B9" s="208"/>
-      <c r="C9" s="214"/>
+      <c r="B9" s="199"/>
+      <c r="C9" s="205"/>
       <c r="D9" s="103" t="s">
         <v>97</v>
       </c>
@@ -10673,11 +10766,11 @@
       </c>
       <c r="K9" s="110"/>
       <c r="L9" s="110"/>
-      <c r="M9" s="198"/>
-      <c r="N9" s="203"/>
+      <c r="M9" s="211"/>
+      <c r="N9" s="216"/>
     </row>
     <row r="10" spans="2:14" ht="23.5" customHeight="1">
-      <c r="B10" s="209"/>
+      <c r="B10" s="200"/>
       <c r="C10" s="104" t="s">
         <v>101</v>
       </c>
@@ -10704,14 +10797,14 @@
       </c>
       <c r="K10" s="112"/>
       <c r="L10" s="112"/>
-      <c r="M10" s="199"/>
-      <c r="N10" s="202"/>
+      <c r="M10" s="212"/>
+      <c r="N10" s="215"/>
     </row>
     <row r="11" spans="2:14" ht="23.5" customHeight="1">
-      <c r="B11" s="207" t="s">
+      <c r="B11" s="198" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="210" t="s">
+      <c r="C11" s="201" t="s">
         <v>62</v>
       </c>
       <c r="D11" s="101" t="s">
@@ -10737,15 +10830,15 @@
       </c>
       <c r="K11" s="108"/>
       <c r="L11" s="108"/>
-      <c r="M11" s="196">
+      <c r="M11" s="209">
         <f>SUM(J11:J18)</f>
         <v>9113.5</v>
       </c>
-      <c r="N11" s="203"/>
+      <c r="N11" s="216"/>
     </row>
     <row r="12" spans="2:14" ht="23" customHeight="1">
-      <c r="B12" s="208"/>
-      <c r="C12" s="215"/>
+      <c r="B12" s="199"/>
+      <c r="C12" s="206"/>
       <c r="D12" s="102" t="s">
         <v>70</v>
       </c>
@@ -10769,12 +10862,12 @@
       </c>
       <c r="K12" s="105"/>
       <c r="L12" s="105"/>
-      <c r="M12" s="197"/>
-      <c r="N12" s="202"/>
+      <c r="M12" s="210"/>
+      <c r="N12" s="215"/>
     </row>
     <row r="13" spans="2:14" ht="23" customHeight="1">
-      <c r="B13" s="208"/>
-      <c r="C13" s="216"/>
+      <c r="B13" s="199"/>
+      <c r="C13" s="207"/>
       <c r="D13" s="103" t="s">
         <v>70</v>
       </c>
@@ -10800,12 +10893,12 @@
       <c r="L13" s="103" t="s">
         <v>115</v>
       </c>
-      <c r="M13" s="198"/>
-      <c r="N13" s="203"/>
+      <c r="M13" s="211"/>
+      <c r="N13" s="216"/>
     </row>
     <row r="14" spans="2:14" ht="23" customHeight="1">
-      <c r="B14" s="208"/>
-      <c r="C14" s="213" t="s">
+      <c r="B14" s="199"/>
+      <c r="C14" s="204" t="s">
         <v>74</v>
       </c>
       <c r="D14" s="102" t="s">
@@ -10831,12 +10924,12 @@
       </c>
       <c r="K14" s="105"/>
       <c r="L14" s="105"/>
-      <c r="M14" s="197"/>
-      <c r="N14" s="202"/>
+      <c r="M14" s="210"/>
+      <c r="N14" s="215"/>
     </row>
     <row r="15" spans="2:14" ht="23" customHeight="1">
-      <c r="B15" s="208"/>
-      <c r="C15" s="214"/>
+      <c r="B15" s="199"/>
+      <c r="C15" s="205"/>
       <c r="D15" s="103" t="s">
         <v>75</v>
       </c>
@@ -10860,11 +10953,11 @@
       </c>
       <c r="K15" s="110"/>
       <c r="L15" s="110"/>
-      <c r="M15" s="198"/>
-      <c r="N15" s="203"/>
+      <c r="M15" s="211"/>
+      <c r="N15" s="216"/>
     </row>
     <row r="16" spans="2:14" ht="23" customHeight="1">
-      <c r="B16" s="208"/>
+      <c r="B16" s="199"/>
       <c r="C16" s="102" t="s">
         <v>87</v>
       </c>
@@ -10891,12 +10984,12 @@
       </c>
       <c r="K16" s="105"/>
       <c r="L16" s="105"/>
-      <c r="M16" s="197"/>
-      <c r="N16" s="202"/>
+      <c r="M16" s="210"/>
+      <c r="N16" s="215"/>
     </row>
     <row r="17" spans="2:14" ht="23" customHeight="1">
-      <c r="B17" s="208"/>
-      <c r="C17" s="212" t="s">
+      <c r="B17" s="199"/>
+      <c r="C17" s="203" t="s">
         <v>92</v>
       </c>
       <c r="D17" s="103" t="s">
@@ -10922,12 +11015,12 @@
       </c>
       <c r="K17" s="110"/>
       <c r="L17" s="110"/>
-      <c r="M17" s="198"/>
-      <c r="N17" s="203"/>
+      <c r="M17" s="211"/>
+      <c r="N17" s="216"/>
     </row>
     <row r="18" spans="2:14" ht="23.5" customHeight="1">
-      <c r="B18" s="209"/>
-      <c r="C18" s="215"/>
+      <c r="B18" s="200"/>
+      <c r="C18" s="206"/>
       <c r="D18" s="104" t="s">
         <v>93</v>
       </c>
@@ -10951,14 +11044,14 @@
       </c>
       <c r="K18" s="112"/>
       <c r="L18" s="112"/>
-      <c r="M18" s="199"/>
-      <c r="N18" s="202"/>
+      <c r="M18" s="212"/>
+      <c r="N18" s="215"/>
     </row>
     <row r="19" spans="2:14" ht="23.5" customHeight="1">
-      <c r="B19" s="207" t="s">
+      <c r="B19" s="198" t="s">
         <v>125</v>
       </c>
-      <c r="C19" s="210" t="s">
+      <c r="C19" s="201" t="s">
         <v>62</v>
       </c>
       <c r="D19" s="101" t="s">
@@ -10984,15 +11077,15 @@
       </c>
       <c r="K19" s="108"/>
       <c r="L19" s="108"/>
-      <c r="M19" s="196">
+      <c r="M19" s="209">
         <f>SUM(J19:J25)</f>
         <v>37422.35</v>
       </c>
-      <c r="N19" s="203"/>
+      <c r="N19" s="216"/>
     </row>
     <row r="20" spans="2:14" ht="23" customHeight="1">
-      <c r="B20" s="208"/>
-      <c r="C20" s="211"/>
+      <c r="B20" s="199"/>
+      <c r="C20" s="202"/>
       <c r="D20" s="102" t="s">
         <v>70</v>
       </c>
@@ -11016,12 +11109,12 @@
       </c>
       <c r="K20" s="105"/>
       <c r="L20" s="105"/>
-      <c r="M20" s="197"/>
-      <c r="N20" s="202"/>
+      <c r="M20" s="210"/>
+      <c r="N20" s="215"/>
     </row>
     <row r="21" spans="2:14" ht="23" customHeight="1">
-      <c r="B21" s="208"/>
-      <c r="C21" s="212" t="s">
+      <c r="B21" s="199"/>
+      <c r="C21" s="203" t="s">
         <v>74</v>
       </c>
       <c r="D21" s="103" t="s">
@@ -11047,12 +11140,12 @@
       </c>
       <c r="K21" s="110"/>
       <c r="L21" s="110"/>
-      <c r="M21" s="198"/>
-      <c r="N21" s="203"/>
+      <c r="M21" s="211"/>
+      <c r="N21" s="216"/>
     </row>
     <row r="22" spans="2:14" ht="23" customHeight="1">
-      <c r="B22" s="208"/>
-      <c r="C22" s="217"/>
+      <c r="B22" s="199"/>
+      <c r="C22" s="208"/>
       <c r="D22" s="102" t="s">
         <v>132</v>
       </c>
@@ -11076,12 +11169,12 @@
       </c>
       <c r="K22" s="105"/>
       <c r="L22" s="105"/>
-      <c r="M22" s="197"/>
-      <c r="N22" s="202"/>
+      <c r="M22" s="210"/>
+      <c r="N22" s="215"/>
     </row>
     <row r="23" spans="2:14" ht="23" customHeight="1">
-      <c r="B23" s="208"/>
-      <c r="C23" s="212" t="s">
+      <c r="B23" s="199"/>
+      <c r="C23" s="203" t="s">
         <v>92</v>
       </c>
       <c r="D23" s="103" t="s">
@@ -11107,12 +11200,12 @@
       </c>
       <c r="K23" s="110"/>
       <c r="L23" s="110"/>
-      <c r="M23" s="198"/>
-      <c r="N23" s="203"/>
+      <c r="M23" s="211"/>
+      <c r="N23" s="216"/>
     </row>
     <row r="24" spans="2:14" ht="23" customHeight="1">
-      <c r="B24" s="208"/>
-      <c r="C24" s="211"/>
+      <c r="B24" s="199"/>
+      <c r="C24" s="202"/>
       <c r="D24" s="102" t="s">
         <v>97</v>
       </c>
@@ -11136,11 +11229,11 @@
       </c>
       <c r="K24" s="105"/>
       <c r="L24" s="105"/>
-      <c r="M24" s="197"/>
-      <c r="N24" s="202"/>
+      <c r="M24" s="210"/>
+      <c r="N24" s="215"/>
     </row>
     <row r="25" spans="2:14" ht="23.5" customHeight="1">
-      <c r="B25" s="209"/>
+      <c r="B25" s="200"/>
       <c r="C25" s="106" t="s">
         <v>101</v>
       </c>
@@ -11169,11 +11262,16 @@
       <c r="L25" s="106" t="s">
         <v>143</v>
       </c>
-      <c r="M25" s="200"/>
-      <c r="N25" s="204"/>
+      <c r="M25" s="213"/>
+      <c r="N25" s="217"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="M3:M10"/>
+    <mergeCell ref="M11:M18"/>
+    <mergeCell ref="M19:M25"/>
+    <mergeCell ref="N3:N25"/>
+    <mergeCell ref="C2:D2"/>
     <mergeCell ref="B3:B10"/>
     <mergeCell ref="B11:B18"/>
     <mergeCell ref="B19:B25"/>
@@ -11186,11 +11284,6 @@
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C23:C24"/>
-    <mergeCell ref="M3:M10"/>
-    <mergeCell ref="M11:M18"/>
-    <mergeCell ref="M19:M25"/>
-    <mergeCell ref="N3:N25"/>
-    <mergeCell ref="C2:D2"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -12865,39 +12958,39 @@
   <sheetData>
     <row r="1" spans="2:30" ht="31" customHeight="1"/>
     <row r="2" spans="2:30" ht="25" customHeight="1">
-      <c r="B2" s="236" t="s">
+      <c r="B2" s="220" t="s">
         <v>295</v>
       </c>
-      <c r="C2" s="236"/>
+      <c r="C2" s="220"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="I2" s="236" t="s">
+      <c r="I2" s="220" t="s">
         <v>296</v>
       </c>
-      <c r="J2" s="236"/>
-      <c r="K2" s="236"/>
-      <c r="L2" s="236"/>
-      <c r="M2" s="236"/>
-      <c r="N2" s="236"/>
-      <c r="Q2" s="236" t="s">
+      <c r="J2" s="220"/>
+      <c r="K2" s="220"/>
+      <c r="L2" s="220"/>
+      <c r="M2" s="220"/>
+      <c r="N2" s="220"/>
+      <c r="Q2" s="220" t="s">
         <v>297</v>
       </c>
-      <c r="R2" s="236"/>
-      <c r="S2" s="236"/>
-      <c r="T2" s="236"/>
-      <c r="U2" s="236"/>
-      <c r="V2" s="236"/>
-      <c r="W2" s="236"/>
-      <c r="Y2" s="236" t="s">
+      <c r="R2" s="220"/>
+      <c r="S2" s="220"/>
+      <c r="T2" s="220"/>
+      <c r="U2" s="220"/>
+      <c r="V2" s="220"/>
+      <c r="W2" s="220"/>
+      <c r="Y2" s="220" t="s">
         <v>298</v>
       </c>
-      <c r="Z2" s="236"/>
-      <c r="AA2" s="236"/>
-      <c r="AB2" s="236"/>
-      <c r="AC2" s="236"/>
-      <c r="AD2" s="236"/>
+      <c r="Z2" s="220"/>
+      <c r="AA2" s="220"/>
+      <c r="AB2" s="220"/>
+      <c r="AC2" s="220"/>
+      <c r="AD2" s="220"/>
     </row>
     <row r="3" spans="2:30" ht="20" customHeight="1">
       <c r="B3" s="3" t="s">
@@ -12979,7 +13072,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="I4" s="225" t="s">
+      <c r="I4" s="234" t="s">
         <v>317</v>
       </c>
       <c r="J4" s="47" t="s">
@@ -12988,14 +13081,14 @@
       <c r="K4" s="48">
         <v>13000</v>
       </c>
-      <c r="L4" s="231">
+      <c r="L4" s="240">
         <f>SUM(K4:K8)</f>
         <v>13000</v>
       </c>
       <c r="M4" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="N4" s="237">
+      <c r="N4" s="221">
         <f>L4/J14</f>
         <v>0.56521739130434778</v>
       </c>
@@ -13059,18 +13152,18 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="I5" s="226"/>
+      <c r="I5" s="235"/>
       <c r="J5" s="47" t="s">
         <v>320</v>
       </c>
       <c r="K5" s="48">
         <v>0</v>
       </c>
-      <c r="L5" s="232"/>
+      <c r="L5" s="222"/>
       <c r="M5" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="N5" s="232"/>
+      <c r="N5" s="222"/>
       <c r="Q5" s="63" t="s">
         <v>254</v>
       </c>
@@ -13134,16 +13227,16 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-      <c r="I6" s="227"/>
+      <c r="I6" s="236"/>
       <c r="J6" s="47" t="s">
         <v>322</v>
       </c>
       <c r="K6" s="49"/>
-      <c r="L6" s="233"/>
+      <c r="L6" s="223"/>
       <c r="M6" s="54">
         <v>582000</v>
       </c>
-      <c r="N6" s="233"/>
+      <c r="N6" s="223"/>
       <c r="Q6" s="63" t="s">
         <v>256</v>
       </c>
@@ -13208,16 +13301,16 @@
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
-      <c r="I7" s="228"/>
+      <c r="I7" s="237"/>
       <c r="J7" s="47" t="s">
         <v>324</v>
       </c>
       <c r="K7" s="48">
         <v>0</v>
       </c>
-      <c r="L7" s="234"/>
+      <c r="L7" s="224"/>
       <c r="M7" s="55"/>
-      <c r="N7" s="234"/>
+      <c r="N7" s="224"/>
       <c r="Q7" s="63" t="s">
         <v>258</v>
       </c>
@@ -13281,14 +13374,14 @@
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="I8" s="228"/>
+      <c r="I8" s="237"/>
       <c r="J8" s="47" t="s">
         <v>326</v>
       </c>
       <c r="K8" s="49"/>
-      <c r="L8" s="234"/>
+      <c r="L8" s="224"/>
       <c r="M8" s="55"/>
-      <c r="N8" s="234"/>
+      <c r="N8" s="224"/>
       <c r="Q8" s="63" t="s">
         <v>260</v>
       </c>
@@ -13342,21 +13435,21 @@
       </c>
     </row>
     <row r="9" spans="2:30" ht="20" customHeight="1">
-      <c r="I9" s="225" t="s">
+      <c r="I9" s="234" t="s">
         <v>327</v>
       </c>
       <c r="J9" s="47" t="s">
         <v>328</v>
       </c>
       <c r="K9" s="49"/>
-      <c r="L9" s="235">
+      <c r="L9" s="241">
         <f>SUM(K9:K13)</f>
         <v>10000</v>
       </c>
       <c r="M9" s="54">
         <v>1000000</v>
       </c>
-      <c r="N9" s="238">
+      <c r="N9" s="225">
         <f>L9/J14</f>
         <v>0.43478260869565216</v>
       </c>
@@ -13413,18 +13506,18 @@
       </c>
     </row>
     <row r="10" spans="2:30" ht="20" customHeight="1">
-      <c r="I10" s="229"/>
+      <c r="I10" s="238"/>
       <c r="J10" s="47" t="s">
         <v>329</v>
       </c>
       <c r="K10" s="48">
         <v>0</v>
       </c>
-      <c r="L10" s="232"/>
+      <c r="L10" s="222"/>
       <c r="M10" s="54">
         <v>400000</v>
       </c>
-      <c r="N10" s="232"/>
+      <c r="N10" s="222"/>
       <c r="Q10" s="63" t="s">
         <v>264</v>
       </c>
@@ -13478,18 +13571,18 @@
       </c>
     </row>
     <row r="11" spans="2:30" ht="20" customHeight="1">
-      <c r="I11" s="229"/>
+      <c r="I11" s="238"/>
       <c r="J11" s="47" t="s">
         <v>330</v>
       </c>
       <c r="K11" s="50">
         <v>10000</v>
       </c>
-      <c r="L11" s="232"/>
+      <c r="L11" s="222"/>
       <c r="M11" s="56">
         <v>2000000</v>
       </c>
-      <c r="N11" s="232"/>
+      <c r="N11" s="222"/>
       <c r="Q11" s="63" t="s">
         <v>266</v>
       </c>
@@ -13543,24 +13636,24 @@
       </c>
     </row>
     <row r="12" spans="2:30" ht="20" customHeight="1">
-      <c r="B12" s="236" t="s">
+      <c r="B12" s="220" t="s">
         <v>331</v>
       </c>
-      <c r="C12" s="236"/>
-      <c r="D12" s="236"/>
-      <c r="E12" s="236"/>
-      <c r="F12" s="236"/>
-      <c r="G12" s="236"/>
-      <c r="I12" s="229"/>
+      <c r="C12" s="220"/>
+      <c r="D12" s="220"/>
+      <c r="E12" s="220"/>
+      <c r="F12" s="220"/>
+      <c r="G12" s="220"/>
+      <c r="I12" s="238"/>
       <c r="J12" s="47" t="s">
         <v>332</v>
       </c>
       <c r="K12" s="48">
         <v>0</v>
       </c>
-      <c r="L12" s="232"/>
+      <c r="L12" s="222"/>
       <c r="M12" s="55"/>
-      <c r="N12" s="232"/>
+      <c r="N12" s="222"/>
       <c r="Q12" s="63" t="s">
         <v>268</v>
       </c>
@@ -13632,16 +13725,16 @@
       <c r="G13" s="30" t="s">
         <v>336</v>
       </c>
-      <c r="I13" s="230"/>
+      <c r="I13" s="239"/>
       <c r="J13" s="51" t="s">
         <v>338</v>
       </c>
       <c r="K13" s="51" t="s">
         <v>338</v>
       </c>
-      <c r="L13" s="233"/>
+      <c r="L13" s="223"/>
       <c r="M13" s="55"/>
-      <c r="N13" s="239"/>
+      <c r="N13" s="226"/>
       <c r="Q13" s="63" t="s">
         <v>270</v>
       </c>
@@ -13718,12 +13811,12 @@
       <c r="I14" s="52" t="s">
         <v>339</v>
       </c>
-      <c r="J14" s="218">
+      <c r="J14" s="227">
         <f>SUM(K4:K13)</f>
         <v>23000</v>
       </c>
-      <c r="K14" s="219"/>
-      <c r="L14" s="220"/>
+      <c r="K14" s="228"/>
+      <c r="L14" s="229"/>
       <c r="M14" s="57">
         <f>SUM(M5:M11)</f>
         <v>3982000</v>
@@ -13806,12 +13899,12 @@
       <c r="I15" s="52" t="s">
         <v>340</v>
       </c>
-      <c r="J15" s="218">
+      <c r="J15" s="227">
         <f>J14/C7</f>
         <v>5321.681319084737</v>
       </c>
-      <c r="K15" s="219"/>
-      <c r="L15" s="221"/>
+      <c r="K15" s="228"/>
+      <c r="L15" s="230"/>
       <c r="M15" s="55"/>
       <c r="N15" s="59"/>
       <c r="Q15" s="63" t="s">
@@ -13891,13 +13984,13 @@
       <c r="I16" s="52" t="s">
         <v>341</v>
       </c>
-      <c r="J16" s="222">
+      <c r="J16" s="231">
         <f>J14/C7</f>
         <v>5321.681319084737</v>
       </c>
-      <c r="K16" s="223"/>
-      <c r="L16" s="223"/>
-      <c r="M16" s="224"/>
+      <c r="K16" s="232"/>
+      <c r="L16" s="232"/>
+      <c r="M16" s="233"/>
       <c r="N16" s="60"/>
       <c r="Q16" s="63" t="s">
         <v>276</v>
@@ -15290,6 +15383,13 @@
     <row r="110" ht="26.4" customHeight="1"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="L4:L8"/>
+    <mergeCell ref="L9:L13"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="I2:N2"/>
     <mergeCell ref="Q2:W2"/>
@@ -15297,13 +15397,6 @@
     <mergeCell ref="B12:G12"/>
     <mergeCell ref="N4:N8"/>
     <mergeCell ref="N9:N13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="L4:L8"/>
-    <mergeCell ref="L9:L13"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/article/家庭财务管理手册2025.xlsx
+++ b/article/家庭财务管理手册2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18717\Documents\GitHub\luyao.github.io\article\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5088B2DD-01B0-4D4A-9DDC-AB1681FDAFF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A41564-F75F-443A-946E-6A7DA4F84BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="20" windowWidth="21580" windowHeight="13660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1、年度预算" sheetId="1" r:id="rId1"/>
@@ -4616,6 +4616,39 @@
     <xf numFmtId="0" fontId="13" fillId="17" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4649,38 +4682,59 @@
     <xf numFmtId="0" fontId="14" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="1" fontId="9" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4688,65 +4742,11 @@
     <xf numFmtId="10" fontId="2" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6327,6 +6327,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3611833.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3963871.43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8773,7 +8776,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P19" sqref="P19"/>
+      <selection pane="bottomLeft" activeCell="O8" sqref="O8:O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -8983,8 +8986,14 @@
       <c r="K9" s="137"/>
       <c r="L9" s="138"/>
       <c r="M9" s="141"/>
-      <c r="N9" s="138"/>
-      <c r="O9" s="191"/>
+      <c r="N9" s="138">
+        <f>'3、存量资产-y'!H26+'3、存量资产-k'!H13</f>
+        <v>3963871.43</v>
+      </c>
+      <c r="O9" s="191">
+        <f>(N9-3500000)/500000</f>
+        <v>0.92774286000000028</v>
+      </c>
     </row>
     <row r="10" spans="2:15" ht="24.65" customHeight="1">
       <c r="B10" s="130">
@@ -9173,10 +9182,10 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
+      <selection pane="bottomRight" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -9272,7 +9281,9 @@
       <c r="G3" s="119">
         <v>101284</v>
       </c>
-      <c r="H3" s="120"/>
+      <c r="H3" s="120">
+        <v>91042</v>
+      </c>
       <c r="I3" s="120"/>
       <c r="J3" s="120"/>
       <c r="K3" s="120"/>
@@ -9299,7 +9310,9 @@
       <c r="G4" s="119">
         <v>13.62</v>
       </c>
-      <c r="H4" s="119"/>
+      <c r="H4" s="119">
+        <v>1</v>
+      </c>
       <c r="I4" s="119"/>
       <c r="J4" s="119"/>
       <c r="K4" s="119"/>
@@ -9326,7 +9339,9 @@
       <c r="G5" s="119">
         <v>45995</v>
       </c>
-      <c r="H5" s="120"/>
+      <c r="H5" s="120">
+        <v>25283</v>
+      </c>
       <c r="I5" s="120"/>
       <c r="J5" s="120"/>
       <c r="K5" s="120"/>
@@ -9353,7 +9368,9 @@
       <c r="G6" s="119">
         <v>157196</v>
       </c>
-      <c r="H6" s="119"/>
+      <c r="H6" s="119">
+        <v>53895</v>
+      </c>
       <c r="I6" s="119"/>
       <c r="J6" s="119"/>
       <c r="K6" s="119"/>
@@ -9378,7 +9395,9 @@
         <v>0</v>
       </c>
       <c r="G7" s="119"/>
-      <c r="H7" s="120"/>
+      <c r="H7" s="120">
+        <v>0</v>
+      </c>
       <c r="I7" s="120"/>
       <c r="J7" s="120"/>
       <c r="K7" s="120"/>
@@ -9405,7 +9424,9 @@
       <c r="G8" s="119">
         <v>6861</v>
       </c>
-      <c r="H8" s="119"/>
+      <c r="H8" s="119">
+        <v>1385</v>
+      </c>
       <c r="I8" s="119"/>
       <c r="J8" s="119"/>
       <c r="K8" s="119"/>
@@ -9430,7 +9451,9 @@
         <v>162</v>
       </c>
       <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
+      <c r="H9" s="119">
+        <v>0.93</v>
+      </c>
       <c r="I9" s="119"/>
       <c r="J9" s="119"/>
       <c r="K9" s="119"/>
@@ -9455,7 +9478,9 @@
         <v>10690</v>
       </c>
       <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
+      <c r="H10" s="119">
+        <v>28798</v>
+      </c>
       <c r="I10" s="119"/>
       <c r="J10" s="119"/>
       <c r="K10" s="119"/>
@@ -9482,7 +9507,9 @@
       <c r="G11" s="119">
         <v>500000</v>
       </c>
-      <c r="H11" s="119"/>
+      <c r="H11" s="119">
+        <v>500000</v>
+      </c>
       <c r="I11" s="119"/>
       <c r="J11" s="119"/>
       <c r="K11" s="119"/>
@@ -9509,7 +9536,9 @@
       <c r="G12" s="119">
         <v>500000</v>
       </c>
-      <c r="H12" s="119"/>
+      <c r="H12" s="119">
+        <v>500000</v>
+      </c>
       <c r="I12" s="119"/>
       <c r="J12" s="119"/>
       <c r="K12" s="119"/>
@@ -9538,7 +9567,9 @@
       <c r="G13" s="119">
         <v>13516</v>
       </c>
-      <c r="H13" s="119"/>
+      <c r="H13" s="119">
+        <v>20745</v>
+      </c>
       <c r="I13" s="119"/>
       <c r="J13" s="119"/>
       <c r="K13" s="119"/>
@@ -9559,7 +9590,9 @@
       <c r="G14" s="119">
         <v>350073</v>
       </c>
-      <c r="H14" s="119"/>
+      <c r="H14" s="119">
+        <v>384426</v>
+      </c>
       <c r="I14" s="119"/>
       <c r="J14" s="119"/>
       <c r="K14" s="119"/>
@@ -9578,7 +9611,9 @@
       <c r="G15" s="119">
         <v>16971</v>
       </c>
-      <c r="H15" s="119"/>
+      <c r="H15" s="119">
+        <v>29791</v>
+      </c>
       <c r="I15" s="119"/>
       <c r="J15" s="119"/>
       <c r="K15" s="119"/>
@@ -9597,7 +9632,9 @@
       <c r="G16" s="119">
         <v>3000</v>
       </c>
-      <c r="H16" s="119"/>
+      <c r="H16" s="119">
+        <v>100943</v>
+      </c>
       <c r="I16" s="119"/>
       <c r="J16" s="119"/>
       <c r="K16" s="119"/>
@@ -9633,8 +9670,8 @@
         <v>1695948.62</v>
       </c>
       <c r="H17" s="122">
-        <f>SUM(H2:H8)</f>
-        <v>0</v>
+        <f>SUM(H2:H16)</f>
+        <v>1736309.93</v>
       </c>
       <c r="I17" s="122">
         <f>SUM(I2:I8)</f>
@@ -9674,7 +9711,9 @@
       <c r="G18" s="119">
         <v>134702</v>
       </c>
-      <c r="H18" s="119"/>
+      <c r="H18" s="119">
+        <v>134795</v>
+      </c>
       <c r="I18" s="119"/>
       <c r="J18" s="119"/>
       <c r="K18" s="119"/>
@@ -9701,7 +9740,9 @@
       <c r="G19" s="119">
         <v>110729</v>
       </c>
-      <c r="H19" s="119"/>
+      <c r="H19" s="119">
+        <v>114421</v>
+      </c>
       <c r="I19" s="119"/>
       <c r="J19" s="119"/>
       <c r="K19" s="119"/>
@@ -9728,7 +9769,9 @@
       <c r="G20" s="120">
         <v>11234</v>
       </c>
-      <c r="H20" s="120"/>
+      <c r="H20" s="120">
+        <v>11080</v>
+      </c>
       <c r="I20" s="120"/>
       <c r="J20" s="120"/>
       <c r="K20" s="120"/>
@@ -9765,7 +9808,7 @@
       </c>
       <c r="H21" s="124">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>260296</v>
       </c>
       <c r="I21" s="124">
         <f t="shared" si="0"/>
@@ -9874,47 +9917,47 @@
         <v>47</v>
       </c>
       <c r="B25" s="126">
-        <f>SUM(B17,B21)</f>
+        <f t="shared" ref="B25:L25" si="2">SUM(B17,B21)</f>
         <v>1583309.31</v>
       </c>
       <c r="C25" s="126">
-        <f>SUM(C17,C21)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D25" s="126">
-        <f>SUM(D17,D21)</f>
+        <f t="shared" si="2"/>
         <v>1628031.68</v>
       </c>
       <c r="E25" s="126">
-        <f>SUM(E17,E21)</f>
+        <f t="shared" si="2"/>
         <v>1897480</v>
       </c>
       <c r="F25" s="126">
-        <f>SUM(F17,F21)</f>
+        <f t="shared" si="2"/>
         <v>1911272.83</v>
       </c>
       <c r="G25" s="126">
-        <f>SUM(G17,G21)</f>
+        <f t="shared" si="2"/>
         <v>1952613.62</v>
       </c>
       <c r="H25" s="126">
-        <f>SUM(H17,H21)</f>
+        <f t="shared" si="2"/>
+        <v>1996605.93</v>
+      </c>
+      <c r="I25" s="126">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I25" s="126">
-        <f>SUM(I17,I21)</f>
+      <c r="J25" s="126">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J25" s="126">
-        <f>SUM(J17,J21)</f>
+      <c r="K25" s="126">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K25" s="126">
-        <f>SUM(K17,K21)</f>
-        <v>0</v>
-      </c>
       <c r="L25" s="126">
-        <f>SUM(L17,L21)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M25" s="128"/>
@@ -9924,47 +9967,47 @@
         <v>48</v>
       </c>
       <c r="B26" s="126">
-        <f t="shared" ref="B26:L26" si="2">B25-B24</f>
+        <f t="shared" ref="B26:L26" si="3">B25-B24</f>
         <v>1583309.31</v>
       </c>
       <c r="C26" s="126">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D26" s="126">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1628031.68</v>
       </c>
       <c r="E26" s="126">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1897480</v>
       </c>
       <c r="F26" s="126">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1911272.83</v>
       </c>
       <c r="G26" s="126">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1952613.62</v>
       </c>
       <c r="H26" s="126">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>1996605.93</v>
+      </c>
+      <c r="I26" s="126">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I26" s="126">
-        <f t="shared" si="2"/>
+      <c r="J26" s="126">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J26" s="126">
-        <f t="shared" si="2"/>
+      <c r="K26" s="126">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K26" s="126">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="L26" s="126">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M26" s="128"/>
@@ -9990,7 +10033,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -10061,7 +10104,10 @@
       <c r="G2" s="119">
         <v>1411027.96</v>
       </c>
-      <c r="H2" s="119"/>
+      <c r="H2" s="119">
+        <f>232107.95*7.2</f>
+        <v>1671177.2400000002</v>
+      </c>
       <c r="I2" s="119"/>
       <c r="J2" s="119"/>
       <c r="K2" s="119"/>
@@ -10091,7 +10137,10 @@
         <f>111420.37+1605.8+174.82+4000</f>
         <v>117200.99</v>
       </c>
-      <c r="H3" s="120"/>
+      <c r="H3" s="120">
+        <f>152832.78+459.81+1301.78</f>
+        <v>154594.37</v>
+      </c>
       <c r="I3" s="120"/>
       <c r="J3" s="120"/>
       <c r="K3" s="120"/>
@@ -10119,7 +10168,9 @@
       <c r="G4" s="119">
         <v>4391.9799999999996</v>
       </c>
-      <c r="H4" s="119"/>
+      <c r="H4" s="119">
+        <v>5709.15</v>
+      </c>
       <c r="I4" s="119"/>
       <c r="J4" s="119"/>
       <c r="K4" s="119"/>
@@ -10155,7 +10206,7 @@
       </c>
       <c r="H5" s="122">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1831480.7600000002</v>
       </c>
       <c r="I5" s="122">
         <f t="shared" si="0"/>
@@ -10198,7 +10249,10 @@
         <f>32930.16+57813.86+23212.48</f>
         <v>113956.5</v>
       </c>
-      <c r="H6" s="119"/>
+      <c r="H6" s="119">
+        <f>32930.16+57813.86+32398.72</f>
+        <v>123142.74</v>
+      </c>
       <c r="I6" s="119"/>
       <c r="J6" s="119"/>
       <c r="K6" s="119"/>
@@ -10226,7 +10280,10 @@
         <f>F7</f>
         <v>12642</v>
       </c>
-      <c r="H7" s="119"/>
+      <c r="H7" s="119">
+        <f>G7</f>
+        <v>12642</v>
+      </c>
       <c r="I7" s="119"/>
       <c r="J7" s="119"/>
       <c r="K7" s="119"/>
@@ -10262,7 +10319,7 @@
       </c>
       <c r="H8" s="124">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>135784.74</v>
       </c>
       <c r="I8" s="124">
         <f t="shared" si="3"/>
@@ -10394,7 +10451,7 @@
       </c>
       <c r="H12" s="126">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1967265.5000000002</v>
       </c>
       <c r="I12" s="126">
         <f t="shared" si="7"/>
@@ -10443,7 +10500,7 @@
       </c>
       <c r="H13" s="126">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1967265.5000000002</v>
       </c>
       <c r="I13" s="126">
         <f t="shared" si="8"/>
@@ -10511,10 +10568,10 @@
       <c r="B2" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="218" t="s">
+      <c r="C2" s="207" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="219"/>
+      <c r="D2" s="208"/>
       <c r="E2" s="100" t="s">
         <v>51</v>
       </c>
@@ -10547,10 +10604,10 @@
       </c>
     </row>
     <row r="3" spans="2:14" ht="23.5" customHeight="1">
-      <c r="B3" s="198" t="s">
+      <c r="B3" s="209" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="201" t="s">
+      <c r="C3" s="212" t="s">
         <v>62</v>
       </c>
       <c r="D3" s="101" t="s">
@@ -10578,18 +10635,18 @@
       <c r="L3" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="M3" s="209">
+      <c r="M3" s="198">
         <f>SUM(J3:J10)</f>
         <v>58430.5</v>
       </c>
-      <c r="N3" s="214">
+      <c r="N3" s="203">
         <f>SUM(M3:M25)</f>
         <v>104966.35</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="23" customHeight="1">
-      <c r="B4" s="199"/>
-      <c r="C4" s="202"/>
+      <c r="B4" s="210"/>
+      <c r="C4" s="213"/>
       <c r="D4" s="102" t="s">
         <v>70</v>
       </c>
@@ -10613,12 +10670,12 @@
       </c>
       <c r="K4" s="105"/>
       <c r="L4" s="105"/>
-      <c r="M4" s="210"/>
-      <c r="N4" s="215"/>
+      <c r="M4" s="199"/>
+      <c r="N4" s="204"/>
     </row>
     <row r="5" spans="2:14" ht="23" customHeight="1">
-      <c r="B5" s="199"/>
-      <c r="C5" s="203" t="s">
+      <c r="B5" s="210"/>
+      <c r="C5" s="214" t="s">
         <v>74</v>
       </c>
       <c r="D5" s="103" t="s">
@@ -10646,12 +10703,12 @@
       <c r="L5" s="103" t="s">
         <v>80</v>
       </c>
-      <c r="M5" s="211"/>
-      <c r="N5" s="216"/>
+      <c r="M5" s="200"/>
+      <c r="N5" s="205"/>
     </row>
     <row r="6" spans="2:14" ht="23" customHeight="1">
-      <c r="B6" s="199"/>
-      <c r="C6" s="202"/>
+      <c r="B6" s="210"/>
+      <c r="C6" s="213"/>
       <c r="D6" s="102" t="s">
         <v>81</v>
       </c>
@@ -10675,11 +10732,11 @@
       </c>
       <c r="K6" s="105"/>
       <c r="L6" s="105"/>
-      <c r="M6" s="210"/>
-      <c r="N6" s="215"/>
+      <c r="M6" s="199"/>
+      <c r="N6" s="204"/>
     </row>
     <row r="7" spans="2:14" ht="23" customHeight="1">
-      <c r="B7" s="199"/>
+      <c r="B7" s="210"/>
       <c r="C7" s="103" t="s">
         <v>87</v>
       </c>
@@ -10706,12 +10763,12 @@
       </c>
       <c r="K7" s="110"/>
       <c r="L7" s="110"/>
-      <c r="M7" s="211"/>
-      <c r="N7" s="216"/>
+      <c r="M7" s="200"/>
+      <c r="N7" s="205"/>
     </row>
     <row r="8" spans="2:14" ht="23" customHeight="1">
-      <c r="B8" s="199"/>
-      <c r="C8" s="204" t="s">
+      <c r="B8" s="210"/>
+      <c r="C8" s="215" t="s">
         <v>92</v>
       </c>
       <c r="D8" s="102" t="s">
@@ -10737,12 +10794,12 @@
       </c>
       <c r="K8" s="105"/>
       <c r="L8" s="105"/>
-      <c r="M8" s="210"/>
-      <c r="N8" s="215"/>
+      <c r="M8" s="199"/>
+      <c r="N8" s="204"/>
     </row>
     <row r="9" spans="2:14" ht="23" customHeight="1">
-      <c r="B9" s="199"/>
-      <c r="C9" s="205"/>
+      <c r="B9" s="210"/>
+      <c r="C9" s="216"/>
       <c r="D9" s="103" t="s">
         <v>97</v>
       </c>
@@ -10766,11 +10823,11 @@
       </c>
       <c r="K9" s="110"/>
       <c r="L9" s="110"/>
-      <c r="M9" s="211"/>
-      <c r="N9" s="216"/>
+      <c r="M9" s="200"/>
+      <c r="N9" s="205"/>
     </row>
     <row r="10" spans="2:14" ht="23.5" customHeight="1">
-      <c r="B10" s="200"/>
+      <c r="B10" s="211"/>
       <c r="C10" s="104" t="s">
         <v>101</v>
       </c>
@@ -10797,14 +10854,14 @@
       </c>
       <c r="K10" s="112"/>
       <c r="L10" s="112"/>
-      <c r="M10" s="212"/>
-      <c r="N10" s="215"/>
+      <c r="M10" s="201"/>
+      <c r="N10" s="204"/>
     </row>
     <row r="11" spans="2:14" ht="23.5" customHeight="1">
-      <c r="B11" s="198" t="s">
+      <c r="B11" s="209" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="201" t="s">
+      <c r="C11" s="212" t="s">
         <v>62</v>
       </c>
       <c r="D11" s="101" t="s">
@@ -10830,15 +10887,15 @@
       </c>
       <c r="K11" s="108"/>
       <c r="L11" s="108"/>
-      <c r="M11" s="209">
+      <c r="M11" s="198">
         <f>SUM(J11:J18)</f>
         <v>9113.5</v>
       </c>
-      <c r="N11" s="216"/>
+      <c r="N11" s="205"/>
     </row>
     <row r="12" spans="2:14" ht="23" customHeight="1">
-      <c r="B12" s="199"/>
-      <c r="C12" s="206"/>
+      <c r="B12" s="210"/>
+      <c r="C12" s="217"/>
       <c r="D12" s="102" t="s">
         <v>70</v>
       </c>
@@ -10862,12 +10919,12 @@
       </c>
       <c r="K12" s="105"/>
       <c r="L12" s="105"/>
-      <c r="M12" s="210"/>
-      <c r="N12" s="215"/>
+      <c r="M12" s="199"/>
+      <c r="N12" s="204"/>
     </row>
     <row r="13" spans="2:14" ht="23" customHeight="1">
-      <c r="B13" s="199"/>
-      <c r="C13" s="207"/>
+      <c r="B13" s="210"/>
+      <c r="C13" s="218"/>
       <c r="D13" s="103" t="s">
         <v>70</v>
       </c>
@@ -10893,12 +10950,12 @@
       <c r="L13" s="103" t="s">
         <v>115</v>
       </c>
-      <c r="M13" s="211"/>
-      <c r="N13" s="216"/>
+      <c r="M13" s="200"/>
+      <c r="N13" s="205"/>
     </row>
     <row r="14" spans="2:14" ht="23" customHeight="1">
-      <c r="B14" s="199"/>
-      <c r="C14" s="204" t="s">
+      <c r="B14" s="210"/>
+      <c r="C14" s="215" t="s">
         <v>74</v>
       </c>
       <c r="D14" s="102" t="s">
@@ -10924,12 +10981,12 @@
       </c>
       <c r="K14" s="105"/>
       <c r="L14" s="105"/>
-      <c r="M14" s="210"/>
-      <c r="N14" s="215"/>
+      <c r="M14" s="199"/>
+      <c r="N14" s="204"/>
     </row>
     <row r="15" spans="2:14" ht="23" customHeight="1">
-      <c r="B15" s="199"/>
-      <c r="C15" s="205"/>
+      <c r="B15" s="210"/>
+      <c r="C15" s="216"/>
       <c r="D15" s="103" t="s">
         <v>75</v>
       </c>
@@ -10953,11 +11010,11 @@
       </c>
       <c r="K15" s="110"/>
       <c r="L15" s="110"/>
-      <c r="M15" s="211"/>
-      <c r="N15" s="216"/>
+      <c r="M15" s="200"/>
+      <c r="N15" s="205"/>
     </row>
     <row r="16" spans="2:14" ht="23" customHeight="1">
-      <c r="B16" s="199"/>
+      <c r="B16" s="210"/>
       <c r="C16" s="102" t="s">
         <v>87</v>
       </c>
@@ -10984,12 +11041,12 @@
       </c>
       <c r="K16" s="105"/>
       <c r="L16" s="105"/>
-      <c r="M16" s="210"/>
-      <c r="N16" s="215"/>
+      <c r="M16" s="199"/>
+      <c r="N16" s="204"/>
     </row>
     <row r="17" spans="2:14" ht="23" customHeight="1">
-      <c r="B17" s="199"/>
-      <c r="C17" s="203" t="s">
+      <c r="B17" s="210"/>
+      <c r="C17" s="214" t="s">
         <v>92</v>
       </c>
       <c r="D17" s="103" t="s">
@@ -11015,12 +11072,12 @@
       </c>
       <c r="K17" s="110"/>
       <c r="L17" s="110"/>
-      <c r="M17" s="211"/>
-      <c r="N17" s="216"/>
+      <c r="M17" s="200"/>
+      <c r="N17" s="205"/>
     </row>
     <row r="18" spans="2:14" ht="23.5" customHeight="1">
-      <c r="B18" s="200"/>
-      <c r="C18" s="206"/>
+      <c r="B18" s="211"/>
+      <c r="C18" s="217"/>
       <c r="D18" s="104" t="s">
         <v>93</v>
       </c>
@@ -11044,14 +11101,14 @@
       </c>
       <c r="K18" s="112"/>
       <c r="L18" s="112"/>
-      <c r="M18" s="212"/>
-      <c r="N18" s="215"/>
+      <c r="M18" s="201"/>
+      <c r="N18" s="204"/>
     </row>
     <row r="19" spans="2:14" ht="23.5" customHeight="1">
-      <c r="B19" s="198" t="s">
+      <c r="B19" s="209" t="s">
         <v>125</v>
       </c>
-      <c r="C19" s="201" t="s">
+      <c r="C19" s="212" t="s">
         <v>62</v>
       </c>
       <c r="D19" s="101" t="s">
@@ -11077,15 +11134,15 @@
       </c>
       <c r="K19" s="108"/>
       <c r="L19" s="108"/>
-      <c r="M19" s="209">
+      <c r="M19" s="198">
         <f>SUM(J19:J25)</f>
         <v>37422.35</v>
       </c>
-      <c r="N19" s="216"/>
+      <c r="N19" s="205"/>
     </row>
     <row r="20" spans="2:14" ht="23" customHeight="1">
-      <c r="B20" s="199"/>
-      <c r="C20" s="202"/>
+      <c r="B20" s="210"/>
+      <c r="C20" s="213"/>
       <c r="D20" s="102" t="s">
         <v>70</v>
       </c>
@@ -11109,12 +11166,12 @@
       </c>
       <c r="K20" s="105"/>
       <c r="L20" s="105"/>
-      <c r="M20" s="210"/>
-      <c r="N20" s="215"/>
+      <c r="M20" s="199"/>
+      <c r="N20" s="204"/>
     </row>
     <row r="21" spans="2:14" ht="23" customHeight="1">
-      <c r="B21" s="199"/>
-      <c r="C21" s="203" t="s">
+      <c r="B21" s="210"/>
+      <c r="C21" s="214" t="s">
         <v>74</v>
       </c>
       <c r="D21" s="103" t="s">
@@ -11140,12 +11197,12 @@
       </c>
       <c r="K21" s="110"/>
       <c r="L21" s="110"/>
-      <c r="M21" s="211"/>
-      <c r="N21" s="216"/>
+      <c r="M21" s="200"/>
+      <c r="N21" s="205"/>
     </row>
     <row r="22" spans="2:14" ht="23" customHeight="1">
-      <c r="B22" s="199"/>
-      <c r="C22" s="208"/>
+      <c r="B22" s="210"/>
+      <c r="C22" s="219"/>
       <c r="D22" s="102" t="s">
         <v>132</v>
       </c>
@@ -11169,12 +11226,12 @@
       </c>
       <c r="K22" s="105"/>
       <c r="L22" s="105"/>
-      <c r="M22" s="210"/>
-      <c r="N22" s="215"/>
+      <c r="M22" s="199"/>
+      <c r="N22" s="204"/>
     </row>
     <row r="23" spans="2:14" ht="23" customHeight="1">
-      <c r="B23" s="199"/>
-      <c r="C23" s="203" t="s">
+      <c r="B23" s="210"/>
+      <c r="C23" s="214" t="s">
         <v>92</v>
       </c>
       <c r="D23" s="103" t="s">
@@ -11200,12 +11257,12 @@
       </c>
       <c r="K23" s="110"/>
       <c r="L23" s="110"/>
-      <c r="M23" s="211"/>
-      <c r="N23" s="216"/>
+      <c r="M23" s="200"/>
+      <c r="N23" s="205"/>
     </row>
     <row r="24" spans="2:14" ht="23" customHeight="1">
-      <c r="B24" s="199"/>
-      <c r="C24" s="202"/>
+      <c r="B24" s="210"/>
+      <c r="C24" s="213"/>
       <c r="D24" s="102" t="s">
         <v>97</v>
       </c>
@@ -11229,11 +11286,11 @@
       </c>
       <c r="K24" s="105"/>
       <c r="L24" s="105"/>
-      <c r="M24" s="210"/>
-      <c r="N24" s="215"/>
+      <c r="M24" s="199"/>
+      <c r="N24" s="204"/>
     </row>
     <row r="25" spans="2:14" ht="23.5" customHeight="1">
-      <c r="B25" s="200"/>
+      <c r="B25" s="211"/>
       <c r="C25" s="106" t="s">
         <v>101</v>
       </c>
@@ -11262,16 +11319,11 @@
       <c r="L25" s="106" t="s">
         <v>143</v>
       </c>
-      <c r="M25" s="213"/>
-      <c r="N25" s="217"/>
+      <c r="M25" s="202"/>
+      <c r="N25" s="206"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="M3:M10"/>
-    <mergeCell ref="M11:M18"/>
-    <mergeCell ref="M19:M25"/>
-    <mergeCell ref="N3:N25"/>
-    <mergeCell ref="C2:D2"/>
     <mergeCell ref="B3:B10"/>
     <mergeCell ref="B11:B18"/>
     <mergeCell ref="B19:B25"/>
@@ -11284,6 +11336,11 @@
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C23:C24"/>
+    <mergeCell ref="M3:M10"/>
+    <mergeCell ref="M11:M18"/>
+    <mergeCell ref="M19:M25"/>
+    <mergeCell ref="N3:N25"/>
+    <mergeCell ref="C2:D2"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -12958,39 +13015,39 @@
   <sheetData>
     <row r="1" spans="2:30" ht="31" customHeight="1"/>
     <row r="2" spans="2:30" ht="25" customHeight="1">
-      <c r="B2" s="220" t="s">
+      <c r="B2" s="238" t="s">
         <v>295</v>
       </c>
-      <c r="C2" s="220"/>
+      <c r="C2" s="238"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="I2" s="220" t="s">
+      <c r="I2" s="238" t="s">
         <v>296</v>
       </c>
-      <c r="J2" s="220"/>
-      <c r="K2" s="220"/>
-      <c r="L2" s="220"/>
-      <c r="M2" s="220"/>
-      <c r="N2" s="220"/>
-      <c r="Q2" s="220" t="s">
+      <c r="J2" s="238"/>
+      <c r="K2" s="238"/>
+      <c r="L2" s="238"/>
+      <c r="M2" s="238"/>
+      <c r="N2" s="238"/>
+      <c r="Q2" s="238" t="s">
         <v>297</v>
       </c>
-      <c r="R2" s="220"/>
-      <c r="S2" s="220"/>
-      <c r="T2" s="220"/>
-      <c r="U2" s="220"/>
-      <c r="V2" s="220"/>
-      <c r="W2" s="220"/>
-      <c r="Y2" s="220" t="s">
+      <c r="R2" s="238"/>
+      <c r="S2" s="238"/>
+      <c r="T2" s="238"/>
+      <c r="U2" s="238"/>
+      <c r="V2" s="238"/>
+      <c r="W2" s="238"/>
+      <c r="Y2" s="238" t="s">
         <v>298</v>
       </c>
-      <c r="Z2" s="220"/>
-      <c r="AA2" s="220"/>
-      <c r="AB2" s="220"/>
-      <c r="AC2" s="220"/>
-      <c r="AD2" s="220"/>
+      <c r="Z2" s="238"/>
+      <c r="AA2" s="238"/>
+      <c r="AB2" s="238"/>
+      <c r="AC2" s="238"/>
+      <c r="AD2" s="238"/>
     </row>
     <row r="3" spans="2:30" ht="20" customHeight="1">
       <c r="B3" s="3" t="s">
@@ -13072,7 +13129,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="I4" s="234" t="s">
+      <c r="I4" s="227" t="s">
         <v>317</v>
       </c>
       <c r="J4" s="47" t="s">
@@ -13081,14 +13138,14 @@
       <c r="K4" s="48">
         <v>13000</v>
       </c>
-      <c r="L4" s="240">
+      <c r="L4" s="233">
         <f>SUM(K4:K8)</f>
         <v>13000</v>
       </c>
       <c r="M4" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="N4" s="221">
+      <c r="N4" s="239">
         <f>L4/J14</f>
         <v>0.56521739130434778</v>
       </c>
@@ -13152,18 +13209,18 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="I5" s="235"/>
+      <c r="I5" s="228"/>
       <c r="J5" s="47" t="s">
         <v>320</v>
       </c>
       <c r="K5" s="48">
         <v>0</v>
       </c>
-      <c r="L5" s="222"/>
+      <c r="L5" s="234"/>
       <c r="M5" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="N5" s="222"/>
+      <c r="N5" s="234"/>
       <c r="Q5" s="63" t="s">
         <v>254</v>
       </c>
@@ -13227,16 +13284,16 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-      <c r="I6" s="236"/>
+      <c r="I6" s="229"/>
       <c r="J6" s="47" t="s">
         <v>322</v>
       </c>
       <c r="K6" s="49"/>
-      <c r="L6" s="223"/>
+      <c r="L6" s="235"/>
       <c r="M6" s="54">
         <v>582000</v>
       </c>
-      <c r="N6" s="223"/>
+      <c r="N6" s="235"/>
       <c r="Q6" s="63" t="s">
         <v>256</v>
       </c>
@@ -13301,16 +13358,16 @@
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
-      <c r="I7" s="237"/>
+      <c r="I7" s="230"/>
       <c r="J7" s="47" t="s">
         <v>324</v>
       </c>
       <c r="K7" s="48">
         <v>0</v>
       </c>
-      <c r="L7" s="224"/>
+      <c r="L7" s="236"/>
       <c r="M7" s="55"/>
-      <c r="N7" s="224"/>
+      <c r="N7" s="236"/>
       <c r="Q7" s="63" t="s">
         <v>258</v>
       </c>
@@ -13374,14 +13431,14 @@
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="I8" s="237"/>
+      <c r="I8" s="230"/>
       <c r="J8" s="47" t="s">
         <v>326</v>
       </c>
       <c r="K8" s="49"/>
-      <c r="L8" s="224"/>
+      <c r="L8" s="236"/>
       <c r="M8" s="55"/>
-      <c r="N8" s="224"/>
+      <c r="N8" s="236"/>
       <c r="Q8" s="63" t="s">
         <v>260</v>
       </c>
@@ -13435,21 +13492,21 @@
       </c>
     </row>
     <row r="9" spans="2:30" ht="20" customHeight="1">
-      <c r="I9" s="234" t="s">
+      <c r="I9" s="227" t="s">
         <v>327</v>
       </c>
       <c r="J9" s="47" t="s">
         <v>328</v>
       </c>
       <c r="K9" s="49"/>
-      <c r="L9" s="241">
+      <c r="L9" s="237">
         <f>SUM(K9:K13)</f>
         <v>10000</v>
       </c>
       <c r="M9" s="54">
         <v>1000000</v>
       </c>
-      <c r="N9" s="225">
+      <c r="N9" s="240">
         <f>L9/J14</f>
         <v>0.43478260869565216</v>
       </c>
@@ -13506,18 +13563,18 @@
       </c>
     </row>
     <row r="10" spans="2:30" ht="20" customHeight="1">
-      <c r="I10" s="238"/>
+      <c r="I10" s="231"/>
       <c r="J10" s="47" t="s">
         <v>329</v>
       </c>
       <c r="K10" s="48">
         <v>0</v>
       </c>
-      <c r="L10" s="222"/>
+      <c r="L10" s="234"/>
       <c r="M10" s="54">
         <v>400000</v>
       </c>
-      <c r="N10" s="222"/>
+      <c r="N10" s="234"/>
       <c r="Q10" s="63" t="s">
         <v>264</v>
       </c>
@@ -13571,18 +13628,18 @@
       </c>
     </row>
     <row r="11" spans="2:30" ht="20" customHeight="1">
-      <c r="I11" s="238"/>
+      <c r="I11" s="231"/>
       <c r="J11" s="47" t="s">
         <v>330</v>
       </c>
       <c r="K11" s="50">
         <v>10000</v>
       </c>
-      <c r="L11" s="222"/>
+      <c r="L11" s="234"/>
       <c r="M11" s="56">
         <v>2000000</v>
       </c>
-      <c r="N11" s="222"/>
+      <c r="N11" s="234"/>
       <c r="Q11" s="63" t="s">
         <v>266</v>
       </c>
@@ -13636,24 +13693,24 @@
       </c>
     </row>
     <row r="12" spans="2:30" ht="20" customHeight="1">
-      <c r="B12" s="220" t="s">
+      <c r="B12" s="238" t="s">
         <v>331</v>
       </c>
-      <c r="C12" s="220"/>
-      <c r="D12" s="220"/>
-      <c r="E12" s="220"/>
-      <c r="F12" s="220"/>
-      <c r="G12" s="220"/>
-      <c r="I12" s="238"/>
+      <c r="C12" s="238"/>
+      <c r="D12" s="238"/>
+      <c r="E12" s="238"/>
+      <c r="F12" s="238"/>
+      <c r="G12" s="238"/>
+      <c r="I12" s="231"/>
       <c r="J12" s="47" t="s">
         <v>332</v>
       </c>
       <c r="K12" s="48">
         <v>0</v>
       </c>
-      <c r="L12" s="222"/>
+      <c r="L12" s="234"/>
       <c r="M12" s="55"/>
-      <c r="N12" s="222"/>
+      <c r="N12" s="234"/>
       <c r="Q12" s="63" t="s">
         <v>268</v>
       </c>
@@ -13725,16 +13782,16 @@
       <c r="G13" s="30" t="s">
         <v>336</v>
       </c>
-      <c r="I13" s="239"/>
+      <c r="I13" s="232"/>
       <c r="J13" s="51" t="s">
         <v>338</v>
       </c>
       <c r="K13" s="51" t="s">
         <v>338</v>
       </c>
-      <c r="L13" s="223"/>
+      <c r="L13" s="235"/>
       <c r="M13" s="55"/>
-      <c r="N13" s="226"/>
+      <c r="N13" s="241"/>
       <c r="Q13" s="63" t="s">
         <v>270</v>
       </c>
@@ -13811,12 +13868,12 @@
       <c r="I14" s="52" t="s">
         <v>339</v>
       </c>
-      <c r="J14" s="227">
+      <c r="J14" s="220">
         <f>SUM(K4:K13)</f>
         <v>23000</v>
       </c>
-      <c r="K14" s="228"/>
-      <c r="L14" s="229"/>
+      <c r="K14" s="221"/>
+      <c r="L14" s="222"/>
       <c r="M14" s="57">
         <f>SUM(M5:M11)</f>
         <v>3982000</v>
@@ -13899,12 +13956,12 @@
       <c r="I15" s="52" t="s">
         <v>340</v>
       </c>
-      <c r="J15" s="227">
+      <c r="J15" s="220">
         <f>J14/C7</f>
         <v>5321.681319084737</v>
       </c>
-      <c r="K15" s="228"/>
-      <c r="L15" s="230"/>
+      <c r="K15" s="221"/>
+      <c r="L15" s="223"/>
       <c r="M15" s="55"/>
       <c r="N15" s="59"/>
       <c r="Q15" s="63" t="s">
@@ -13984,13 +14041,13 @@
       <c r="I16" s="52" t="s">
         <v>341</v>
       </c>
-      <c r="J16" s="231">
+      <c r="J16" s="224">
         <f>J14/C7</f>
         <v>5321.681319084737</v>
       </c>
-      <c r="K16" s="232"/>
-      <c r="L16" s="232"/>
-      <c r="M16" s="233"/>
+      <c r="K16" s="225"/>
+      <c r="L16" s="225"/>
+      <c r="M16" s="226"/>
       <c r="N16" s="60"/>
       <c r="Q16" s="63" t="s">
         <v>276</v>
@@ -15383,6 +15440,13 @@
     <row r="110" ht="26.4" customHeight="1"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="Q2:W2"/>
+    <mergeCell ref="Y2:AD2"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="N4:N8"/>
+    <mergeCell ref="N9:N13"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J16:M16"/>
@@ -15390,13 +15454,6 @@
     <mergeCell ref="I9:I13"/>
     <mergeCell ref="L4:L8"/>
     <mergeCell ref="L9:L13"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="Q2:W2"/>
-    <mergeCell ref="Y2:AD2"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="N4:N8"/>
-    <mergeCell ref="N9:N13"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/article/家庭财务管理手册2025.xlsx
+++ b/article/家庭财务管理手册2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18717\Documents\GitHub\luyao.github.io\article\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A41564-F75F-443A-946E-6A7DA4F84BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC85AFF-E319-4E1C-BF2E-811E9DBC3895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="20" windowWidth="21580" windowHeight="13660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6329,7 +6329,7 @@
                   <c:v>3611833.05</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3963871.43</c:v>
+                  <c:v>3964948.43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8776,7 +8776,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O8" sqref="O8:O9"/>
+      <selection pane="bottomLeft" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -8988,11 +8988,11 @@
       <c r="M9" s="141"/>
       <c r="N9" s="138">
         <f>'3、存量资产-y'!H26+'3、存量资产-k'!H13</f>
-        <v>3963871.43</v>
+        <v>3964948.43</v>
       </c>
       <c r="O9" s="191">
         <f>(N9-3500000)/500000</f>
-        <v>0.92774286000000028</v>
+        <v>0.92989686000000038</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="24.65" customHeight="1">
@@ -9182,10 +9182,10 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H25" sqref="H25"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -9254,7 +9254,9 @@
       <c r="G2" s="119">
         <v>1039</v>
       </c>
-      <c r="H2" s="119"/>
+      <c r="H2" s="119">
+        <v>1077</v>
+      </c>
       <c r="I2" s="119"/>
       <c r="J2" s="119"/>
       <c r="K2" s="119"/>
@@ -9671,7 +9673,7 @@
       </c>
       <c r="H17" s="122">
         <f>SUM(H2:H16)</f>
-        <v>1736309.93</v>
+        <v>1737386.93</v>
       </c>
       <c r="I17" s="122">
         <f>SUM(I2:I8)</f>
@@ -9942,7 +9944,7 @@
       </c>
       <c r="H25" s="126">
         <f t="shared" si="2"/>
-        <v>1996605.93</v>
+        <v>1997682.93</v>
       </c>
       <c r="I25" s="126">
         <f t="shared" si="2"/>
@@ -9992,7 +9994,7 @@
       </c>
       <c r="H26" s="126">
         <f t="shared" si="3"/>
-        <v>1996605.93</v>
+        <v>1997682.93</v>
       </c>
       <c r="I26" s="126">
         <f t="shared" si="3"/>

--- a/article/家庭财务管理手册2025.xlsx
+++ b/article/家庭财务管理手册2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18717\Documents\GitHub\luyao.github.io\article\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC85AFF-E319-4E1C-BF2E-811E9DBC3895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D98435-635F-421A-8223-22EA075C6E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="20" windowWidth="21580" windowHeight="13660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1、年度预算" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="6、养老现金流来源测算" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -4021,7 +4022,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="242">
+  <cellXfs count="244">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4616,6 +4617,39 @@
     <xf numFmtId="0" fontId="13" fillId="17" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4649,38 +4683,26 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4724,28 +4746,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="16" fillId="8" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6330,6 +6337,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>3964948.43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5055913.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8772,11 +8782,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:O15"/>
+  <dimension ref="B1:P15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N9" sqref="N9"/>
+      <selection pane="bottomLeft" activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -8791,8 +8801,8 @@
     <col min="16" max="16384" width="16.36328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="20.25" customHeight="1"/>
-    <row r="2" spans="2:15" ht="25" customHeight="1">
+    <row r="1" spans="2:16" ht="20.25" customHeight="1"/>
+    <row r="2" spans="2:16" ht="25" customHeight="1">
       <c r="B2" s="129">
         <v>2023</v>
       </c>
@@ -8836,7 +8846,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="24.65" customHeight="1">
+    <row r="3" spans="2:16" ht="24.65" customHeight="1">
       <c r="B3" s="130">
         <v>44562</v>
       </c>
@@ -8854,7 +8864,7 @@
       <c r="N3" s="138"/>
       <c r="O3" s="191"/>
     </row>
-    <row r="4" spans="2:15" ht="24.65" customHeight="1">
+    <row r="4" spans="2:16" ht="24.65" customHeight="1">
       <c r="B4" s="130">
         <v>44593</v>
       </c>
@@ -8878,7 +8888,7 @@
         <v>0.23620164646464636</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="24.65" customHeight="1">
+    <row r="5" spans="2:16" ht="24.65" customHeight="1">
       <c r="B5" s="130">
         <v>44652</v>
       </c>
@@ -8902,7 +8912,7 @@
         <v>0.20323244444444455</v>
       </c>
     </row>
-    <row r="6" spans="2:15" ht="24.65" customHeight="1">
+    <row r="6" spans="2:16" ht="24.65" customHeight="1">
       <c r="B6" s="130">
         <v>44682</v>
       </c>
@@ -8926,7 +8936,7 @@
         <v>0.69946182424242453</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="24.65" customHeight="1">
+    <row r="7" spans="2:16" ht="24.65" customHeight="1">
       <c r="B7" s="130">
         <v>44713</v>
       </c>
@@ -8947,7 +8957,7 @@
       </c>
       <c r="O7" s="191"/>
     </row>
-    <row r="8" spans="2:15" ht="24.65" customHeight="1">
+    <row r="8" spans="2:16" ht="24.65" customHeight="1">
       <c r="B8" s="130">
         <v>44743</v>
       </c>
@@ -8971,7 +8981,7 @@
         <v>0.22366609999999962</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="24.65" customHeight="1">
+    <row r="9" spans="2:16" ht="24.65" customHeight="1">
       <c r="B9" s="130">
         <v>44774</v>
       </c>
@@ -8995,7 +9005,7 @@
         <v>0.92989686000000038</v>
       </c>
     </row>
-    <row r="10" spans="2:15" ht="24.65" customHeight="1">
+    <row r="10" spans="2:16" ht="24.65" customHeight="1">
       <c r="B10" s="130">
         <v>44805</v>
       </c>
@@ -9010,10 +9020,17 @@
       <c r="K10" s="137"/>
       <c r="L10" s="138"/>
       <c r="M10" s="141"/>
-      <c r="N10" s="138"/>
-      <c r="O10" s="191"/>
-    </row>
-    <row r="11" spans="2:15" ht="24.65" customHeight="1">
+      <c r="N10" s="138">
+        <f>'3、存量资产-y'!I26+'3、存量资产-k'!I13</f>
+        <v>5055913.8</v>
+      </c>
+      <c r="O10" s="191">
+        <f>(N10-5000000)/500000</f>
+        <v>0.11182759999999962</v>
+      </c>
+      <c r="P10" s="243"/>
+    </row>
+    <row r="11" spans="2:16" ht="24.65" customHeight="1">
       <c r="B11" s="130">
         <v>44835</v>
       </c>
@@ -9031,7 +9048,7 @@
       <c r="N11" s="138"/>
       <c r="O11" s="191"/>
     </row>
-    <row r="12" spans="2:15" ht="24.65" customHeight="1">
+    <row r="12" spans="2:16" ht="24.65" customHeight="1">
       <c r="B12" s="130">
         <v>44866</v>
       </c>
@@ -9049,7 +9066,7 @@
       <c r="N12" s="138"/>
       <c r="O12" s="191"/>
     </row>
-    <row r="13" spans="2:15" ht="24.65" customHeight="1">
+    <row r="13" spans="2:16" ht="24.65" customHeight="1">
       <c r="B13" s="130">
         <v>44896</v>
       </c>
@@ -9067,7 +9084,7 @@
       <c r="N13" s="138"/>
       <c r="O13" s="191"/>
     </row>
-    <row r="14" spans="2:15" ht="25" customHeight="1">
+    <row r="14" spans="2:16" ht="25" customHeight="1">
       <c r="B14" s="132" t="s">
         <v>41</v>
       </c>
@@ -9118,7 +9135,7 @@
       <c r="N14" s="140"/>
       <c r="O14" s="191"/>
     </row>
-    <row r="15" spans="2:15" ht="25" customHeight="1">
+    <row r="15" spans="2:16" ht="25" customHeight="1">
       <c r="B15" s="134" t="s">
         <v>42</v>
       </c>
@@ -9181,11 +9198,11 @@
   </sheetPr>
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -9257,7 +9274,9 @@
       <c r="H2" s="119">
         <v>1077</v>
       </c>
-      <c r="I2" s="119"/>
+      <c r="I2" s="119">
+        <v>12989.9</v>
+      </c>
       <c r="J2" s="119"/>
       <c r="K2" s="119"/>
       <c r="L2" s="119"/>
@@ -9286,7 +9305,9 @@
       <c r="H3" s="120">
         <v>91042</v>
       </c>
-      <c r="I3" s="120"/>
+      <c r="I3" s="120">
+        <v>96211</v>
+      </c>
       <c r="J3" s="120"/>
       <c r="K3" s="120"/>
       <c r="L3" s="120"/>
@@ -9315,7 +9336,9 @@
       <c r="H4" s="119">
         <v>1</v>
       </c>
-      <c r="I4" s="119"/>
+      <c r="I4" s="119">
+        <v>607</v>
+      </c>
       <c r="J4" s="119"/>
       <c r="K4" s="119"/>
       <c r="L4" s="119"/>
@@ -9344,7 +9367,9 @@
       <c r="H5" s="120">
         <v>25283</v>
       </c>
-      <c r="I5" s="120"/>
+      <c r="I5" s="120">
+        <v>28191</v>
+      </c>
       <c r="J5" s="120"/>
       <c r="K5" s="120"/>
       <c r="L5" s="120"/>
@@ -9373,7 +9398,9 @@
       <c r="H6" s="119">
         <v>53895</v>
       </c>
-      <c r="I6" s="119"/>
+      <c r="I6" s="119">
+        <v>52746</v>
+      </c>
       <c r="J6" s="119"/>
       <c r="K6" s="119"/>
       <c r="L6" s="119"/>
@@ -9400,7 +9427,9 @@
       <c r="H7" s="120">
         <v>0</v>
       </c>
-      <c r="I7" s="120"/>
+      <c r="I7" s="242">
+        <v>0</v>
+      </c>
       <c r="J7" s="120"/>
       <c r="K7" s="120"/>
       <c r="L7" s="120"/>
@@ -9429,7 +9458,9 @@
       <c r="H8" s="119">
         <v>1385</v>
       </c>
-      <c r="I8" s="119"/>
+      <c r="I8" s="119">
+        <v>16072</v>
+      </c>
       <c r="J8" s="119"/>
       <c r="K8" s="119"/>
       <c r="L8" s="119"/>
@@ -9456,7 +9487,9 @@
       <c r="H9" s="119">
         <v>0.93</v>
       </c>
-      <c r="I9" s="119"/>
+      <c r="I9" s="119">
+        <v>0</v>
+      </c>
       <c r="J9" s="119"/>
       <c r="K9" s="119"/>
       <c r="L9" s="119"/>
@@ -9483,7 +9516,9 @@
       <c r="H10" s="119">
         <v>28798</v>
       </c>
-      <c r="I10" s="119"/>
+      <c r="I10" s="119">
+        <v>6834</v>
+      </c>
       <c r="J10" s="119"/>
       <c r="K10" s="119"/>
       <c r="L10" s="119"/>
@@ -9512,10 +9547,18 @@
       <c r="H11" s="119">
         <v>500000</v>
       </c>
-      <c r="I11" s="119"/>
-      <c r="J11" s="119"/>
-      <c r="K11" s="119"/>
-      <c r="L11" s="119"/>
+      <c r="I11" s="119">
+        <v>500000</v>
+      </c>
+      <c r="J11" s="119">
+        <v>500000</v>
+      </c>
+      <c r="K11" s="119">
+        <v>500000</v>
+      </c>
+      <c r="L11" s="119">
+        <v>500000</v>
+      </c>
       <c r="M11" s="128"/>
     </row>
     <row r="12" spans="1:13" ht="20.5" customHeight="1">
@@ -9541,10 +9584,18 @@
       <c r="H12" s="119">
         <v>500000</v>
       </c>
-      <c r="I12" s="119"/>
-      <c r="J12" s="119"/>
-      <c r="K12" s="119"/>
-      <c r="L12" s="119"/>
+      <c r="I12" s="119">
+        <v>500000</v>
+      </c>
+      <c r="J12" s="119">
+        <v>500000</v>
+      </c>
+      <c r="K12" s="119">
+        <v>500000</v>
+      </c>
+      <c r="L12" s="119">
+        <v>500000</v>
+      </c>
       <c r="M12" s="128"/>
     </row>
     <row r="13" spans="1:13" ht="20.5" customHeight="1">
@@ -9572,7 +9623,9 @@
       <c r="H13" s="119">
         <v>20745</v>
       </c>
-      <c r="I13" s="119"/>
+      <c r="I13" s="120">
+        <v>20051</v>
+      </c>
       <c r="J13" s="119"/>
       <c r="K13" s="119"/>
       <c r="L13" s="119"/>
@@ -9595,7 +9648,9 @@
       <c r="H14" s="119">
         <v>384426</v>
       </c>
-      <c r="I14" s="119"/>
+      <c r="I14" s="119">
+        <v>393447</v>
+      </c>
       <c r="J14" s="119"/>
       <c r="K14" s="119"/>
       <c r="L14" s="119"/>
@@ -9616,7 +9671,9 @@
       <c r="H15" s="119">
         <v>29791</v>
       </c>
-      <c r="I15" s="119"/>
+      <c r="I15" s="119">
+        <v>32516.5</v>
+      </c>
       <c r="J15" s="119"/>
       <c r="K15" s="119"/>
       <c r="L15" s="119"/>
@@ -9637,7 +9694,9 @@
       <c r="H16" s="119">
         <v>100943</v>
       </c>
-      <c r="I16" s="119"/>
+      <c r="I16" s="119">
+        <v>101360</v>
+      </c>
       <c r="J16" s="119"/>
       <c r="K16" s="119"/>
       <c r="L16" s="119"/>
@@ -9676,20 +9735,20 @@
         <v>1737386.93</v>
       </c>
       <c r="I17" s="122">
-        <f>SUM(I2:I8)</f>
-        <v>0</v>
+        <f>SUM(I2:I16)</f>
+        <v>1761025.4</v>
       </c>
       <c r="J17" s="122">
-        <f>SUM(J2:J8)</f>
-        <v>0</v>
+        <f t="shared" ref="J17:L17" si="0">SUM(J2:J16)</f>
+        <v>1000000</v>
       </c>
       <c r="K17" s="122">
-        <f>SUM(K2:K8)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1000000</v>
       </c>
       <c r="L17" s="122">
-        <f>SUM(L2:L8)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1000000</v>
       </c>
       <c r="M17" s="128"/>
     </row>
@@ -9716,7 +9775,9 @@
       <c r="H18" s="119">
         <v>134795</v>
       </c>
-      <c r="I18" s="119"/>
+      <c r="I18" s="119">
+        <v>134888</v>
+      </c>
       <c r="J18" s="119"/>
       <c r="K18" s="119"/>
       <c r="L18" s="119"/>
@@ -9745,7 +9806,9 @@
       <c r="H19" s="119">
         <v>114421</v>
       </c>
-      <c r="I19" s="119"/>
+      <c r="I19" s="119">
+        <v>118113</v>
+      </c>
       <c r="J19" s="119"/>
       <c r="K19" s="119"/>
       <c r="L19" s="119"/>
@@ -9774,7 +9837,9 @@
       <c r="H20" s="120">
         <v>11080</v>
       </c>
-      <c r="I20" s="120"/>
+      <c r="I20" s="120">
+        <v>10960</v>
+      </c>
       <c r="J20" s="120"/>
       <c r="K20" s="120"/>
       <c r="L20" s="120"/>
@@ -9785,47 +9850,47 @@
         <v>41</v>
       </c>
       <c r="B21" s="124">
-        <f t="shared" ref="B21:L21" si="0">SUM(B18:B20)</f>
+        <f t="shared" ref="B21:L21" si="1">SUM(B18:B20)</f>
         <v>233309</v>
       </c>
       <c r="C21" s="124">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D21" s="124">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>241116</v>
       </c>
       <c r="E21" s="124">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>248958</v>
       </c>
       <c r="F21" s="124">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>249079</v>
       </c>
       <c r="G21" s="124">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>256665</v>
       </c>
       <c r="H21" s="124">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>260296</v>
       </c>
       <c r="I21" s="124">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>263961</v>
+      </c>
+      <c r="J21" s="124">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J21" s="124">
-        <f t="shared" si="0"/>
+      <c r="K21" s="124">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K21" s="124">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="L21" s="124">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M21" s="128"/>
@@ -9869,7 +9934,7 @@
         <v>46</v>
       </c>
       <c r="B24" s="122">
-        <f t="shared" ref="B24:L24" si="1">SUM(B22:B23)</f>
+        <f t="shared" ref="B24:L24" si="2">SUM(B22:B23)</f>
         <v>0</v>
       </c>
       <c r="C24" s="122">
@@ -9877,39 +9942,39 @@
         <v>0</v>
       </c>
       <c r="D24" s="122">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E24" s="122">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F24" s="122">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G24" s="122">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H24" s="122">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I24" s="122">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J24" s="122">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K24" s="122">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L24" s="122">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M24" s="128"/>
@@ -9919,48 +9984,48 @@
         <v>47</v>
       </c>
       <c r="B25" s="126">
-        <f t="shared" ref="B25:L25" si="2">SUM(B17,B21)</f>
+        <f t="shared" ref="B25:L25" si="3">SUM(B17,B21)</f>
         <v>1583309.31</v>
       </c>
       <c r="C25" s="126">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D25" s="126">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1628031.68</v>
       </c>
       <c r="E25" s="126">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1897480</v>
       </c>
       <c r="F25" s="126">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1911272.83</v>
       </c>
       <c r="G25" s="126">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1952613.62</v>
       </c>
       <c r="H25" s="126">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1997682.93</v>
       </c>
       <c r="I25" s="126">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2024986.4</v>
       </c>
       <c r="J25" s="126">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1000000</v>
       </c>
       <c r="K25" s="126">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1000000</v>
       </c>
       <c r="L25" s="126">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1000000</v>
       </c>
       <c r="M25" s="128"/>
     </row>
@@ -9969,48 +10034,48 @@
         <v>48</v>
       </c>
       <c r="B26" s="126">
-        <f t="shared" ref="B26:L26" si="3">B25-B24</f>
+        <f t="shared" ref="B26:L26" si="4">B25-B24</f>
         <v>1583309.31</v>
       </c>
       <c r="C26" s="126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D26" s="126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1628031.68</v>
       </c>
       <c r="E26" s="126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1897480</v>
       </c>
       <c r="F26" s="126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1911272.83</v>
       </c>
       <c r="G26" s="126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1952613.62</v>
       </c>
       <c r="H26" s="126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1997682.93</v>
       </c>
       <c r="I26" s="126">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>2024986.4</v>
       </c>
       <c r="J26" s="126">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1000000</v>
       </c>
       <c r="K26" s="126">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1000000</v>
       </c>
       <c r="L26" s="126">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1000000</v>
       </c>
       <c r="M26" s="128"/>
     </row>
@@ -10035,7 +10100,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -10110,7 +10175,10 @@
         <f>232107.95*7.2</f>
         <v>1671177.2400000002</v>
       </c>
-      <c r="I2" s="119"/>
+      <c r="I2" s="119">
+        <f>393537*7.2</f>
+        <v>2833466.4</v>
+      </c>
       <c r="J2" s="119"/>
       <c r="K2" s="119"/>
       <c r="L2" s="119"/>
@@ -10143,7 +10211,10 @@
         <f>152832.78+459.81+1301.78</f>
         <v>154594.37</v>
       </c>
-      <c r="I3" s="120"/>
+      <c r="I3" s="120">
+        <f>74496+1750+638</f>
+        <v>76884</v>
+      </c>
       <c r="J3" s="120"/>
       <c r="K3" s="120"/>
       <c r="L3" s="120"/>
@@ -10173,7 +10244,9 @@
       <c r="H4" s="119">
         <v>5709.15</v>
       </c>
-      <c r="I4" s="119"/>
+      <c r="I4" s="119">
+        <v>6683</v>
+      </c>
       <c r="J4" s="119"/>
       <c r="K4" s="119"/>
       <c r="L4" s="119"/>
@@ -10212,7 +10285,7 @@
       </c>
       <c r="I5" s="122">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2917033.4</v>
       </c>
       <c r="J5" s="122">
         <f t="shared" si="0"/>
@@ -10255,7 +10328,10 @@
         <f>32930.16+57813.86+32398.72</f>
         <v>123142.74</v>
       </c>
-      <c r="I6" s="119"/>
+      <c r="I6" s="119">
+        <f>33429+58692+9186</f>
+        <v>101307</v>
+      </c>
       <c r="J6" s="119"/>
       <c r="K6" s="119"/>
       <c r="L6" s="119"/>
@@ -10286,7 +10362,9 @@
         <f>G7</f>
         <v>12642</v>
       </c>
-      <c r="I7" s="119"/>
+      <c r="I7" s="119">
+        <v>12587</v>
+      </c>
       <c r="J7" s="119"/>
       <c r="K7" s="119"/>
       <c r="L7" s="119"/>
@@ -10325,7 +10403,7 @@
       </c>
       <c r="I8" s="124">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>113894</v>
       </c>
       <c r="J8" s="124">
         <f t="shared" si="3"/>
@@ -10457,7 +10535,7 @@
       </c>
       <c r="I12" s="126">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3030927.4</v>
       </c>
       <c r="J12" s="126">
         <f t="shared" si="7"/>
@@ -10506,7 +10584,7 @@
       </c>
       <c r="I13" s="126">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3030927.4</v>
       </c>
       <c r="J13" s="126">
         <f t="shared" si="8"/>
@@ -10570,10 +10648,10 @@
       <c r="B2" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="207" t="s">
+      <c r="C2" s="218" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="208"/>
+      <c r="D2" s="219"/>
       <c r="E2" s="100" t="s">
         <v>51</v>
       </c>
@@ -10606,10 +10684,10 @@
       </c>
     </row>
     <row r="3" spans="2:14" ht="23.5" customHeight="1">
-      <c r="B3" s="209" t="s">
+      <c r="B3" s="198" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="212" t="s">
+      <c r="C3" s="201" t="s">
         <v>62</v>
       </c>
       <c r="D3" s="101" t="s">
@@ -10637,18 +10715,18 @@
       <c r="L3" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="M3" s="198">
+      <c r="M3" s="209">
         <f>SUM(J3:J10)</f>
         <v>58430.5</v>
       </c>
-      <c r="N3" s="203">
+      <c r="N3" s="214">
         <f>SUM(M3:M25)</f>
         <v>104966.35</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="23" customHeight="1">
-      <c r="B4" s="210"/>
-      <c r="C4" s="213"/>
+      <c r="B4" s="199"/>
+      <c r="C4" s="202"/>
       <c r="D4" s="102" t="s">
         <v>70</v>
       </c>
@@ -10672,12 +10750,12 @@
       </c>
       <c r="K4" s="105"/>
       <c r="L4" s="105"/>
-      <c r="M4" s="199"/>
-      <c r="N4" s="204"/>
+      <c r="M4" s="210"/>
+      <c r="N4" s="215"/>
     </row>
     <row r="5" spans="2:14" ht="23" customHeight="1">
-      <c r="B5" s="210"/>
-      <c r="C5" s="214" t="s">
+      <c r="B5" s="199"/>
+      <c r="C5" s="203" t="s">
         <v>74</v>
       </c>
       <c r="D5" s="103" t="s">
@@ -10705,12 +10783,12 @@
       <c r="L5" s="103" t="s">
         <v>80</v>
       </c>
-      <c r="M5" s="200"/>
-      <c r="N5" s="205"/>
+      <c r="M5" s="211"/>
+      <c r="N5" s="216"/>
     </row>
     <row r="6" spans="2:14" ht="23" customHeight="1">
-      <c r="B6" s="210"/>
-      <c r="C6" s="213"/>
+      <c r="B6" s="199"/>
+      <c r="C6" s="202"/>
       <c r="D6" s="102" t="s">
         <v>81</v>
       </c>
@@ -10734,11 +10812,11 @@
       </c>
       <c r="K6" s="105"/>
       <c r="L6" s="105"/>
-      <c r="M6" s="199"/>
-      <c r="N6" s="204"/>
+      <c r="M6" s="210"/>
+      <c r="N6" s="215"/>
     </row>
     <row r="7" spans="2:14" ht="23" customHeight="1">
-      <c r="B7" s="210"/>
+      <c r="B7" s="199"/>
       <c r="C7" s="103" t="s">
         <v>87</v>
       </c>
@@ -10765,12 +10843,12 @@
       </c>
       <c r="K7" s="110"/>
       <c r="L7" s="110"/>
-      <c r="M7" s="200"/>
-      <c r="N7" s="205"/>
+      <c r="M7" s="211"/>
+      <c r="N7" s="216"/>
     </row>
     <row r="8" spans="2:14" ht="23" customHeight="1">
-      <c r="B8" s="210"/>
-      <c r="C8" s="215" t="s">
+      <c r="B8" s="199"/>
+      <c r="C8" s="204" t="s">
         <v>92</v>
       </c>
       <c r="D8" s="102" t="s">
@@ -10796,12 +10874,12 @@
       </c>
       <c r="K8" s="105"/>
       <c r="L8" s="105"/>
-      <c r="M8" s="199"/>
-      <c r="N8" s="204"/>
+      <c r="M8" s="210"/>
+      <c r="N8" s="215"/>
     </row>
     <row r="9" spans="2:14" ht="23" customHeight="1">
-      <c r="B9" s="210"/>
-      <c r="C9" s="216"/>
+      <c r="B9" s="199"/>
+      <c r="C9" s="205"/>
       <c r="D9" s="103" t="s">
         <v>97</v>
       </c>
@@ -10825,11 +10903,11 @@
       </c>
       <c r="K9" s="110"/>
       <c r="L9" s="110"/>
-      <c r="M9" s="200"/>
-      <c r="N9" s="205"/>
+      <c r="M9" s="211"/>
+      <c r="N9" s="216"/>
     </row>
     <row r="10" spans="2:14" ht="23.5" customHeight="1">
-      <c r="B10" s="211"/>
+      <c r="B10" s="200"/>
       <c r="C10" s="104" t="s">
         <v>101</v>
       </c>
@@ -10856,14 +10934,14 @@
       </c>
       <c r="K10" s="112"/>
       <c r="L10" s="112"/>
-      <c r="M10" s="201"/>
-      <c r="N10" s="204"/>
+      <c r="M10" s="212"/>
+      <c r="N10" s="215"/>
     </row>
     <row r="11" spans="2:14" ht="23.5" customHeight="1">
-      <c r="B11" s="209" t="s">
+      <c r="B11" s="198" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="212" t="s">
+      <c r="C11" s="201" t="s">
         <v>62</v>
       </c>
       <c r="D11" s="101" t="s">
@@ -10889,15 +10967,15 @@
       </c>
       <c r="K11" s="108"/>
       <c r="L11" s="108"/>
-      <c r="M11" s="198">
+      <c r="M11" s="209">
         <f>SUM(J11:J18)</f>
         <v>9113.5</v>
       </c>
-      <c r="N11" s="205"/>
+      <c r="N11" s="216"/>
     </row>
     <row r="12" spans="2:14" ht="23" customHeight="1">
-      <c r="B12" s="210"/>
-      <c r="C12" s="217"/>
+      <c r="B12" s="199"/>
+      <c r="C12" s="206"/>
       <c r="D12" s="102" t="s">
         <v>70</v>
       </c>
@@ -10921,12 +10999,12 @@
       </c>
       <c r="K12" s="105"/>
       <c r="L12" s="105"/>
-      <c r="M12" s="199"/>
-      <c r="N12" s="204"/>
+      <c r="M12" s="210"/>
+      <c r="N12" s="215"/>
     </row>
     <row r="13" spans="2:14" ht="23" customHeight="1">
-      <c r="B13" s="210"/>
-      <c r="C13" s="218"/>
+      <c r="B13" s="199"/>
+      <c r="C13" s="207"/>
       <c r="D13" s="103" t="s">
         <v>70</v>
       </c>
@@ -10952,12 +11030,12 @@
       <c r="L13" s="103" t="s">
         <v>115</v>
       </c>
-      <c r="M13" s="200"/>
-      <c r="N13" s="205"/>
+      <c r="M13" s="211"/>
+      <c r="N13" s="216"/>
     </row>
     <row r="14" spans="2:14" ht="23" customHeight="1">
-      <c r="B14" s="210"/>
-      <c r="C14" s="215" t="s">
+      <c r="B14" s="199"/>
+      <c r="C14" s="204" t="s">
         <v>74</v>
       </c>
       <c r="D14" s="102" t="s">
@@ -10983,12 +11061,12 @@
       </c>
       <c r="K14" s="105"/>
       <c r="L14" s="105"/>
-      <c r="M14" s="199"/>
-      <c r="N14" s="204"/>
+      <c r="M14" s="210"/>
+      <c r="N14" s="215"/>
     </row>
     <row r="15" spans="2:14" ht="23" customHeight="1">
-      <c r="B15" s="210"/>
-      <c r="C15" s="216"/>
+      <c r="B15" s="199"/>
+      <c r="C15" s="205"/>
       <c r="D15" s="103" t="s">
         <v>75</v>
       </c>
@@ -11012,11 +11090,11 @@
       </c>
       <c r="K15" s="110"/>
       <c r="L15" s="110"/>
-      <c r="M15" s="200"/>
-      <c r="N15" s="205"/>
+      <c r="M15" s="211"/>
+      <c r="N15" s="216"/>
     </row>
     <row r="16" spans="2:14" ht="23" customHeight="1">
-      <c r="B16" s="210"/>
+      <c r="B16" s="199"/>
       <c r="C16" s="102" t="s">
         <v>87</v>
       </c>
@@ -11043,12 +11121,12 @@
       </c>
       <c r="K16" s="105"/>
       <c r="L16" s="105"/>
-      <c r="M16" s="199"/>
-      <c r="N16" s="204"/>
+      <c r="M16" s="210"/>
+      <c r="N16" s="215"/>
     </row>
     <row r="17" spans="2:14" ht="23" customHeight="1">
-      <c r="B17" s="210"/>
-      <c r="C17" s="214" t="s">
+      <c r="B17" s="199"/>
+      <c r="C17" s="203" t="s">
         <v>92</v>
       </c>
       <c r="D17" s="103" t="s">
@@ -11074,12 +11152,12 @@
       </c>
       <c r="K17" s="110"/>
       <c r="L17" s="110"/>
-      <c r="M17" s="200"/>
-      <c r="N17" s="205"/>
+      <c r="M17" s="211"/>
+      <c r="N17" s="216"/>
     </row>
     <row r="18" spans="2:14" ht="23.5" customHeight="1">
-      <c r="B18" s="211"/>
-      <c r="C18" s="217"/>
+      <c r="B18" s="200"/>
+      <c r="C18" s="206"/>
       <c r="D18" s="104" t="s">
         <v>93</v>
       </c>
@@ -11103,14 +11181,14 @@
       </c>
       <c r="K18" s="112"/>
       <c r="L18" s="112"/>
-      <c r="M18" s="201"/>
-      <c r="N18" s="204"/>
+      <c r="M18" s="212"/>
+      <c r="N18" s="215"/>
     </row>
     <row r="19" spans="2:14" ht="23.5" customHeight="1">
-      <c r="B19" s="209" t="s">
+      <c r="B19" s="198" t="s">
         <v>125</v>
       </c>
-      <c r="C19" s="212" t="s">
+      <c r="C19" s="201" t="s">
         <v>62</v>
       </c>
       <c r="D19" s="101" t="s">
@@ -11136,15 +11214,15 @@
       </c>
       <c r="K19" s="108"/>
       <c r="L19" s="108"/>
-      <c r="M19" s="198">
+      <c r="M19" s="209">
         <f>SUM(J19:J25)</f>
         <v>37422.35</v>
       </c>
-      <c r="N19" s="205"/>
+      <c r="N19" s="216"/>
     </row>
     <row r="20" spans="2:14" ht="23" customHeight="1">
-      <c r="B20" s="210"/>
-      <c r="C20" s="213"/>
+      <c r="B20" s="199"/>
+      <c r="C20" s="202"/>
       <c r="D20" s="102" t="s">
         <v>70</v>
       </c>
@@ -11168,12 +11246,12 @@
       </c>
       <c r="K20" s="105"/>
       <c r="L20" s="105"/>
-      <c r="M20" s="199"/>
-      <c r="N20" s="204"/>
+      <c r="M20" s="210"/>
+      <c r="N20" s="215"/>
     </row>
     <row r="21" spans="2:14" ht="23" customHeight="1">
-      <c r="B21" s="210"/>
-      <c r="C21" s="214" t="s">
+      <c r="B21" s="199"/>
+      <c r="C21" s="203" t="s">
         <v>74</v>
       </c>
       <c r="D21" s="103" t="s">
@@ -11199,12 +11277,12 @@
       </c>
       <c r="K21" s="110"/>
       <c r="L21" s="110"/>
-      <c r="M21" s="200"/>
-      <c r="N21" s="205"/>
+      <c r="M21" s="211"/>
+      <c r="N21" s="216"/>
     </row>
     <row r="22" spans="2:14" ht="23" customHeight="1">
-      <c r="B22" s="210"/>
-      <c r="C22" s="219"/>
+      <c r="B22" s="199"/>
+      <c r="C22" s="208"/>
       <c r="D22" s="102" t="s">
         <v>132</v>
       </c>
@@ -11228,12 +11306,12 @@
       </c>
       <c r="K22" s="105"/>
       <c r="L22" s="105"/>
-      <c r="M22" s="199"/>
-      <c r="N22" s="204"/>
+      <c r="M22" s="210"/>
+      <c r="N22" s="215"/>
     </row>
     <row r="23" spans="2:14" ht="23" customHeight="1">
-      <c r="B23" s="210"/>
-      <c r="C23" s="214" t="s">
+      <c r="B23" s="199"/>
+      <c r="C23" s="203" t="s">
         <v>92</v>
       </c>
       <c r="D23" s="103" t="s">
@@ -11259,12 +11337,12 @@
       </c>
       <c r="K23" s="110"/>
       <c r="L23" s="110"/>
-      <c r="M23" s="200"/>
-      <c r="N23" s="205"/>
+      <c r="M23" s="211"/>
+      <c r="N23" s="216"/>
     </row>
     <row r="24" spans="2:14" ht="23" customHeight="1">
-      <c r="B24" s="210"/>
-      <c r="C24" s="213"/>
+      <c r="B24" s="199"/>
+      <c r="C24" s="202"/>
       <c r="D24" s="102" t="s">
         <v>97</v>
       </c>
@@ -11288,11 +11366,11 @@
       </c>
       <c r="K24" s="105"/>
       <c r="L24" s="105"/>
-      <c r="M24" s="199"/>
-      <c r="N24" s="204"/>
+      <c r="M24" s="210"/>
+      <c r="N24" s="215"/>
     </row>
     <row r="25" spans="2:14" ht="23.5" customHeight="1">
-      <c r="B25" s="211"/>
+      <c r="B25" s="200"/>
       <c r="C25" s="106" t="s">
         <v>101</v>
       </c>
@@ -11321,11 +11399,16 @@
       <c r="L25" s="106" t="s">
         <v>143</v>
       </c>
-      <c r="M25" s="202"/>
-      <c r="N25" s="206"/>
+      <c r="M25" s="213"/>
+      <c r="N25" s="217"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="M3:M10"/>
+    <mergeCell ref="M11:M18"/>
+    <mergeCell ref="M19:M25"/>
+    <mergeCell ref="N3:N25"/>
+    <mergeCell ref="C2:D2"/>
     <mergeCell ref="B3:B10"/>
     <mergeCell ref="B11:B18"/>
     <mergeCell ref="B19:B25"/>
@@ -11338,11 +11421,6 @@
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C23:C24"/>
-    <mergeCell ref="M3:M10"/>
-    <mergeCell ref="M11:M18"/>
-    <mergeCell ref="M19:M25"/>
-    <mergeCell ref="N3:N25"/>
-    <mergeCell ref="C2:D2"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -12974,7 +13052,7 @@
   </sheetPr>
   <dimension ref="B1:AD110"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -13017,39 +13095,39 @@
   <sheetData>
     <row r="1" spans="2:30" ht="31" customHeight="1"/>
     <row r="2" spans="2:30" ht="25" customHeight="1">
-      <c r="B2" s="238" t="s">
+      <c r="B2" s="220" t="s">
         <v>295</v>
       </c>
-      <c r="C2" s="238"/>
+      <c r="C2" s="220"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="I2" s="238" t="s">
+      <c r="I2" s="220" t="s">
         <v>296</v>
       </c>
-      <c r="J2" s="238"/>
-      <c r="K2" s="238"/>
-      <c r="L2" s="238"/>
-      <c r="M2" s="238"/>
-      <c r="N2" s="238"/>
-      <c r="Q2" s="238" t="s">
+      <c r="J2" s="220"/>
+      <c r="K2" s="220"/>
+      <c r="L2" s="220"/>
+      <c r="M2" s="220"/>
+      <c r="N2" s="220"/>
+      <c r="Q2" s="220" t="s">
         <v>297</v>
       </c>
-      <c r="R2" s="238"/>
-      <c r="S2" s="238"/>
-      <c r="T2" s="238"/>
-      <c r="U2" s="238"/>
-      <c r="V2" s="238"/>
-      <c r="W2" s="238"/>
-      <c r="Y2" s="238" t="s">
+      <c r="R2" s="220"/>
+      <c r="S2" s="220"/>
+      <c r="T2" s="220"/>
+      <c r="U2" s="220"/>
+      <c r="V2" s="220"/>
+      <c r="W2" s="220"/>
+      <c r="Y2" s="220" t="s">
         <v>298</v>
       </c>
-      <c r="Z2" s="238"/>
-      <c r="AA2" s="238"/>
-      <c r="AB2" s="238"/>
-      <c r="AC2" s="238"/>
-      <c r="AD2" s="238"/>
+      <c r="Z2" s="220"/>
+      <c r="AA2" s="220"/>
+      <c r="AB2" s="220"/>
+      <c r="AC2" s="220"/>
+      <c r="AD2" s="220"/>
     </row>
     <row r="3" spans="2:30" ht="20" customHeight="1">
       <c r="B3" s="3" t="s">
@@ -13131,7 +13209,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="I4" s="227" t="s">
+      <c r="I4" s="234" t="s">
         <v>317</v>
       </c>
       <c r="J4" s="47" t="s">
@@ -13140,14 +13218,14 @@
       <c r="K4" s="48">
         <v>13000</v>
       </c>
-      <c r="L4" s="233">
+      <c r="L4" s="240">
         <f>SUM(K4:K8)</f>
         <v>13000</v>
       </c>
       <c r="M4" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="N4" s="239">
+      <c r="N4" s="221">
         <f>L4/J14</f>
         <v>0.56521739130434778</v>
       </c>
@@ -13211,18 +13289,18 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="I5" s="228"/>
+      <c r="I5" s="235"/>
       <c r="J5" s="47" t="s">
         <v>320</v>
       </c>
       <c r="K5" s="48">
         <v>0</v>
       </c>
-      <c r="L5" s="234"/>
+      <c r="L5" s="222"/>
       <c r="M5" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="N5" s="234"/>
+      <c r="N5" s="222"/>
       <c r="Q5" s="63" t="s">
         <v>254</v>
       </c>
@@ -13286,16 +13364,16 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-      <c r="I6" s="229"/>
+      <c r="I6" s="236"/>
       <c r="J6" s="47" t="s">
         <v>322</v>
       </c>
       <c r="K6" s="49"/>
-      <c r="L6" s="235"/>
+      <c r="L6" s="223"/>
       <c r="M6" s="54">
         <v>582000</v>
       </c>
-      <c r="N6" s="235"/>
+      <c r="N6" s="223"/>
       <c r="Q6" s="63" t="s">
         <v>256</v>
       </c>
@@ -13360,16 +13438,16 @@
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
-      <c r="I7" s="230"/>
+      <c r="I7" s="237"/>
       <c r="J7" s="47" t="s">
         <v>324</v>
       </c>
       <c r="K7" s="48">
         <v>0</v>
       </c>
-      <c r="L7" s="236"/>
+      <c r="L7" s="224"/>
       <c r="M7" s="55"/>
-      <c r="N7" s="236"/>
+      <c r="N7" s="224"/>
       <c r="Q7" s="63" t="s">
         <v>258</v>
       </c>
@@ -13433,14 +13511,14 @@
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="I8" s="230"/>
+      <c r="I8" s="237"/>
       <c r="J8" s="47" t="s">
         <v>326</v>
       </c>
       <c r="K8" s="49"/>
-      <c r="L8" s="236"/>
+      <c r="L8" s="224"/>
       <c r="M8" s="55"/>
-      <c r="N8" s="236"/>
+      <c r="N8" s="224"/>
       <c r="Q8" s="63" t="s">
         <v>260</v>
       </c>
@@ -13494,21 +13572,21 @@
       </c>
     </row>
     <row r="9" spans="2:30" ht="20" customHeight="1">
-      <c r="I9" s="227" t="s">
+      <c r="I9" s="234" t="s">
         <v>327</v>
       </c>
       <c r="J9" s="47" t="s">
         <v>328</v>
       </c>
       <c r="K9" s="49"/>
-      <c r="L9" s="237">
+      <c r="L9" s="241">
         <f>SUM(K9:K13)</f>
         <v>10000</v>
       </c>
       <c r="M9" s="54">
         <v>1000000</v>
       </c>
-      <c r="N9" s="240">
+      <c r="N9" s="225">
         <f>L9/J14</f>
         <v>0.43478260869565216</v>
       </c>
@@ -13565,18 +13643,18 @@
       </c>
     </row>
     <row r="10" spans="2:30" ht="20" customHeight="1">
-      <c r="I10" s="231"/>
+      <c r="I10" s="238"/>
       <c r="J10" s="47" t="s">
         <v>329</v>
       </c>
       <c r="K10" s="48">
         <v>0</v>
       </c>
-      <c r="L10" s="234"/>
+      <c r="L10" s="222"/>
       <c r="M10" s="54">
         <v>400000</v>
       </c>
-      <c r="N10" s="234"/>
+      <c r="N10" s="222"/>
       <c r="Q10" s="63" t="s">
         <v>264</v>
       </c>
@@ -13630,18 +13708,18 @@
       </c>
     </row>
     <row r="11" spans="2:30" ht="20" customHeight="1">
-      <c r="I11" s="231"/>
+      <c r="I11" s="238"/>
       <c r="J11" s="47" t="s">
         <v>330</v>
       </c>
       <c r="K11" s="50">
         <v>10000</v>
       </c>
-      <c r="L11" s="234"/>
+      <c r="L11" s="222"/>
       <c r="M11" s="56">
         <v>2000000</v>
       </c>
-      <c r="N11" s="234"/>
+      <c r="N11" s="222"/>
       <c r="Q11" s="63" t="s">
         <v>266</v>
       </c>
@@ -13695,24 +13773,24 @@
       </c>
     </row>
     <row r="12" spans="2:30" ht="20" customHeight="1">
-      <c r="B12" s="238" t="s">
+      <c r="B12" s="220" t="s">
         <v>331</v>
       </c>
-      <c r="C12" s="238"/>
-      <c r="D12" s="238"/>
-      <c r="E12" s="238"/>
-      <c r="F12" s="238"/>
-      <c r="G12" s="238"/>
-      <c r="I12" s="231"/>
+      <c r="C12" s="220"/>
+      <c r="D12" s="220"/>
+      <c r="E12" s="220"/>
+      <c r="F12" s="220"/>
+      <c r="G12" s="220"/>
+      <c r="I12" s="238"/>
       <c r="J12" s="47" t="s">
         <v>332</v>
       </c>
       <c r="K12" s="48">
         <v>0</v>
       </c>
-      <c r="L12" s="234"/>
+      <c r="L12" s="222"/>
       <c r="M12" s="55"/>
-      <c r="N12" s="234"/>
+      <c r="N12" s="222"/>
       <c r="Q12" s="63" t="s">
         <v>268</v>
       </c>
@@ -13784,16 +13862,16 @@
       <c r="G13" s="30" t="s">
         <v>336</v>
       </c>
-      <c r="I13" s="232"/>
+      <c r="I13" s="239"/>
       <c r="J13" s="51" t="s">
         <v>338</v>
       </c>
       <c r="K13" s="51" t="s">
         <v>338</v>
       </c>
-      <c r="L13" s="235"/>
+      <c r="L13" s="223"/>
       <c r="M13" s="55"/>
-      <c r="N13" s="241"/>
+      <c r="N13" s="226"/>
       <c r="Q13" s="63" t="s">
         <v>270</v>
       </c>
@@ -13870,12 +13948,12 @@
       <c r="I14" s="52" t="s">
         <v>339</v>
       </c>
-      <c r="J14" s="220">
+      <c r="J14" s="227">
         <f>SUM(K4:K13)</f>
         <v>23000</v>
       </c>
-      <c r="K14" s="221"/>
-      <c r="L14" s="222"/>
+      <c r="K14" s="228"/>
+      <c r="L14" s="229"/>
       <c r="M14" s="57">
         <f>SUM(M5:M11)</f>
         <v>3982000</v>
@@ -13958,12 +14036,12 @@
       <c r="I15" s="52" t="s">
         <v>340</v>
       </c>
-      <c r="J15" s="220">
+      <c r="J15" s="227">
         <f>J14/C7</f>
         <v>5321.681319084737</v>
       </c>
-      <c r="K15" s="221"/>
-      <c r="L15" s="223"/>
+      <c r="K15" s="228"/>
+      <c r="L15" s="230"/>
       <c r="M15" s="55"/>
       <c r="N15" s="59"/>
       <c r="Q15" s="63" t="s">
@@ -14043,13 +14121,13 @@
       <c r="I16" s="52" t="s">
         <v>341</v>
       </c>
-      <c r="J16" s="224">
+      <c r="J16" s="231">
         <f>J14/C7</f>
         <v>5321.681319084737</v>
       </c>
-      <c r="K16" s="225"/>
-      <c r="L16" s="225"/>
-      <c r="M16" s="226"/>
+      <c r="K16" s="232"/>
+      <c r="L16" s="232"/>
+      <c r="M16" s="233"/>
       <c r="N16" s="60"/>
       <c r="Q16" s="63" t="s">
         <v>276</v>
@@ -15442,6 +15520,13 @@
     <row r="110" ht="26.4" customHeight="1"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="L4:L8"/>
+    <mergeCell ref="L9:L13"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="I2:N2"/>
     <mergeCell ref="Q2:W2"/>
@@ -15449,13 +15534,6 @@
     <mergeCell ref="B12:G12"/>
     <mergeCell ref="N4:N8"/>
     <mergeCell ref="N9:N13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="L4:L8"/>
-    <mergeCell ref="L9:L13"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/article/家庭财务管理手册2025.xlsx
+++ b/article/家庭财务管理手册2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18717\Documents\GitHub\luyao.github.io\article\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D98435-635F-421A-8223-22EA075C6E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A66E78-75B3-4794-A00C-754DA7B75DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1、年度预算" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <sheet name="6、养老现金流来源测算" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -4605,6 +4604,12 @@
     <xf numFmtId="176" fontId="16" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="16" fillId="8" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="13" fillId="14" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4616,6 +4621,39 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="17" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4650,38 +4688,59 @@
     <xf numFmtId="0" fontId="14" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="1" fontId="9" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4689,70 +4748,10 @@
     <xf numFmtId="10" fontId="2" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="8" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6340,6 +6339,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>5055913.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5466276.4900000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8418,10 +8420,10 @@
       </c>
     </row>
     <row r="2" spans="2:5" ht="22.75" customHeight="1">
-      <c r="B2" s="194" t="s">
+      <c r="B2" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="195"/>
+      <c r="C2" s="197"/>
       <c r="D2" s="144" t="s">
         <v>2</v>
       </c>
@@ -8549,10 +8551,10 @@
       <c r="E11" s="159"/>
     </row>
     <row r="12" spans="2:5" ht="22.75" customHeight="1">
-      <c r="B12" s="196" t="s">
+      <c r="B12" s="198" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="197"/>
+      <c r="C12" s="199"/>
       <c r="D12" s="160" t="s">
         <v>2</v>
       </c>
@@ -8784,9 +8786,9 @@
   </sheetPr>
   <dimension ref="B1:P15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O10" sqref="O10"/>
+      <selection pane="bottomLeft" activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -9028,7 +9030,7 @@
         <f>(N10-5000000)/500000</f>
         <v>0.11182759999999962</v>
       </c>
-      <c r="P10" s="243"/>
+      <c r="P10" s="195"/>
     </row>
     <row r="11" spans="2:16" ht="24.65" customHeight="1">
       <c r="B11" s="130">
@@ -9045,8 +9047,14 @@
       <c r="K11" s="137"/>
       <c r="L11" s="138"/>
       <c r="M11" s="141"/>
-      <c r="N11" s="138"/>
-      <c r="O11" s="191"/>
+      <c r="N11" s="138">
+        <f>'3、存量资产-y'!J26+'3、存量资产-k'!J13</f>
+        <v>5466276.4900000002</v>
+      </c>
+      <c r="O11" s="191">
+        <f>(N11-5000000)/500000</f>
+        <v>0.93255298000000042</v>
+      </c>
     </row>
     <row r="12" spans="2:16" ht="24.65" customHeight="1">
       <c r="B12" s="130">
@@ -9198,11 +9206,11 @@
   </sheetPr>
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
+      <selection pane="bottomRight" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -9277,7 +9285,9 @@
       <c r="I2" s="119">
         <v>12989.9</v>
       </c>
-      <c r="J2" s="119"/>
+      <c r="J2" s="119">
+        <v>11920</v>
+      </c>
       <c r="K2" s="119"/>
       <c r="L2" s="119"/>
       <c r="M2" s="128"/>
@@ -9308,7 +9318,9 @@
       <c r="I3" s="120">
         <v>96211</v>
       </c>
-      <c r="J3" s="120"/>
+      <c r="J3" s="120">
+        <v>107404.85</v>
+      </c>
       <c r="K3" s="120"/>
       <c r="L3" s="120"/>
       <c r="M3" s="128"/>
@@ -9339,7 +9351,9 @@
       <c r="I4" s="119">
         <v>607</v>
       </c>
-      <c r="J4" s="119"/>
+      <c r="J4" s="119">
+        <v>1562</v>
+      </c>
       <c r="K4" s="119"/>
       <c r="L4" s="119"/>
       <c r="M4" s="128"/>
@@ -9370,7 +9384,9 @@
       <c r="I5" s="120">
         <v>28191</v>
       </c>
-      <c r="J5" s="120"/>
+      <c r="J5" s="120">
+        <v>430</v>
+      </c>
       <c r="K5" s="120"/>
       <c r="L5" s="120"/>
       <c r="M5" s="128"/>
@@ -9401,7 +9417,9 @@
       <c r="I6" s="119">
         <v>52746</v>
       </c>
-      <c r="J6" s="119"/>
+      <c r="J6" s="119">
+        <v>91332.31</v>
+      </c>
       <c r="K6" s="119"/>
       <c r="L6" s="119"/>
       <c r="M6" s="128"/>
@@ -9427,7 +9445,7 @@
       <c r="H7" s="120">
         <v>0</v>
       </c>
-      <c r="I7" s="242">
+      <c r="I7" s="194">
         <v>0</v>
       </c>
       <c r="J7" s="120"/>
@@ -9461,7 +9479,9 @@
       <c r="I8" s="119">
         <v>16072</v>
       </c>
-      <c r="J8" s="119"/>
+      <c r="J8" s="119">
+        <v>19912</v>
+      </c>
       <c r="K8" s="119"/>
       <c r="L8" s="119"/>
       <c r="M8" s="128"/>
@@ -9490,7 +9510,9 @@
       <c r="I9" s="119">
         <v>0</v>
       </c>
-      <c r="J9" s="119"/>
+      <c r="J9" s="119">
+        <v>225</v>
+      </c>
       <c r="K9" s="119"/>
       <c r="L9" s="119"/>
       <c r="M9" s="128"/>
@@ -9626,7 +9648,9 @@
       <c r="I13" s="120">
         <v>20051</v>
       </c>
-      <c r="J13" s="119"/>
+      <c r="J13" s="119">
+        <v>20141.59</v>
+      </c>
       <c r="K13" s="119"/>
       <c r="L13" s="119"/>
       <c r="M13" s="128"/>
@@ -9651,7 +9675,9 @@
       <c r="I14" s="119">
         <v>393447</v>
       </c>
-      <c r="J14" s="119"/>
+      <c r="J14" s="119">
+        <v>394871.84</v>
+      </c>
       <c r="K14" s="119"/>
       <c r="L14" s="119"/>
       <c r="M14" s="128"/>
@@ -9674,7 +9700,9 @@
       <c r="I15" s="119">
         <v>32516.5</v>
       </c>
-      <c r="J15" s="119"/>
+      <c r="J15" s="119">
+        <v>32595.56</v>
+      </c>
       <c r="K15" s="119"/>
       <c r="L15" s="119"/>
       <c r="M15" s="128"/>
@@ -9697,7 +9725,9 @@
       <c r="I16" s="119">
         <v>101360</v>
       </c>
-      <c r="J16" s="119"/>
+      <c r="J16" s="119">
+        <v>102679.72</v>
+      </c>
       <c r="K16" s="119"/>
       <c r="L16" s="119"/>
       <c r="M16" s="128"/>
@@ -9739,11 +9769,11 @@
         <v>1761025.4</v>
       </c>
       <c r="J17" s="122">
-        <f t="shared" ref="J17:L17" si="0">SUM(J2:J16)</f>
-        <v>1000000</v>
+        <f>SUM(J2:J16)</f>
+        <v>1783074.8700000003</v>
       </c>
       <c r="K17" s="122">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J17:L17" si="0">SUM(K2:K16)</f>
         <v>1000000</v>
       </c>
       <c r="L17" s="122">
@@ -9778,7 +9808,9 @@
       <c r="I18" s="119">
         <v>134888</v>
       </c>
-      <c r="J18" s="119"/>
+      <c r="J18" s="119">
+        <v>134981</v>
+      </c>
       <c r="K18" s="119"/>
       <c r="L18" s="119"/>
       <c r="M18" s="128"/>
@@ -9809,7 +9841,9 @@
       <c r="I19" s="119">
         <v>118113</v>
       </c>
-      <c r="J19" s="119"/>
+      <c r="J19" s="119">
+        <v>121805</v>
+      </c>
       <c r="K19" s="119"/>
       <c r="L19" s="119"/>
       <c r="M19" s="128"/>
@@ -9840,7 +9874,9 @@
       <c r="I20" s="120">
         <v>10960</v>
       </c>
-      <c r="J20" s="120"/>
+      <c r="J20" s="120">
+        <v>10979</v>
+      </c>
       <c r="K20" s="120"/>
       <c r="L20" s="120"/>
       <c r="M20" s="128"/>
@@ -9883,7 +9919,7 @@
       </c>
       <c r="J21" s="124">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>267765</v>
       </c>
       <c r="K21" s="124">
         <f t="shared" si="1"/>
@@ -10017,7 +10053,7 @@
       </c>
       <c r="J25" s="126">
         <f t="shared" si="3"/>
-        <v>1000000</v>
+        <v>2050839.8700000003</v>
       </c>
       <c r="K25" s="126">
         <f t="shared" si="3"/>
@@ -10067,7 +10103,7 @@
       </c>
       <c r="J26" s="126">
         <f t="shared" si="4"/>
-        <v>1000000</v>
+        <v>2050839.8700000003</v>
       </c>
       <c r="K26" s="126">
         <f t="shared" si="4"/>
@@ -10100,7 +10136,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomRight" activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -10179,7 +10215,10 @@
         <f>393537*7.2</f>
         <v>2833466.4</v>
       </c>
-      <c r="J2" s="119"/>
+      <c r="J2" s="119">
+        <f>446933*7.14</f>
+        <v>3191101.6199999996</v>
+      </c>
       <c r="K2" s="119"/>
       <c r="L2" s="119"/>
       <c r="M2" s="128"/>
@@ -10215,7 +10254,10 @@
         <f>74496+1750+638</f>
         <v>76884</v>
       </c>
-      <c r="J3" s="120"/>
+      <c r="J3" s="120">
+        <f>86880+4727+1606+416</f>
+        <v>93629</v>
+      </c>
       <c r="K3" s="120"/>
       <c r="L3" s="120"/>
       <c r="M3" s="128"/>
@@ -10247,7 +10289,9 @@
       <c r="I4" s="119">
         <v>6683</v>
       </c>
-      <c r="J4" s="119"/>
+      <c r="J4" s="119">
+        <v>7657</v>
+      </c>
       <c r="K4" s="119"/>
       <c r="L4" s="119"/>
       <c r="M4" s="128"/>
@@ -10289,7 +10333,7 @@
       </c>
       <c r="J5" s="122">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3292387.6199999996</v>
       </c>
       <c r="K5" s="122">
         <f t="shared" si="0"/>
@@ -10332,7 +10376,10 @@
         <f>33429+58692+9186</f>
         <v>101307</v>
       </c>
-      <c r="J6" s="119"/>
+      <c r="J6" s="119">
+        <f>33429+58692+18372</f>
+        <v>110493</v>
+      </c>
       <c r="K6" s="119"/>
       <c r="L6" s="119"/>
       <c r="M6" s="128"/>
@@ -10365,7 +10412,9 @@
       <c r="I7" s="119">
         <v>12587</v>
       </c>
-      <c r="J7" s="119"/>
+      <c r="J7" s="119">
+        <v>12556</v>
+      </c>
       <c r="K7" s="119"/>
       <c r="L7" s="119"/>
       <c r="M7" s="128"/>
@@ -10407,7 +10456,7 @@
       </c>
       <c r="J8" s="124">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>123049</v>
       </c>
       <c r="K8" s="124">
         <f t="shared" si="3"/>
@@ -10539,7 +10588,7 @@
       </c>
       <c r="J12" s="126">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3415436.6199999996</v>
       </c>
       <c r="K12" s="126">
         <f t="shared" si="7"/>
@@ -10588,7 +10637,7 @@
       </c>
       <c r="J13" s="126">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3415436.6199999996</v>
       </c>
       <c r="K13" s="126">
         <f t="shared" si="8"/>
@@ -10648,10 +10697,10 @@
       <c r="B2" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="218" t="s">
+      <c r="C2" s="209" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="219"/>
+      <c r="D2" s="210"/>
       <c r="E2" s="100" t="s">
         <v>51</v>
       </c>
@@ -10684,10 +10733,10 @@
       </c>
     </row>
     <row r="3" spans="2:14" ht="23.5" customHeight="1">
-      <c r="B3" s="198" t="s">
+      <c r="B3" s="211" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="201" t="s">
+      <c r="C3" s="214" t="s">
         <v>62</v>
       </c>
       <c r="D3" s="101" t="s">
@@ -10715,18 +10764,18 @@
       <c r="L3" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="M3" s="209">
+      <c r="M3" s="200">
         <f>SUM(J3:J10)</f>
         <v>58430.5</v>
       </c>
-      <c r="N3" s="214">
+      <c r="N3" s="205">
         <f>SUM(M3:M25)</f>
         <v>104966.35</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="23" customHeight="1">
-      <c r="B4" s="199"/>
-      <c r="C4" s="202"/>
+      <c r="B4" s="212"/>
+      <c r="C4" s="215"/>
       <c r="D4" s="102" t="s">
         <v>70</v>
       </c>
@@ -10750,12 +10799,12 @@
       </c>
       <c r="K4" s="105"/>
       <c r="L4" s="105"/>
-      <c r="M4" s="210"/>
-      <c r="N4" s="215"/>
+      <c r="M4" s="201"/>
+      <c r="N4" s="206"/>
     </row>
     <row r="5" spans="2:14" ht="23" customHeight="1">
-      <c r="B5" s="199"/>
-      <c r="C5" s="203" t="s">
+      <c r="B5" s="212"/>
+      <c r="C5" s="216" t="s">
         <v>74</v>
       </c>
       <c r="D5" s="103" t="s">
@@ -10783,12 +10832,12 @@
       <c r="L5" s="103" t="s">
         <v>80</v>
       </c>
-      <c r="M5" s="211"/>
-      <c r="N5" s="216"/>
+      <c r="M5" s="202"/>
+      <c r="N5" s="207"/>
     </row>
     <row r="6" spans="2:14" ht="23" customHeight="1">
-      <c r="B6" s="199"/>
-      <c r="C6" s="202"/>
+      <c r="B6" s="212"/>
+      <c r="C6" s="215"/>
       <c r="D6" s="102" t="s">
         <v>81</v>
       </c>
@@ -10812,11 +10861,11 @@
       </c>
       <c r="K6" s="105"/>
       <c r="L6" s="105"/>
-      <c r="M6" s="210"/>
-      <c r="N6" s="215"/>
+      <c r="M6" s="201"/>
+      <c r="N6" s="206"/>
     </row>
     <row r="7" spans="2:14" ht="23" customHeight="1">
-      <c r="B7" s="199"/>
+      <c r="B7" s="212"/>
       <c r="C7" s="103" t="s">
         <v>87</v>
       </c>
@@ -10843,12 +10892,12 @@
       </c>
       <c r="K7" s="110"/>
       <c r="L7" s="110"/>
-      <c r="M7" s="211"/>
-      <c r="N7" s="216"/>
+      <c r="M7" s="202"/>
+      <c r="N7" s="207"/>
     </row>
     <row r="8" spans="2:14" ht="23" customHeight="1">
-      <c r="B8" s="199"/>
-      <c r="C8" s="204" t="s">
+      <c r="B8" s="212"/>
+      <c r="C8" s="217" t="s">
         <v>92</v>
       </c>
       <c r="D8" s="102" t="s">
@@ -10874,12 +10923,12 @@
       </c>
       <c r="K8" s="105"/>
       <c r="L8" s="105"/>
-      <c r="M8" s="210"/>
-      <c r="N8" s="215"/>
+      <c r="M8" s="201"/>
+      <c r="N8" s="206"/>
     </row>
     <row r="9" spans="2:14" ht="23" customHeight="1">
-      <c r="B9" s="199"/>
-      <c r="C9" s="205"/>
+      <c r="B9" s="212"/>
+      <c r="C9" s="218"/>
       <c r="D9" s="103" t="s">
         <v>97</v>
       </c>
@@ -10903,11 +10952,11 @@
       </c>
       <c r="K9" s="110"/>
       <c r="L9" s="110"/>
-      <c r="M9" s="211"/>
-      <c r="N9" s="216"/>
+      <c r="M9" s="202"/>
+      <c r="N9" s="207"/>
     </row>
     <row r="10" spans="2:14" ht="23.5" customHeight="1">
-      <c r="B10" s="200"/>
+      <c r="B10" s="213"/>
       <c r="C10" s="104" t="s">
         <v>101</v>
       </c>
@@ -10934,14 +10983,14 @@
       </c>
       <c r="K10" s="112"/>
       <c r="L10" s="112"/>
-      <c r="M10" s="212"/>
-      <c r="N10" s="215"/>
+      <c r="M10" s="203"/>
+      <c r="N10" s="206"/>
     </row>
     <row r="11" spans="2:14" ht="23.5" customHeight="1">
-      <c r="B11" s="198" t="s">
+      <c r="B11" s="211" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="201" t="s">
+      <c r="C11" s="214" t="s">
         <v>62</v>
       </c>
       <c r="D11" s="101" t="s">
@@ -10967,15 +11016,15 @@
       </c>
       <c r="K11" s="108"/>
       <c r="L11" s="108"/>
-      <c r="M11" s="209">
+      <c r="M11" s="200">
         <f>SUM(J11:J18)</f>
         <v>9113.5</v>
       </c>
-      <c r="N11" s="216"/>
+      <c r="N11" s="207"/>
     </row>
     <row r="12" spans="2:14" ht="23" customHeight="1">
-      <c r="B12" s="199"/>
-      <c r="C12" s="206"/>
+      <c r="B12" s="212"/>
+      <c r="C12" s="219"/>
       <c r="D12" s="102" t="s">
         <v>70</v>
       </c>
@@ -10999,12 +11048,12 @@
       </c>
       <c r="K12" s="105"/>
       <c r="L12" s="105"/>
-      <c r="M12" s="210"/>
-      <c r="N12" s="215"/>
+      <c r="M12" s="201"/>
+      <c r="N12" s="206"/>
     </row>
     <row r="13" spans="2:14" ht="23" customHeight="1">
-      <c r="B13" s="199"/>
-      <c r="C13" s="207"/>
+      <c r="B13" s="212"/>
+      <c r="C13" s="220"/>
       <c r="D13" s="103" t="s">
         <v>70</v>
       </c>
@@ -11030,12 +11079,12 @@
       <c r="L13" s="103" t="s">
         <v>115</v>
       </c>
-      <c r="M13" s="211"/>
-      <c r="N13" s="216"/>
+      <c r="M13" s="202"/>
+      <c r="N13" s="207"/>
     </row>
     <row r="14" spans="2:14" ht="23" customHeight="1">
-      <c r="B14" s="199"/>
-      <c r="C14" s="204" t="s">
+      <c r="B14" s="212"/>
+      <c r="C14" s="217" t="s">
         <v>74</v>
       </c>
       <c r="D14" s="102" t="s">
@@ -11061,12 +11110,12 @@
       </c>
       <c r="K14" s="105"/>
       <c r="L14" s="105"/>
-      <c r="M14" s="210"/>
-      <c r="N14" s="215"/>
+      <c r="M14" s="201"/>
+      <c r="N14" s="206"/>
     </row>
     <row r="15" spans="2:14" ht="23" customHeight="1">
-      <c r="B15" s="199"/>
-      <c r="C15" s="205"/>
+      <c r="B15" s="212"/>
+      <c r="C15" s="218"/>
       <c r="D15" s="103" t="s">
         <v>75</v>
       </c>
@@ -11090,11 +11139,11 @@
       </c>
       <c r="K15" s="110"/>
       <c r="L15" s="110"/>
-      <c r="M15" s="211"/>
-      <c r="N15" s="216"/>
+      <c r="M15" s="202"/>
+      <c r="N15" s="207"/>
     </row>
     <row r="16" spans="2:14" ht="23" customHeight="1">
-      <c r="B16" s="199"/>
+      <c r="B16" s="212"/>
       <c r="C16" s="102" t="s">
         <v>87</v>
       </c>
@@ -11121,12 +11170,12 @@
       </c>
       <c r="K16" s="105"/>
       <c r="L16" s="105"/>
-      <c r="M16" s="210"/>
-      <c r="N16" s="215"/>
+      <c r="M16" s="201"/>
+      <c r="N16" s="206"/>
     </row>
     <row r="17" spans="2:14" ht="23" customHeight="1">
-      <c r="B17" s="199"/>
-      <c r="C17" s="203" t="s">
+      <c r="B17" s="212"/>
+      <c r="C17" s="216" t="s">
         <v>92</v>
       </c>
       <c r="D17" s="103" t="s">
@@ -11152,12 +11201,12 @@
       </c>
       <c r="K17" s="110"/>
       <c r="L17" s="110"/>
-      <c r="M17" s="211"/>
-      <c r="N17" s="216"/>
+      <c r="M17" s="202"/>
+      <c r="N17" s="207"/>
     </row>
     <row r="18" spans="2:14" ht="23.5" customHeight="1">
-      <c r="B18" s="200"/>
-      <c r="C18" s="206"/>
+      <c r="B18" s="213"/>
+      <c r="C18" s="219"/>
       <c r="D18" s="104" t="s">
         <v>93</v>
       </c>
@@ -11181,14 +11230,14 @@
       </c>
       <c r="K18" s="112"/>
       <c r="L18" s="112"/>
-      <c r="M18" s="212"/>
-      <c r="N18" s="215"/>
+      <c r="M18" s="203"/>
+      <c r="N18" s="206"/>
     </row>
     <row r="19" spans="2:14" ht="23.5" customHeight="1">
-      <c r="B19" s="198" t="s">
+      <c r="B19" s="211" t="s">
         <v>125</v>
       </c>
-      <c r="C19" s="201" t="s">
+      <c r="C19" s="214" t="s">
         <v>62</v>
       </c>
       <c r="D19" s="101" t="s">
@@ -11214,15 +11263,15 @@
       </c>
       <c r="K19" s="108"/>
       <c r="L19" s="108"/>
-      <c r="M19" s="209">
+      <c r="M19" s="200">
         <f>SUM(J19:J25)</f>
         <v>37422.35</v>
       </c>
-      <c r="N19" s="216"/>
+      <c r="N19" s="207"/>
     </row>
     <row r="20" spans="2:14" ht="23" customHeight="1">
-      <c r="B20" s="199"/>
-      <c r="C20" s="202"/>
+      <c r="B20" s="212"/>
+      <c r="C20" s="215"/>
       <c r="D20" s="102" t="s">
         <v>70</v>
       </c>
@@ -11246,12 +11295,12 @@
       </c>
       <c r="K20" s="105"/>
       <c r="L20" s="105"/>
-      <c r="M20" s="210"/>
-      <c r="N20" s="215"/>
+      <c r="M20" s="201"/>
+      <c r="N20" s="206"/>
     </row>
     <row r="21" spans="2:14" ht="23" customHeight="1">
-      <c r="B21" s="199"/>
-      <c r="C21" s="203" t="s">
+      <c r="B21" s="212"/>
+      <c r="C21" s="216" t="s">
         <v>74</v>
       </c>
       <c r="D21" s="103" t="s">
@@ -11277,12 +11326,12 @@
       </c>
       <c r="K21" s="110"/>
       <c r="L21" s="110"/>
-      <c r="M21" s="211"/>
-      <c r="N21" s="216"/>
+      <c r="M21" s="202"/>
+      <c r="N21" s="207"/>
     </row>
     <row r="22" spans="2:14" ht="23" customHeight="1">
-      <c r="B22" s="199"/>
-      <c r="C22" s="208"/>
+      <c r="B22" s="212"/>
+      <c r="C22" s="221"/>
       <c r="D22" s="102" t="s">
         <v>132</v>
       </c>
@@ -11306,12 +11355,12 @@
       </c>
       <c r="K22" s="105"/>
       <c r="L22" s="105"/>
-      <c r="M22" s="210"/>
-      <c r="N22" s="215"/>
+      <c r="M22" s="201"/>
+      <c r="N22" s="206"/>
     </row>
     <row r="23" spans="2:14" ht="23" customHeight="1">
-      <c r="B23" s="199"/>
-      <c r="C23" s="203" t="s">
+      <c r="B23" s="212"/>
+      <c r="C23" s="216" t="s">
         <v>92</v>
       </c>
       <c r="D23" s="103" t="s">
@@ -11337,12 +11386,12 @@
       </c>
       <c r="K23" s="110"/>
       <c r="L23" s="110"/>
-      <c r="M23" s="211"/>
-      <c r="N23" s="216"/>
+      <c r="M23" s="202"/>
+      <c r="N23" s="207"/>
     </row>
     <row r="24" spans="2:14" ht="23" customHeight="1">
-      <c r="B24" s="199"/>
-      <c r="C24" s="202"/>
+      <c r="B24" s="212"/>
+      <c r="C24" s="215"/>
       <c r="D24" s="102" t="s">
         <v>97</v>
       </c>
@@ -11366,11 +11415,11 @@
       </c>
       <c r="K24" s="105"/>
       <c r="L24" s="105"/>
-      <c r="M24" s="210"/>
-      <c r="N24" s="215"/>
+      <c r="M24" s="201"/>
+      <c r="N24" s="206"/>
     </row>
     <row r="25" spans="2:14" ht="23.5" customHeight="1">
-      <c r="B25" s="200"/>
+      <c r="B25" s="213"/>
       <c r="C25" s="106" t="s">
         <v>101</v>
       </c>
@@ -11399,16 +11448,11 @@
       <c r="L25" s="106" t="s">
         <v>143</v>
       </c>
-      <c r="M25" s="213"/>
-      <c r="N25" s="217"/>
+      <c r="M25" s="204"/>
+      <c r="N25" s="208"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="M3:M10"/>
-    <mergeCell ref="M11:M18"/>
-    <mergeCell ref="M19:M25"/>
-    <mergeCell ref="N3:N25"/>
-    <mergeCell ref="C2:D2"/>
     <mergeCell ref="B3:B10"/>
     <mergeCell ref="B11:B18"/>
     <mergeCell ref="B19:B25"/>
@@ -11421,6 +11465,11 @@
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C23:C24"/>
+    <mergeCell ref="M3:M10"/>
+    <mergeCell ref="M11:M18"/>
+    <mergeCell ref="M19:M25"/>
+    <mergeCell ref="N3:N25"/>
+    <mergeCell ref="C2:D2"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -13095,39 +13144,39 @@
   <sheetData>
     <row r="1" spans="2:30" ht="31" customHeight="1"/>
     <row r="2" spans="2:30" ht="25" customHeight="1">
-      <c r="B2" s="220" t="s">
+      <c r="B2" s="240" t="s">
         <v>295</v>
       </c>
-      <c r="C2" s="220"/>
+      <c r="C2" s="240"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="I2" s="220" t="s">
+      <c r="I2" s="240" t="s">
         <v>296</v>
       </c>
-      <c r="J2" s="220"/>
-      <c r="K2" s="220"/>
-      <c r="L2" s="220"/>
-      <c r="M2" s="220"/>
-      <c r="N2" s="220"/>
-      <c r="Q2" s="220" t="s">
+      <c r="J2" s="240"/>
+      <c r="K2" s="240"/>
+      <c r="L2" s="240"/>
+      <c r="M2" s="240"/>
+      <c r="N2" s="240"/>
+      <c r="Q2" s="240" t="s">
         <v>297</v>
       </c>
-      <c r="R2" s="220"/>
-      <c r="S2" s="220"/>
-      <c r="T2" s="220"/>
-      <c r="U2" s="220"/>
-      <c r="V2" s="220"/>
-      <c r="W2" s="220"/>
-      <c r="Y2" s="220" t="s">
+      <c r="R2" s="240"/>
+      <c r="S2" s="240"/>
+      <c r="T2" s="240"/>
+      <c r="U2" s="240"/>
+      <c r="V2" s="240"/>
+      <c r="W2" s="240"/>
+      <c r="Y2" s="240" t="s">
         <v>298</v>
       </c>
-      <c r="Z2" s="220"/>
-      <c r="AA2" s="220"/>
-      <c r="AB2" s="220"/>
-      <c r="AC2" s="220"/>
-      <c r="AD2" s="220"/>
+      <c r="Z2" s="240"/>
+      <c r="AA2" s="240"/>
+      <c r="AB2" s="240"/>
+      <c r="AC2" s="240"/>
+      <c r="AD2" s="240"/>
     </row>
     <row r="3" spans="2:30" ht="20" customHeight="1">
       <c r="B3" s="3" t="s">
@@ -13209,7 +13258,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="I4" s="234" t="s">
+      <c r="I4" s="229" t="s">
         <v>317</v>
       </c>
       <c r="J4" s="47" t="s">
@@ -13218,14 +13267,14 @@
       <c r="K4" s="48">
         <v>13000</v>
       </c>
-      <c r="L4" s="240">
+      <c r="L4" s="235">
         <f>SUM(K4:K8)</f>
         <v>13000</v>
       </c>
       <c r="M4" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="N4" s="221">
+      <c r="N4" s="241">
         <f>L4/J14</f>
         <v>0.56521739130434778</v>
       </c>
@@ -13289,18 +13338,18 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="I5" s="235"/>
+      <c r="I5" s="230"/>
       <c r="J5" s="47" t="s">
         <v>320</v>
       </c>
       <c r="K5" s="48">
         <v>0</v>
       </c>
-      <c r="L5" s="222"/>
+      <c r="L5" s="236"/>
       <c r="M5" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="N5" s="222"/>
+      <c r="N5" s="236"/>
       <c r="Q5" s="63" t="s">
         <v>254</v>
       </c>
@@ -13364,16 +13413,16 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-      <c r="I6" s="236"/>
+      <c r="I6" s="231"/>
       <c r="J6" s="47" t="s">
         <v>322</v>
       </c>
       <c r="K6" s="49"/>
-      <c r="L6" s="223"/>
+      <c r="L6" s="237"/>
       <c r="M6" s="54">
         <v>582000</v>
       </c>
-      <c r="N6" s="223"/>
+      <c r="N6" s="237"/>
       <c r="Q6" s="63" t="s">
         <v>256</v>
       </c>
@@ -13438,16 +13487,16 @@
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
-      <c r="I7" s="237"/>
+      <c r="I7" s="232"/>
       <c r="J7" s="47" t="s">
         <v>324</v>
       </c>
       <c r="K7" s="48">
         <v>0</v>
       </c>
-      <c r="L7" s="224"/>
+      <c r="L7" s="238"/>
       <c r="M7" s="55"/>
-      <c r="N7" s="224"/>
+      <c r="N7" s="238"/>
       <c r="Q7" s="63" t="s">
         <v>258</v>
       </c>
@@ -13511,14 +13560,14 @@
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="I8" s="237"/>
+      <c r="I8" s="232"/>
       <c r="J8" s="47" t="s">
         <v>326</v>
       </c>
       <c r="K8" s="49"/>
-      <c r="L8" s="224"/>
+      <c r="L8" s="238"/>
       <c r="M8" s="55"/>
-      <c r="N8" s="224"/>
+      <c r="N8" s="238"/>
       <c r="Q8" s="63" t="s">
         <v>260</v>
       </c>
@@ -13572,21 +13621,21 @@
       </c>
     </row>
     <row r="9" spans="2:30" ht="20" customHeight="1">
-      <c r="I9" s="234" t="s">
+      <c r="I9" s="229" t="s">
         <v>327</v>
       </c>
       <c r="J9" s="47" t="s">
         <v>328</v>
       </c>
       <c r="K9" s="49"/>
-      <c r="L9" s="241">
+      <c r="L9" s="239">
         <f>SUM(K9:K13)</f>
         <v>10000</v>
       </c>
       <c r="M9" s="54">
         <v>1000000</v>
       </c>
-      <c r="N9" s="225">
+      <c r="N9" s="242">
         <f>L9/J14</f>
         <v>0.43478260869565216</v>
       </c>
@@ -13643,18 +13692,18 @@
       </c>
     </row>
     <row r="10" spans="2:30" ht="20" customHeight="1">
-      <c r="I10" s="238"/>
+      <c r="I10" s="233"/>
       <c r="J10" s="47" t="s">
         <v>329</v>
       </c>
       <c r="K10" s="48">
         <v>0</v>
       </c>
-      <c r="L10" s="222"/>
+      <c r="L10" s="236"/>
       <c r="M10" s="54">
         <v>400000</v>
       </c>
-      <c r="N10" s="222"/>
+      <c r="N10" s="236"/>
       <c r="Q10" s="63" t="s">
         <v>264</v>
       </c>
@@ -13708,18 +13757,18 @@
       </c>
     </row>
     <row r="11" spans="2:30" ht="20" customHeight="1">
-      <c r="I11" s="238"/>
+      <c r="I11" s="233"/>
       <c r="J11" s="47" t="s">
         <v>330</v>
       </c>
       <c r="K11" s="50">
         <v>10000</v>
       </c>
-      <c r="L11" s="222"/>
+      <c r="L11" s="236"/>
       <c r="M11" s="56">
         <v>2000000</v>
       </c>
-      <c r="N11" s="222"/>
+      <c r="N11" s="236"/>
       <c r="Q11" s="63" t="s">
         <v>266</v>
       </c>
@@ -13773,24 +13822,24 @@
       </c>
     </row>
     <row r="12" spans="2:30" ht="20" customHeight="1">
-      <c r="B12" s="220" t="s">
+      <c r="B12" s="240" t="s">
         <v>331</v>
       </c>
-      <c r="C12" s="220"/>
-      <c r="D12" s="220"/>
-      <c r="E12" s="220"/>
-      <c r="F12" s="220"/>
-      <c r="G12" s="220"/>
-      <c r="I12" s="238"/>
+      <c r="C12" s="240"/>
+      <c r="D12" s="240"/>
+      <c r="E12" s="240"/>
+      <c r="F12" s="240"/>
+      <c r="G12" s="240"/>
+      <c r="I12" s="233"/>
       <c r="J12" s="47" t="s">
         <v>332</v>
       </c>
       <c r="K12" s="48">
         <v>0</v>
       </c>
-      <c r="L12" s="222"/>
+      <c r="L12" s="236"/>
       <c r="M12" s="55"/>
-      <c r="N12" s="222"/>
+      <c r="N12" s="236"/>
       <c r="Q12" s="63" t="s">
         <v>268</v>
       </c>
@@ -13862,16 +13911,16 @@
       <c r="G13" s="30" t="s">
         <v>336</v>
       </c>
-      <c r="I13" s="239"/>
+      <c r="I13" s="234"/>
       <c r="J13" s="51" t="s">
         <v>338</v>
       </c>
       <c r="K13" s="51" t="s">
         <v>338</v>
       </c>
-      <c r="L13" s="223"/>
+      <c r="L13" s="237"/>
       <c r="M13" s="55"/>
-      <c r="N13" s="226"/>
+      <c r="N13" s="243"/>
       <c r="Q13" s="63" t="s">
         <v>270</v>
       </c>
@@ -13948,12 +13997,12 @@
       <c r="I14" s="52" t="s">
         <v>339</v>
       </c>
-      <c r="J14" s="227">
+      <c r="J14" s="222">
         <f>SUM(K4:K13)</f>
         <v>23000</v>
       </c>
-      <c r="K14" s="228"/>
-      <c r="L14" s="229"/>
+      <c r="K14" s="223"/>
+      <c r="L14" s="224"/>
       <c r="M14" s="57">
         <f>SUM(M5:M11)</f>
         <v>3982000</v>
@@ -14036,12 +14085,12 @@
       <c r="I15" s="52" t="s">
         <v>340</v>
       </c>
-      <c r="J15" s="227">
+      <c r="J15" s="222">
         <f>J14/C7</f>
         <v>5321.681319084737</v>
       </c>
-      <c r="K15" s="228"/>
-      <c r="L15" s="230"/>
+      <c r="K15" s="223"/>
+      <c r="L15" s="225"/>
       <c r="M15" s="55"/>
       <c r="N15" s="59"/>
       <c r="Q15" s="63" t="s">
@@ -14121,13 +14170,13 @@
       <c r="I16" s="52" t="s">
         <v>341</v>
       </c>
-      <c r="J16" s="231">
+      <c r="J16" s="226">
         <f>J14/C7</f>
         <v>5321.681319084737</v>
       </c>
-      <c r="K16" s="232"/>
-      <c r="L16" s="232"/>
-      <c r="M16" s="233"/>
+      <c r="K16" s="227"/>
+      <c r="L16" s="227"/>
+      <c r="M16" s="228"/>
       <c r="N16" s="60"/>
       <c r="Q16" s="63" t="s">
         <v>276</v>
@@ -15520,6 +15569,13 @@
     <row r="110" ht="26.4" customHeight="1"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="Q2:W2"/>
+    <mergeCell ref="Y2:AD2"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="N4:N8"/>
+    <mergeCell ref="N9:N13"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J16:M16"/>
@@ -15527,13 +15583,6 @@
     <mergeCell ref="I9:I13"/>
     <mergeCell ref="L4:L8"/>
     <mergeCell ref="L9:L13"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="Q2:W2"/>
-    <mergeCell ref="Y2:AD2"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="N4:N8"/>
-    <mergeCell ref="N9:N13"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/article/家庭财务管理手册2025.xlsx
+++ b/article/家庭财务管理手册2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18717\Documents\GitHub\luyao.github.io\article\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A66E78-75B3-4794-A00C-754DA7B75DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76B8981-CBB3-4C04-AB29-CA68B75CD4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4622,6 +4622,39 @@
     <xf numFmtId="0" fontId="13" fillId="17" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4655,38 +4688,26 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4730,29 +4751,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6342,6 +6342,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>5466276.4900000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5908322.3900000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8786,9 +8789,9 @@
   </sheetPr>
   <dimension ref="B1:P15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R19" sqref="R19"/>
+      <selection pane="bottomLeft" activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -9071,8 +9074,14 @@
       <c r="K12" s="137"/>
       <c r="L12" s="138"/>
       <c r="M12" s="141"/>
-      <c r="N12" s="138"/>
-      <c r="O12" s="191"/>
+      <c r="N12" s="138">
+        <f>'3、存量资产-y'!K26+'3、存量资产-k'!K13</f>
+        <v>5908322.3900000006</v>
+      </c>
+      <c r="O12" s="191">
+        <f>(6500000-N12)/1000000</f>
+        <v>0.59167760999999941</v>
+      </c>
     </row>
     <row r="13" spans="2:16" ht="24.65" customHeight="1">
       <c r="B13" s="130">
@@ -9210,7 +9219,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J21" sqref="J21"/>
+      <selection pane="bottomRight" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -9288,7 +9297,9 @@
       <c r="J2" s="119">
         <v>11920</v>
       </c>
-      <c r="K2" s="119"/>
+      <c r="K2" s="119">
+        <v>11978</v>
+      </c>
       <c r="L2" s="119"/>
       <c r="M2" s="128"/>
     </row>
@@ -9321,7 +9332,9 @@
       <c r="J3" s="120">
         <v>107404.85</v>
       </c>
-      <c r="K3" s="120"/>
+      <c r="K3" s="120">
+        <v>113137.2</v>
+      </c>
       <c r="L3" s="120"/>
       <c r="M3" s="128"/>
     </row>
@@ -9354,7 +9367,9 @@
       <c r="J4" s="119">
         <v>1562</v>
       </c>
-      <c r="K4" s="119"/>
+      <c r="K4" s="119">
+        <v>400</v>
+      </c>
       <c r="L4" s="119"/>
       <c r="M4" s="128"/>
     </row>
@@ -9387,7 +9402,9 @@
       <c r="J5" s="120">
         <v>430</v>
       </c>
-      <c r="K5" s="120"/>
+      <c r="K5" s="120">
+        <v>1000</v>
+      </c>
       <c r="L5" s="120"/>
       <c r="M5" s="128"/>
     </row>
@@ -9420,7 +9437,9 @@
       <c r="J6" s="119">
         <v>91332.31</v>
       </c>
-      <c r="K6" s="119"/>
+      <c r="K6" s="119">
+        <v>92764</v>
+      </c>
       <c r="L6" s="119"/>
       <c r="M6" s="128"/>
     </row>
@@ -9482,7 +9501,9 @@
       <c r="J8" s="119">
         <v>19912</v>
       </c>
-      <c r="K8" s="119"/>
+      <c r="K8" s="119">
+        <v>22367</v>
+      </c>
       <c r="L8" s="119"/>
       <c r="M8" s="128"/>
     </row>
@@ -9513,7 +9534,9 @@
       <c r="J9" s="119">
         <v>225</v>
       </c>
-      <c r="K9" s="119"/>
+      <c r="K9" s="119">
+        <v>69.819999999999993</v>
+      </c>
       <c r="L9" s="119"/>
       <c r="M9" s="128"/>
     </row>
@@ -9542,7 +9565,9 @@
         <v>6834</v>
       </c>
       <c r="J10" s="119"/>
-      <c r="K10" s="119"/>
+      <c r="K10" s="119">
+        <v>36564</v>
+      </c>
       <c r="L10" s="119"/>
       <c r="M10" s="128"/>
     </row>
@@ -9651,7 +9676,9 @@
       <c r="J13" s="119">
         <v>20141.59</v>
       </c>
-      <c r="K13" s="119"/>
+      <c r="K13" s="119">
+        <v>20096</v>
+      </c>
       <c r="L13" s="119"/>
       <c r="M13" s="128"/>
     </row>
@@ -9678,7 +9705,9 @@
       <c r="J14" s="119">
         <v>394871.84</v>
       </c>
-      <c r="K14" s="119"/>
+      <c r="K14" s="119">
+        <v>395128</v>
+      </c>
       <c r="L14" s="119"/>
       <c r="M14" s="128"/>
     </row>
@@ -9703,7 +9732,9 @@
       <c r="J15" s="119">
         <v>32595.56</v>
       </c>
-      <c r="K15" s="119"/>
+      <c r="K15" s="119">
+        <v>32463</v>
+      </c>
       <c r="L15" s="119"/>
       <c r="M15" s="128"/>
     </row>
@@ -9728,7 +9759,9 @@
       <c r="J16" s="119">
         <v>102679.72</v>
       </c>
-      <c r="K16" s="119"/>
+      <c r="K16" s="119">
+        <v>102611</v>
+      </c>
       <c r="L16" s="119"/>
       <c r="M16" s="128"/>
     </row>
@@ -9773,8 +9806,8 @@
         <v>1783074.8700000003</v>
       </c>
       <c r="K17" s="122">
-        <f t="shared" ref="J17:L17" si="0">SUM(K2:K16)</f>
-        <v>1000000</v>
+        <f t="shared" ref="K17:L17" si="0">SUM(K2:K16)</f>
+        <v>1828578.02</v>
       </c>
       <c r="L17" s="122">
         <f t="shared" si="0"/>
@@ -9811,7 +9844,9 @@
       <c r="J18" s="119">
         <v>134981</v>
       </c>
-      <c r="K18" s="119"/>
+      <c r="K18" s="119">
+        <v>135290</v>
+      </c>
       <c r="L18" s="119"/>
       <c r="M18" s="128"/>
     </row>
@@ -9844,7 +9879,9 @@
       <c r="J19" s="119">
         <v>121805</v>
       </c>
-      <c r="K19" s="119"/>
+      <c r="K19" s="119">
+        <v>125649</v>
+      </c>
       <c r="L19" s="119"/>
       <c r="M19" s="128"/>
     </row>
@@ -9877,7 +9914,9 @@
       <c r="J20" s="120">
         <v>10979</v>
       </c>
-      <c r="K20" s="120"/>
+      <c r="K20" s="120">
+        <v>11395</v>
+      </c>
       <c r="L20" s="120"/>
       <c r="M20" s="128"/>
     </row>
@@ -9923,7 +9962,7 @@
       </c>
       <c r="K21" s="124">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>272334</v>
       </c>
       <c r="L21" s="124">
         <f t="shared" si="1"/>
@@ -10057,7 +10096,7 @@
       </c>
       <c r="K25" s="126">
         <f t="shared" si="3"/>
-        <v>1000000</v>
+        <v>2100912.02</v>
       </c>
       <c r="L25" s="126">
         <f t="shared" si="3"/>
@@ -10107,7 +10146,7 @@
       </c>
       <c r="K26" s="126">
         <f t="shared" si="4"/>
-        <v>1000000</v>
+        <v>2100912.02</v>
       </c>
       <c r="L26" s="126">
         <f t="shared" si="4"/>
@@ -10136,7 +10175,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N11" sqref="N11"/>
+      <selection pane="bottomRight" activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -10219,7 +10258,10 @@
         <f>446933*7.14</f>
         <v>3191101.6199999996</v>
       </c>
-      <c r="K2" s="119"/>
+      <c r="K2" s="119">
+        <f>496174*7.12</f>
+        <v>3532758.88</v>
+      </c>
       <c r="L2" s="119"/>
       <c r="M2" s="128"/>
     </row>
@@ -10258,7 +10300,10 @@
         <f>86880+4727+1606+416</f>
         <v>93629</v>
       </c>
-      <c r="K3" s="120"/>
+      <c r="K3" s="120">
+        <f>129091.37+2727.5+234.28+1417.2</f>
+        <v>133470.35</v>
+      </c>
       <c r="L3" s="120"/>
       <c r="M3" s="128"/>
     </row>
@@ -10292,7 +10337,9 @@
       <c r="J4" s="119">
         <v>7657</v>
       </c>
-      <c r="K4" s="119"/>
+      <c r="K4" s="119">
+        <v>8461.4</v>
+      </c>
       <c r="L4" s="119"/>
       <c r="M4" s="128"/>
     </row>
@@ -10337,7 +10384,7 @@
       </c>
       <c r="K5" s="122">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3674690.63</v>
       </c>
       <c r="L5" s="122">
         <f t="shared" si="0"/>
@@ -10380,7 +10427,10 @@
         <f>33429+58692+18372</f>
         <v>110493</v>
       </c>
-      <c r="K6" s="119"/>
+      <c r="K6" s="119">
+        <f>33429.77+58692.25+27558.72</f>
+        <v>119680.73999999999</v>
+      </c>
       <c r="L6" s="119"/>
       <c r="M6" s="128"/>
     </row>
@@ -10415,7 +10465,9 @@
       <c r="J7" s="119">
         <v>12556</v>
       </c>
-      <c r="K7" s="119"/>
+      <c r="K7" s="119">
+        <v>13039</v>
+      </c>
       <c r="L7" s="119"/>
       <c r="M7" s="128"/>
     </row>
@@ -10460,7 +10512,7 @@
       </c>
       <c r="K8" s="124">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>132719.74</v>
       </c>
       <c r="L8" s="124">
         <f t="shared" si="3"/>
@@ -10592,7 +10644,7 @@
       </c>
       <c r="K12" s="126">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3807410.37</v>
       </c>
       <c r="L12" s="126">
         <f t="shared" si="7"/>
@@ -10641,7 +10693,7 @@
       </c>
       <c r="K13" s="126">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3807410.37</v>
       </c>
       <c r="L13" s="126">
         <f t="shared" si="8"/>
@@ -10697,10 +10749,10 @@
       <c r="B2" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="209" t="s">
+      <c r="C2" s="220" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="210"/>
+      <c r="D2" s="221"/>
       <c r="E2" s="100" t="s">
         <v>51</v>
       </c>
@@ -10733,10 +10785,10 @@
       </c>
     </row>
     <row r="3" spans="2:14" ht="23.5" customHeight="1">
-      <c r="B3" s="211" t="s">
+      <c r="B3" s="200" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="214" t="s">
+      <c r="C3" s="203" t="s">
         <v>62</v>
       </c>
       <c r="D3" s="101" t="s">
@@ -10764,18 +10816,18 @@
       <c r="L3" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="M3" s="200">
+      <c r="M3" s="211">
         <f>SUM(J3:J10)</f>
         <v>58430.5</v>
       </c>
-      <c r="N3" s="205">
+      <c r="N3" s="216">
         <f>SUM(M3:M25)</f>
         <v>104966.35</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="23" customHeight="1">
-      <c r="B4" s="212"/>
-      <c r="C4" s="215"/>
+      <c r="B4" s="201"/>
+      <c r="C4" s="204"/>
       <c r="D4" s="102" t="s">
         <v>70</v>
       </c>
@@ -10799,12 +10851,12 @@
       </c>
       <c r="K4" s="105"/>
       <c r="L4" s="105"/>
-      <c r="M4" s="201"/>
-      <c r="N4" s="206"/>
+      <c r="M4" s="212"/>
+      <c r="N4" s="217"/>
     </row>
     <row r="5" spans="2:14" ht="23" customHeight="1">
-      <c r="B5" s="212"/>
-      <c r="C5" s="216" t="s">
+      <c r="B5" s="201"/>
+      <c r="C5" s="205" t="s">
         <v>74</v>
       </c>
       <c r="D5" s="103" t="s">
@@ -10832,12 +10884,12 @@
       <c r="L5" s="103" t="s">
         <v>80</v>
       </c>
-      <c r="M5" s="202"/>
-      <c r="N5" s="207"/>
+      <c r="M5" s="213"/>
+      <c r="N5" s="218"/>
     </row>
     <row r="6" spans="2:14" ht="23" customHeight="1">
-      <c r="B6" s="212"/>
-      <c r="C6" s="215"/>
+      <c r="B6" s="201"/>
+      <c r="C6" s="204"/>
       <c r="D6" s="102" t="s">
         <v>81</v>
       </c>
@@ -10861,11 +10913,11 @@
       </c>
       <c r="K6" s="105"/>
       <c r="L6" s="105"/>
-      <c r="M6" s="201"/>
-      <c r="N6" s="206"/>
+      <c r="M6" s="212"/>
+      <c r="N6" s="217"/>
     </row>
     <row r="7" spans="2:14" ht="23" customHeight="1">
-      <c r="B7" s="212"/>
+      <c r="B7" s="201"/>
       <c r="C7" s="103" t="s">
         <v>87</v>
       </c>
@@ -10892,12 +10944,12 @@
       </c>
       <c r="K7" s="110"/>
       <c r="L7" s="110"/>
-      <c r="M7" s="202"/>
-      <c r="N7" s="207"/>
+      <c r="M7" s="213"/>
+      <c r="N7" s="218"/>
     </row>
     <row r="8" spans="2:14" ht="23" customHeight="1">
-      <c r="B8" s="212"/>
-      <c r="C8" s="217" t="s">
+      <c r="B8" s="201"/>
+      <c r="C8" s="206" t="s">
         <v>92</v>
       </c>
       <c r="D8" s="102" t="s">
@@ -10923,12 +10975,12 @@
       </c>
       <c r="K8" s="105"/>
       <c r="L8" s="105"/>
-      <c r="M8" s="201"/>
-      <c r="N8" s="206"/>
+      <c r="M8" s="212"/>
+      <c r="N8" s="217"/>
     </row>
     <row r="9" spans="2:14" ht="23" customHeight="1">
-      <c r="B9" s="212"/>
-      <c r="C9" s="218"/>
+      <c r="B9" s="201"/>
+      <c r="C9" s="207"/>
       <c r="D9" s="103" t="s">
         <v>97</v>
       </c>
@@ -10952,11 +11004,11 @@
       </c>
       <c r="K9" s="110"/>
       <c r="L9" s="110"/>
-      <c r="M9" s="202"/>
-      <c r="N9" s="207"/>
+      <c r="M9" s="213"/>
+      <c r="N9" s="218"/>
     </row>
     <row r="10" spans="2:14" ht="23.5" customHeight="1">
-      <c r="B10" s="213"/>
+      <c r="B10" s="202"/>
       <c r="C10" s="104" t="s">
         <v>101</v>
       </c>
@@ -10983,14 +11035,14 @@
       </c>
       <c r="K10" s="112"/>
       <c r="L10" s="112"/>
-      <c r="M10" s="203"/>
-      <c r="N10" s="206"/>
+      <c r="M10" s="214"/>
+      <c r="N10" s="217"/>
     </row>
     <row r="11" spans="2:14" ht="23.5" customHeight="1">
-      <c r="B11" s="211" t="s">
+      <c r="B11" s="200" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="214" t="s">
+      <c r="C11" s="203" t="s">
         <v>62</v>
       </c>
       <c r="D11" s="101" t="s">
@@ -11016,15 +11068,15 @@
       </c>
       <c r="K11" s="108"/>
       <c r="L11" s="108"/>
-      <c r="M11" s="200">
+      <c r="M11" s="211">
         <f>SUM(J11:J18)</f>
         <v>9113.5</v>
       </c>
-      <c r="N11" s="207"/>
+      <c r="N11" s="218"/>
     </row>
     <row r="12" spans="2:14" ht="23" customHeight="1">
-      <c r="B12" s="212"/>
-      <c r="C12" s="219"/>
+      <c r="B12" s="201"/>
+      <c r="C12" s="208"/>
       <c r="D12" s="102" t="s">
         <v>70</v>
       </c>
@@ -11048,12 +11100,12 @@
       </c>
       <c r="K12" s="105"/>
       <c r="L12" s="105"/>
-      <c r="M12" s="201"/>
-      <c r="N12" s="206"/>
+      <c r="M12" s="212"/>
+      <c r="N12" s="217"/>
     </row>
     <row r="13" spans="2:14" ht="23" customHeight="1">
-      <c r="B13" s="212"/>
-      <c r="C13" s="220"/>
+      <c r="B13" s="201"/>
+      <c r="C13" s="209"/>
       <c r="D13" s="103" t="s">
         <v>70</v>
       </c>
@@ -11079,12 +11131,12 @@
       <c r="L13" s="103" t="s">
         <v>115</v>
       </c>
-      <c r="M13" s="202"/>
-      <c r="N13" s="207"/>
+      <c r="M13" s="213"/>
+      <c r="N13" s="218"/>
     </row>
     <row r="14" spans="2:14" ht="23" customHeight="1">
-      <c r="B14" s="212"/>
-      <c r="C14" s="217" t="s">
+      <c r="B14" s="201"/>
+      <c r="C14" s="206" t="s">
         <v>74</v>
       </c>
       <c r="D14" s="102" t="s">
@@ -11110,12 +11162,12 @@
       </c>
       <c r="K14" s="105"/>
       <c r="L14" s="105"/>
-      <c r="M14" s="201"/>
-      <c r="N14" s="206"/>
+      <c r="M14" s="212"/>
+      <c r="N14" s="217"/>
     </row>
     <row r="15" spans="2:14" ht="23" customHeight="1">
-      <c r="B15" s="212"/>
-      <c r="C15" s="218"/>
+      <c r="B15" s="201"/>
+      <c r="C15" s="207"/>
       <c r="D15" s="103" t="s">
         <v>75</v>
       </c>
@@ -11139,11 +11191,11 @@
       </c>
       <c r="K15" s="110"/>
       <c r="L15" s="110"/>
-      <c r="M15" s="202"/>
-      <c r="N15" s="207"/>
+      <c r="M15" s="213"/>
+      <c r="N15" s="218"/>
     </row>
     <row r="16" spans="2:14" ht="23" customHeight="1">
-      <c r="B16" s="212"/>
+      <c r="B16" s="201"/>
       <c r="C16" s="102" t="s">
         <v>87</v>
       </c>
@@ -11170,12 +11222,12 @@
       </c>
       <c r="K16" s="105"/>
       <c r="L16" s="105"/>
-      <c r="M16" s="201"/>
-      <c r="N16" s="206"/>
+      <c r="M16" s="212"/>
+      <c r="N16" s="217"/>
     </row>
     <row r="17" spans="2:14" ht="23" customHeight="1">
-      <c r="B17" s="212"/>
-      <c r="C17" s="216" t="s">
+      <c r="B17" s="201"/>
+      <c r="C17" s="205" t="s">
         <v>92</v>
       </c>
       <c r="D17" s="103" t="s">
@@ -11201,12 +11253,12 @@
       </c>
       <c r="K17" s="110"/>
       <c r="L17" s="110"/>
-      <c r="M17" s="202"/>
-      <c r="N17" s="207"/>
+      <c r="M17" s="213"/>
+      <c r="N17" s="218"/>
     </row>
     <row r="18" spans="2:14" ht="23.5" customHeight="1">
-      <c r="B18" s="213"/>
-      <c r="C18" s="219"/>
+      <c r="B18" s="202"/>
+      <c r="C18" s="208"/>
       <c r="D18" s="104" t="s">
         <v>93</v>
       </c>
@@ -11230,14 +11282,14 @@
       </c>
       <c r="K18" s="112"/>
       <c r="L18" s="112"/>
-      <c r="M18" s="203"/>
-      <c r="N18" s="206"/>
+      <c r="M18" s="214"/>
+      <c r="N18" s="217"/>
     </row>
     <row r="19" spans="2:14" ht="23.5" customHeight="1">
-      <c r="B19" s="211" t="s">
+      <c r="B19" s="200" t="s">
         <v>125</v>
       </c>
-      <c r="C19" s="214" t="s">
+      <c r="C19" s="203" t="s">
         <v>62</v>
       </c>
       <c r="D19" s="101" t="s">
@@ -11263,15 +11315,15 @@
       </c>
       <c r="K19" s="108"/>
       <c r="L19" s="108"/>
-      <c r="M19" s="200">
+      <c r="M19" s="211">
         <f>SUM(J19:J25)</f>
         <v>37422.35</v>
       </c>
-      <c r="N19" s="207"/>
+      <c r="N19" s="218"/>
     </row>
     <row r="20" spans="2:14" ht="23" customHeight="1">
-      <c r="B20" s="212"/>
-      <c r="C20" s="215"/>
+      <c r="B20" s="201"/>
+      <c r="C20" s="204"/>
       <c r="D20" s="102" t="s">
         <v>70</v>
       </c>
@@ -11295,12 +11347,12 @@
       </c>
       <c r="K20" s="105"/>
       <c r="L20" s="105"/>
-      <c r="M20" s="201"/>
-      <c r="N20" s="206"/>
+      <c r="M20" s="212"/>
+      <c r="N20" s="217"/>
     </row>
     <row r="21" spans="2:14" ht="23" customHeight="1">
-      <c r="B21" s="212"/>
-      <c r="C21" s="216" t="s">
+      <c r="B21" s="201"/>
+      <c r="C21" s="205" t="s">
         <v>74</v>
       </c>
       <c r="D21" s="103" t="s">
@@ -11326,12 +11378,12 @@
       </c>
       <c r="K21" s="110"/>
       <c r="L21" s="110"/>
-      <c r="M21" s="202"/>
-      <c r="N21" s="207"/>
+      <c r="M21" s="213"/>
+      <c r="N21" s="218"/>
     </row>
     <row r="22" spans="2:14" ht="23" customHeight="1">
-      <c r="B22" s="212"/>
-      <c r="C22" s="221"/>
+      <c r="B22" s="201"/>
+      <c r="C22" s="210"/>
       <c r="D22" s="102" t="s">
         <v>132</v>
       </c>
@@ -11355,12 +11407,12 @@
       </c>
       <c r="K22" s="105"/>
       <c r="L22" s="105"/>
-      <c r="M22" s="201"/>
-      <c r="N22" s="206"/>
+      <c r="M22" s="212"/>
+      <c r="N22" s="217"/>
     </row>
     <row r="23" spans="2:14" ht="23" customHeight="1">
-      <c r="B23" s="212"/>
-      <c r="C23" s="216" t="s">
+      <c r="B23" s="201"/>
+      <c r="C23" s="205" t="s">
         <v>92</v>
       </c>
       <c r="D23" s="103" t="s">
@@ -11386,12 +11438,12 @@
       </c>
       <c r="K23" s="110"/>
       <c r="L23" s="110"/>
-      <c r="M23" s="202"/>
-      <c r="N23" s="207"/>
+      <c r="M23" s="213"/>
+      <c r="N23" s="218"/>
     </row>
     <row r="24" spans="2:14" ht="23" customHeight="1">
-      <c r="B24" s="212"/>
-      <c r="C24" s="215"/>
+      <c r="B24" s="201"/>
+      <c r="C24" s="204"/>
       <c r="D24" s="102" t="s">
         <v>97</v>
       </c>
@@ -11415,11 +11467,11 @@
       </c>
       <c r="K24" s="105"/>
       <c r="L24" s="105"/>
-      <c r="M24" s="201"/>
-      <c r="N24" s="206"/>
+      <c r="M24" s="212"/>
+      <c r="N24" s="217"/>
     </row>
     <row r="25" spans="2:14" ht="23.5" customHeight="1">
-      <c r="B25" s="213"/>
+      <c r="B25" s="202"/>
       <c r="C25" s="106" t="s">
         <v>101</v>
       </c>
@@ -11448,11 +11500,16 @@
       <c r="L25" s="106" t="s">
         <v>143</v>
       </c>
-      <c r="M25" s="204"/>
-      <c r="N25" s="208"/>
+      <c r="M25" s="215"/>
+      <c r="N25" s="219"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="M3:M10"/>
+    <mergeCell ref="M11:M18"/>
+    <mergeCell ref="M19:M25"/>
+    <mergeCell ref="N3:N25"/>
+    <mergeCell ref="C2:D2"/>
     <mergeCell ref="B3:B10"/>
     <mergeCell ref="B11:B18"/>
     <mergeCell ref="B19:B25"/>
@@ -11465,11 +11522,6 @@
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C23:C24"/>
-    <mergeCell ref="M3:M10"/>
-    <mergeCell ref="M11:M18"/>
-    <mergeCell ref="M19:M25"/>
-    <mergeCell ref="N3:N25"/>
-    <mergeCell ref="C2:D2"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -13144,39 +13196,39 @@
   <sheetData>
     <row r="1" spans="2:30" ht="31" customHeight="1"/>
     <row r="2" spans="2:30" ht="25" customHeight="1">
-      <c r="B2" s="240" t="s">
+      <c r="B2" s="222" t="s">
         <v>295</v>
       </c>
-      <c r="C2" s="240"/>
+      <c r="C2" s="222"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="I2" s="240" t="s">
+      <c r="I2" s="222" t="s">
         <v>296</v>
       </c>
-      <c r="J2" s="240"/>
-      <c r="K2" s="240"/>
-      <c r="L2" s="240"/>
-      <c r="M2" s="240"/>
-      <c r="N2" s="240"/>
-      <c r="Q2" s="240" t="s">
+      <c r="J2" s="222"/>
+      <c r="K2" s="222"/>
+      <c r="L2" s="222"/>
+      <c r="M2" s="222"/>
+      <c r="N2" s="222"/>
+      <c r="Q2" s="222" t="s">
         <v>297</v>
       </c>
-      <c r="R2" s="240"/>
-      <c r="S2" s="240"/>
-      <c r="T2" s="240"/>
-      <c r="U2" s="240"/>
-      <c r="V2" s="240"/>
-      <c r="W2" s="240"/>
-      <c r="Y2" s="240" t="s">
+      <c r="R2" s="222"/>
+      <c r="S2" s="222"/>
+      <c r="T2" s="222"/>
+      <c r="U2" s="222"/>
+      <c r="V2" s="222"/>
+      <c r="W2" s="222"/>
+      <c r="Y2" s="222" t="s">
         <v>298</v>
       </c>
-      <c r="Z2" s="240"/>
-      <c r="AA2" s="240"/>
-      <c r="AB2" s="240"/>
-      <c r="AC2" s="240"/>
-      <c r="AD2" s="240"/>
+      <c r="Z2" s="222"/>
+      <c r="AA2" s="222"/>
+      <c r="AB2" s="222"/>
+      <c r="AC2" s="222"/>
+      <c r="AD2" s="222"/>
     </row>
     <row r="3" spans="2:30" ht="20" customHeight="1">
       <c r="B3" s="3" t="s">
@@ -13258,7 +13310,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="I4" s="229" t="s">
+      <c r="I4" s="236" t="s">
         <v>317</v>
       </c>
       <c r="J4" s="47" t="s">
@@ -13267,14 +13319,14 @@
       <c r="K4" s="48">
         <v>13000</v>
       </c>
-      <c r="L4" s="235">
+      <c r="L4" s="242">
         <f>SUM(K4:K8)</f>
         <v>13000</v>
       </c>
       <c r="M4" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="N4" s="241">
+      <c r="N4" s="223">
         <f>L4/J14</f>
         <v>0.56521739130434778</v>
       </c>
@@ -13338,18 +13390,18 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="I5" s="230"/>
+      <c r="I5" s="237"/>
       <c r="J5" s="47" t="s">
         <v>320</v>
       </c>
       <c r="K5" s="48">
         <v>0</v>
       </c>
-      <c r="L5" s="236"/>
+      <c r="L5" s="224"/>
       <c r="M5" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="N5" s="236"/>
+      <c r="N5" s="224"/>
       <c r="Q5" s="63" t="s">
         <v>254</v>
       </c>
@@ -13413,16 +13465,16 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-      <c r="I6" s="231"/>
+      <c r="I6" s="238"/>
       <c r="J6" s="47" t="s">
         <v>322</v>
       </c>
       <c r="K6" s="49"/>
-      <c r="L6" s="237"/>
+      <c r="L6" s="225"/>
       <c r="M6" s="54">
         <v>582000</v>
       </c>
-      <c r="N6" s="237"/>
+      <c r="N6" s="225"/>
       <c r="Q6" s="63" t="s">
         <v>256</v>
       </c>
@@ -13487,16 +13539,16 @@
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
-      <c r="I7" s="232"/>
+      <c r="I7" s="239"/>
       <c r="J7" s="47" t="s">
         <v>324</v>
       </c>
       <c r="K7" s="48">
         <v>0</v>
       </c>
-      <c r="L7" s="238"/>
+      <c r="L7" s="226"/>
       <c r="M7" s="55"/>
-      <c r="N7" s="238"/>
+      <c r="N7" s="226"/>
       <c r="Q7" s="63" t="s">
         <v>258</v>
       </c>
@@ -13560,14 +13612,14 @@
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="I8" s="232"/>
+      <c r="I8" s="239"/>
       <c r="J8" s="47" t="s">
         <v>326</v>
       </c>
       <c r="K8" s="49"/>
-      <c r="L8" s="238"/>
+      <c r="L8" s="226"/>
       <c r="M8" s="55"/>
-      <c r="N8" s="238"/>
+      <c r="N8" s="226"/>
       <c r="Q8" s="63" t="s">
         <v>260</v>
       </c>
@@ -13621,21 +13673,21 @@
       </c>
     </row>
     <row r="9" spans="2:30" ht="20" customHeight="1">
-      <c r="I9" s="229" t="s">
+      <c r="I9" s="236" t="s">
         <v>327</v>
       </c>
       <c r="J9" s="47" t="s">
         <v>328</v>
       </c>
       <c r="K9" s="49"/>
-      <c r="L9" s="239">
+      <c r="L9" s="243">
         <f>SUM(K9:K13)</f>
         <v>10000</v>
       </c>
       <c r="M9" s="54">
         <v>1000000</v>
       </c>
-      <c r="N9" s="242">
+      <c r="N9" s="227">
         <f>L9/J14</f>
         <v>0.43478260869565216</v>
       </c>
@@ -13692,18 +13744,18 @@
       </c>
     </row>
     <row r="10" spans="2:30" ht="20" customHeight="1">
-      <c r="I10" s="233"/>
+      <c r="I10" s="240"/>
       <c r="J10" s="47" t="s">
         <v>329</v>
       </c>
       <c r="K10" s="48">
         <v>0</v>
       </c>
-      <c r="L10" s="236"/>
+      <c r="L10" s="224"/>
       <c r="M10" s="54">
         <v>400000</v>
       </c>
-      <c r="N10" s="236"/>
+      <c r="N10" s="224"/>
       <c r="Q10" s="63" t="s">
         <v>264</v>
       </c>
@@ -13757,18 +13809,18 @@
       </c>
     </row>
     <row r="11" spans="2:30" ht="20" customHeight="1">
-      <c r="I11" s="233"/>
+      <c r="I11" s="240"/>
       <c r="J11" s="47" t="s">
         <v>330</v>
       </c>
       <c r="K11" s="50">
         <v>10000</v>
       </c>
-      <c r="L11" s="236"/>
+      <c r="L11" s="224"/>
       <c r="M11" s="56">
         <v>2000000</v>
       </c>
-      <c r="N11" s="236"/>
+      <c r="N11" s="224"/>
       <c r="Q11" s="63" t="s">
         <v>266</v>
       </c>
@@ -13822,24 +13874,24 @@
       </c>
     </row>
     <row r="12" spans="2:30" ht="20" customHeight="1">
-      <c r="B12" s="240" t="s">
+      <c r="B12" s="222" t="s">
         <v>331</v>
       </c>
-      <c r="C12" s="240"/>
-      <c r="D12" s="240"/>
-      <c r="E12" s="240"/>
-      <c r="F12" s="240"/>
-      <c r="G12" s="240"/>
-      <c r="I12" s="233"/>
+      <c r="C12" s="222"/>
+      <c r="D12" s="222"/>
+      <c r="E12" s="222"/>
+      <c r="F12" s="222"/>
+      <c r="G12" s="222"/>
+      <c r="I12" s="240"/>
       <c r="J12" s="47" t="s">
         <v>332</v>
       </c>
       <c r="K12" s="48">
         <v>0</v>
       </c>
-      <c r="L12" s="236"/>
+      <c r="L12" s="224"/>
       <c r="M12" s="55"/>
-      <c r="N12" s="236"/>
+      <c r="N12" s="224"/>
       <c r="Q12" s="63" t="s">
         <v>268</v>
       </c>
@@ -13911,16 +13963,16 @@
       <c r="G13" s="30" t="s">
         <v>336</v>
       </c>
-      <c r="I13" s="234"/>
+      <c r="I13" s="241"/>
       <c r="J13" s="51" t="s">
         <v>338</v>
       </c>
       <c r="K13" s="51" t="s">
         <v>338</v>
       </c>
-      <c r="L13" s="237"/>
+      <c r="L13" s="225"/>
       <c r="M13" s="55"/>
-      <c r="N13" s="243"/>
+      <c r="N13" s="228"/>
       <c r="Q13" s="63" t="s">
         <v>270</v>
       </c>
@@ -13997,12 +14049,12 @@
       <c r="I14" s="52" t="s">
         <v>339</v>
       </c>
-      <c r="J14" s="222">
+      <c r="J14" s="229">
         <f>SUM(K4:K13)</f>
         <v>23000</v>
       </c>
-      <c r="K14" s="223"/>
-      <c r="L14" s="224"/>
+      <c r="K14" s="230"/>
+      <c r="L14" s="231"/>
       <c r="M14" s="57">
         <f>SUM(M5:M11)</f>
         <v>3982000</v>
@@ -14085,12 +14137,12 @@
       <c r="I15" s="52" t="s">
         <v>340</v>
       </c>
-      <c r="J15" s="222">
+      <c r="J15" s="229">
         <f>J14/C7</f>
         <v>5321.681319084737</v>
       </c>
-      <c r="K15" s="223"/>
-      <c r="L15" s="225"/>
+      <c r="K15" s="230"/>
+      <c r="L15" s="232"/>
       <c r="M15" s="55"/>
       <c r="N15" s="59"/>
       <c r="Q15" s="63" t="s">
@@ -14170,13 +14222,13 @@
       <c r="I16" s="52" t="s">
         <v>341</v>
       </c>
-      <c r="J16" s="226">
+      <c r="J16" s="233">
         <f>J14/C7</f>
         <v>5321.681319084737</v>
       </c>
-      <c r="K16" s="227"/>
-      <c r="L16" s="227"/>
-      <c r="M16" s="228"/>
+      <c r="K16" s="234"/>
+      <c r="L16" s="234"/>
+      <c r="M16" s="235"/>
       <c r="N16" s="60"/>
       <c r="Q16" s="63" t="s">
         <v>276</v>
@@ -15569,6 +15621,13 @@
     <row r="110" ht="26.4" customHeight="1"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="L4:L8"/>
+    <mergeCell ref="L9:L13"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="I2:N2"/>
     <mergeCell ref="Q2:W2"/>
@@ -15576,13 +15635,6 @@
     <mergeCell ref="B12:G12"/>
     <mergeCell ref="N4:N8"/>
     <mergeCell ref="N9:N13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="L4:L8"/>
-    <mergeCell ref="L9:L13"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/article/家庭财务管理手册2025.xlsx
+++ b/article/家庭财务管理手册2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18717\Documents\GitHub\luyao.github.io\article\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76B8981-CBB3-4C04-AB29-CA68B75CD4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD091932-1563-4C71-A0F7-7D0523E5D70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4622,6 +4622,39 @@
     <xf numFmtId="0" fontId="13" fillId="17" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4655,38 +4688,59 @@
     <xf numFmtId="0" fontId="14" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="1" fontId="9" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4694,65 +4748,11 @@
     <xf numFmtId="10" fontId="2" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6345,6 +6345,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>5908322.3900000006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5822023.9699999988</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8791,7 +8794,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O12" sqref="O12"/>
+      <selection pane="bottomLeft" activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -9079,8 +9082,8 @@
         <v>5908322.3900000006</v>
       </c>
       <c r="O12" s="191">
-        <f>(6500000-N12)/1000000</f>
-        <v>0.59167760999999941</v>
+        <f>(N12-5500000)/1000000</f>
+        <v>0.40832239000000059</v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="24.65" customHeight="1">
@@ -9098,8 +9101,14 @@
       <c r="K13" s="137"/>
       <c r="L13" s="138"/>
       <c r="M13" s="141"/>
-      <c r="N13" s="138"/>
-      <c r="O13" s="191"/>
+      <c r="N13" s="138">
+        <f>'3、存量资产-y'!L26+'3、存量资产-k'!L13</f>
+        <v>5822023.9699999988</v>
+      </c>
+      <c r="O13" s="191">
+        <f>(N13-5500000)/1000000</f>
+        <v>0.32202396999999883</v>
+      </c>
     </row>
     <row r="14" spans="2:16" ht="25" customHeight="1">
       <c r="B14" s="132" t="s">
@@ -9219,7 +9228,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K21" sqref="K21"/>
+      <selection pane="bottomRight" activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -9300,7 +9309,9 @@
       <c r="K2" s="119">
         <v>11978</v>
       </c>
-      <c r="L2" s="119"/>
+      <c r="L2" s="119">
+        <v>11585</v>
+      </c>
       <c r="M2" s="128"/>
     </row>
     <row r="3" spans="1:13" ht="20.5" customHeight="1">
@@ -9335,7 +9346,9 @@
       <c r="K3" s="120">
         <v>113137.2</v>
       </c>
-      <c r="L3" s="120"/>
+      <c r="L3" s="120">
+        <v>105966</v>
+      </c>
       <c r="M3" s="128"/>
     </row>
     <row r="4" spans="1:13" ht="20.5" customHeight="1">
@@ -9370,7 +9383,9 @@
       <c r="K4" s="119">
         <v>400</v>
       </c>
-      <c r="L4" s="119"/>
+      <c r="L4" s="119">
+        <v>0</v>
+      </c>
       <c r="M4" s="128"/>
     </row>
     <row r="5" spans="1:13" ht="20.5" customHeight="1">
@@ -9405,7 +9420,9 @@
       <c r="K5" s="120">
         <v>1000</v>
       </c>
-      <c r="L5" s="120"/>
+      <c r="L5" s="119">
+        <v>14792</v>
+      </c>
       <c r="M5" s="128"/>
     </row>
     <row r="6" spans="1:13" ht="20.5" customHeight="1">
@@ -9440,7 +9457,9 @@
       <c r="K6" s="119">
         <v>92764</v>
       </c>
-      <c r="L6" s="119"/>
+      <c r="L6" s="119">
+        <v>122464</v>
+      </c>
       <c r="M6" s="128"/>
     </row>
     <row r="7" spans="1:13" ht="20.5" customHeight="1">
@@ -9504,7 +9523,9 @@
       <c r="K8" s="119">
         <v>22367</v>
       </c>
-      <c r="L8" s="119"/>
+      <c r="L8" s="119">
+        <v>22171</v>
+      </c>
       <c r="M8" s="128"/>
     </row>
     <row r="9" spans="1:13" ht="20.5" customHeight="1">
@@ -9537,7 +9558,9 @@
       <c r="K9" s="119">
         <v>69.819999999999993</v>
       </c>
-      <c r="L9" s="119"/>
+      <c r="L9" s="119">
+        <v>5.65</v>
+      </c>
       <c r="M9" s="128"/>
     </row>
     <row r="10" spans="1:13" ht="20.5" customHeight="1">
@@ -9568,7 +9591,9 @@
       <c r="K10" s="119">
         <v>36564</v>
       </c>
-      <c r="L10" s="119"/>
+      <c r="L10" s="119">
+        <v>0</v>
+      </c>
       <c r="M10" s="128"/>
     </row>
     <row r="11" spans="1:13" ht="20.5" customHeight="1">
@@ -9679,7 +9704,9 @@
       <c r="K13" s="119">
         <v>20096</v>
       </c>
-      <c r="L13" s="119"/>
+      <c r="L13" s="119">
+        <v>20049</v>
+      </c>
       <c r="M13" s="128"/>
     </row>
     <row r="14" spans="1:13" ht="20.5" customHeight="1">
@@ -9708,7 +9735,9 @@
       <c r="K14" s="119">
         <v>395128</v>
       </c>
-      <c r="L14" s="119"/>
+      <c r="L14" s="119">
+        <v>394720</v>
+      </c>
       <c r="M14" s="128"/>
     </row>
     <row r="15" spans="1:13" ht="20.5" customHeight="1">
@@ -9735,7 +9764,9 @@
       <c r="K15" s="119">
         <v>32463</v>
       </c>
-      <c r="L15" s="119"/>
+      <c r="L15" s="119">
+        <v>32384</v>
+      </c>
       <c r="M15" s="128"/>
     </row>
     <row r="16" spans="1:13" ht="20.5" customHeight="1">
@@ -9762,7 +9793,9 @@
       <c r="K16" s="119">
         <v>102611</v>
       </c>
-      <c r="L16" s="119"/>
+      <c r="L16" s="119">
+        <v>102293</v>
+      </c>
       <c r="M16" s="128"/>
     </row>
     <row r="17" spans="1:13" ht="20.5" customHeight="1">
@@ -9810,8 +9843,8 @@
         <v>1828578.02</v>
       </c>
       <c r="L17" s="122">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
+        <f>SUM(L2:L16)</f>
+        <v>1826429.65</v>
       </c>
       <c r="M17" s="128"/>
     </row>
@@ -9847,7 +9880,9 @@
       <c r="K18" s="119">
         <v>135290</v>
       </c>
-      <c r="L18" s="119"/>
+      <c r="L18" s="119">
+        <v>135584</v>
+      </c>
       <c r="M18" s="128"/>
     </row>
     <row r="19" spans="1:13" ht="20.5" customHeight="1">
@@ -9882,7 +9917,9 @@
       <c r="K19" s="119">
         <v>125649</v>
       </c>
-      <c r="L19" s="119"/>
+      <c r="L19" s="119">
+        <v>133109</v>
+      </c>
       <c r="M19" s="128"/>
     </row>
     <row r="20" spans="1:13" ht="20.5" customHeight="1">
@@ -9917,7 +9954,9 @@
       <c r="K20" s="120">
         <v>11395</v>
       </c>
-      <c r="L20" s="120"/>
+      <c r="L20" s="120">
+        <v>22888</v>
+      </c>
       <c r="M20" s="128"/>
     </row>
     <row r="21" spans="1:13" ht="20.5" customHeight="1">
@@ -9966,7 +10005,7 @@
       </c>
       <c r="L21" s="124">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>291581</v>
       </c>
       <c r="M21" s="128"/>
     </row>
@@ -10100,7 +10139,7 @@
       </c>
       <c r="L25" s="126">
         <f t="shared" si="3"/>
-        <v>1000000</v>
+        <v>2118010.65</v>
       </c>
       <c r="M25" s="128"/>
     </row>
@@ -10150,7 +10189,7 @@
       </c>
       <c r="L26" s="126">
         <f t="shared" si="4"/>
-        <v>1000000</v>
+        <v>2118010.65</v>
       </c>
       <c r="M26" s="128"/>
     </row>
@@ -10175,7 +10214,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N12" sqref="N12"/>
+      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -10262,7 +10301,10 @@
         <f>496174*7.12</f>
         <v>3532758.88</v>
       </c>
-      <c r="L2" s="119"/>
+      <c r="L2" s="119">
+        <f>473991*7.1</f>
+        <v>3365336.0999999996</v>
+      </c>
       <c r="M2" s="128"/>
     </row>
     <row r="3" spans="1:13" ht="20.5" customHeight="1">
@@ -10304,7 +10346,10 @@
         <f>129091.37+2727.5+234.28+1417.2</f>
         <v>133470.35</v>
       </c>
-      <c r="L3" s="120"/>
+      <c r="L3" s="120">
+        <f>153537+12710+518+1234+307</f>
+        <v>168306</v>
+      </c>
       <c r="M3" s="128"/>
     </row>
     <row r="4" spans="1:13" ht="20.5" customHeight="1">
@@ -10340,7 +10385,9 @@
       <c r="K4" s="119">
         <v>8461.4</v>
       </c>
-      <c r="L4" s="119"/>
+      <c r="L4" s="119">
+        <v>8176</v>
+      </c>
       <c r="M4" s="128"/>
     </row>
     <row r="5" spans="1:13" ht="20.5" customHeight="1">
@@ -10388,7 +10435,7 @@
       </c>
       <c r="L5" s="122">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3541818.0999999996</v>
       </c>
       <c r="M5" s="128"/>
     </row>
@@ -10431,7 +10478,10 @@
         <f>33429.77+58692.25+27558.72</f>
         <v>119680.73999999999</v>
       </c>
-      <c r="L6" s="119"/>
+      <c r="L6" s="119">
+        <f>33429.77+58692.25+45931.2</f>
+        <v>138053.21999999997</v>
+      </c>
       <c r="M6" s="128"/>
     </row>
     <row r="7" spans="1:13" ht="20.5" customHeight="1">
@@ -10468,7 +10518,9 @@
       <c r="K7" s="119">
         <v>13039</v>
       </c>
-      <c r="L7" s="119"/>
+      <c r="L7" s="119">
+        <v>24142</v>
+      </c>
       <c r="M7" s="128"/>
     </row>
     <row r="8" spans="1:13" ht="20.5" customHeight="1">
@@ -10516,7 +10568,7 @@
       </c>
       <c r="L8" s="124">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>162195.21999999997</v>
       </c>
       <c r="M8" s="128"/>
     </row>
@@ -10648,7 +10700,7 @@
       </c>
       <c r="L12" s="126">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3704013.3199999994</v>
       </c>
       <c r="M12" s="128"/>
     </row>
@@ -10697,7 +10749,7 @@
       </c>
       <c r="L13" s="126">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3704013.3199999994</v>
       </c>
       <c r="M13" s="128"/>
     </row>
@@ -10749,10 +10801,10 @@
       <c r="B2" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="220" t="s">
+      <c r="C2" s="209" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="221"/>
+      <c r="D2" s="210"/>
       <c r="E2" s="100" t="s">
         <v>51</v>
       </c>
@@ -10785,10 +10837,10 @@
       </c>
     </row>
     <row r="3" spans="2:14" ht="23.5" customHeight="1">
-      <c r="B3" s="200" t="s">
+      <c r="B3" s="211" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="203" t="s">
+      <c r="C3" s="214" t="s">
         <v>62</v>
       </c>
       <c r="D3" s="101" t="s">
@@ -10816,18 +10868,18 @@
       <c r="L3" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="M3" s="211">
+      <c r="M3" s="200">
         <f>SUM(J3:J10)</f>
         <v>58430.5</v>
       </c>
-      <c r="N3" s="216">
+      <c r="N3" s="205">
         <f>SUM(M3:M25)</f>
         <v>104966.35</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="23" customHeight="1">
-      <c r="B4" s="201"/>
-      <c r="C4" s="204"/>
+      <c r="B4" s="212"/>
+      <c r="C4" s="215"/>
       <c r="D4" s="102" t="s">
         <v>70</v>
       </c>
@@ -10851,12 +10903,12 @@
       </c>
       <c r="K4" s="105"/>
       <c r="L4" s="105"/>
-      <c r="M4" s="212"/>
-      <c r="N4" s="217"/>
+      <c r="M4" s="201"/>
+      <c r="N4" s="206"/>
     </row>
     <row r="5" spans="2:14" ht="23" customHeight="1">
-      <c r="B5" s="201"/>
-      <c r="C5" s="205" t="s">
+      <c r="B5" s="212"/>
+      <c r="C5" s="216" t="s">
         <v>74</v>
       </c>
       <c r="D5" s="103" t="s">
@@ -10884,12 +10936,12 @@
       <c r="L5" s="103" t="s">
         <v>80</v>
       </c>
-      <c r="M5" s="213"/>
-      <c r="N5" s="218"/>
+      <c r="M5" s="202"/>
+      <c r="N5" s="207"/>
     </row>
     <row r="6" spans="2:14" ht="23" customHeight="1">
-      <c r="B6" s="201"/>
-      <c r="C6" s="204"/>
+      <c r="B6" s="212"/>
+      <c r="C6" s="215"/>
       <c r="D6" s="102" t="s">
         <v>81</v>
       </c>
@@ -10913,11 +10965,11 @@
       </c>
       <c r="K6" s="105"/>
       <c r="L6" s="105"/>
-      <c r="M6" s="212"/>
-      <c r="N6" s="217"/>
+      <c r="M6" s="201"/>
+      <c r="N6" s="206"/>
     </row>
     <row r="7" spans="2:14" ht="23" customHeight="1">
-      <c r="B7" s="201"/>
+      <c r="B7" s="212"/>
       <c r="C7" s="103" t="s">
         <v>87</v>
       </c>
@@ -10944,12 +10996,12 @@
       </c>
       <c r="K7" s="110"/>
       <c r="L7" s="110"/>
-      <c r="M7" s="213"/>
-      <c r="N7" s="218"/>
+      <c r="M7" s="202"/>
+      <c r="N7" s="207"/>
     </row>
     <row r="8" spans="2:14" ht="23" customHeight="1">
-      <c r="B8" s="201"/>
-      <c r="C8" s="206" t="s">
+      <c r="B8" s="212"/>
+      <c r="C8" s="217" t="s">
         <v>92</v>
       </c>
       <c r="D8" s="102" t="s">
@@ -10975,12 +11027,12 @@
       </c>
       <c r="K8" s="105"/>
       <c r="L8" s="105"/>
-      <c r="M8" s="212"/>
-      <c r="N8" s="217"/>
+      <c r="M8" s="201"/>
+      <c r="N8" s="206"/>
     </row>
     <row r="9" spans="2:14" ht="23" customHeight="1">
-      <c r="B9" s="201"/>
-      <c r="C9" s="207"/>
+      <c r="B9" s="212"/>
+      <c r="C9" s="218"/>
       <c r="D9" s="103" t="s">
         <v>97</v>
       </c>
@@ -11004,11 +11056,11 @@
       </c>
       <c r="K9" s="110"/>
       <c r="L9" s="110"/>
-      <c r="M9" s="213"/>
-      <c r="N9" s="218"/>
+      <c r="M9" s="202"/>
+      <c r="N9" s="207"/>
     </row>
     <row r="10" spans="2:14" ht="23.5" customHeight="1">
-      <c r="B10" s="202"/>
+      <c r="B10" s="213"/>
       <c r="C10" s="104" t="s">
         <v>101</v>
       </c>
@@ -11035,14 +11087,14 @@
       </c>
       <c r="K10" s="112"/>
       <c r="L10" s="112"/>
-      <c r="M10" s="214"/>
-      <c r="N10" s="217"/>
+      <c r="M10" s="203"/>
+      <c r="N10" s="206"/>
     </row>
     <row r="11" spans="2:14" ht="23.5" customHeight="1">
-      <c r="B11" s="200" t="s">
+      <c r="B11" s="211" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="203" t="s">
+      <c r="C11" s="214" t="s">
         <v>62</v>
       </c>
       <c r="D11" s="101" t="s">
@@ -11068,15 +11120,15 @@
       </c>
       <c r="K11" s="108"/>
       <c r="L11" s="108"/>
-      <c r="M11" s="211">
+      <c r="M11" s="200">
         <f>SUM(J11:J18)</f>
         <v>9113.5</v>
       </c>
-      <c r="N11" s="218"/>
+      <c r="N11" s="207"/>
     </row>
     <row r="12" spans="2:14" ht="23" customHeight="1">
-      <c r="B12" s="201"/>
-      <c r="C12" s="208"/>
+      <c r="B12" s="212"/>
+      <c r="C12" s="219"/>
       <c r="D12" s="102" t="s">
         <v>70</v>
       </c>
@@ -11100,12 +11152,12 @@
       </c>
       <c r="K12" s="105"/>
       <c r="L12" s="105"/>
-      <c r="M12" s="212"/>
-      <c r="N12" s="217"/>
+      <c r="M12" s="201"/>
+      <c r="N12" s="206"/>
     </row>
     <row r="13" spans="2:14" ht="23" customHeight="1">
-      <c r="B13" s="201"/>
-      <c r="C13" s="209"/>
+      <c r="B13" s="212"/>
+      <c r="C13" s="220"/>
       <c r="D13" s="103" t="s">
         <v>70</v>
       </c>
@@ -11131,12 +11183,12 @@
       <c r="L13" s="103" t="s">
         <v>115</v>
       </c>
-      <c r="M13" s="213"/>
-      <c r="N13" s="218"/>
+      <c r="M13" s="202"/>
+      <c r="N13" s="207"/>
     </row>
     <row r="14" spans="2:14" ht="23" customHeight="1">
-      <c r="B14" s="201"/>
-      <c r="C14" s="206" t="s">
+      <c r="B14" s="212"/>
+      <c r="C14" s="217" t="s">
         <v>74</v>
       </c>
       <c r="D14" s="102" t="s">
@@ -11162,12 +11214,12 @@
       </c>
       <c r="K14" s="105"/>
       <c r="L14" s="105"/>
-      <c r="M14" s="212"/>
-      <c r="N14" s="217"/>
+      <c r="M14" s="201"/>
+      <c r="N14" s="206"/>
     </row>
     <row r="15" spans="2:14" ht="23" customHeight="1">
-      <c r="B15" s="201"/>
-      <c r="C15" s="207"/>
+      <c r="B15" s="212"/>
+      <c r="C15" s="218"/>
       <c r="D15" s="103" t="s">
         <v>75</v>
       </c>
@@ -11191,11 +11243,11 @@
       </c>
       <c r="K15" s="110"/>
       <c r="L15" s="110"/>
-      <c r="M15" s="213"/>
-      <c r="N15" s="218"/>
+      <c r="M15" s="202"/>
+      <c r="N15" s="207"/>
     </row>
     <row r="16" spans="2:14" ht="23" customHeight="1">
-      <c r="B16" s="201"/>
+      <c r="B16" s="212"/>
       <c r="C16" s="102" t="s">
         <v>87</v>
       </c>
@@ -11222,12 +11274,12 @@
       </c>
       <c r="K16" s="105"/>
       <c r="L16" s="105"/>
-      <c r="M16" s="212"/>
-      <c r="N16" s="217"/>
+      <c r="M16" s="201"/>
+      <c r="N16" s="206"/>
     </row>
     <row r="17" spans="2:14" ht="23" customHeight="1">
-      <c r="B17" s="201"/>
-      <c r="C17" s="205" t="s">
+      <c r="B17" s="212"/>
+      <c r="C17" s="216" t="s">
         <v>92</v>
       </c>
       <c r="D17" s="103" t="s">
@@ -11253,12 +11305,12 @@
       </c>
       <c r="K17" s="110"/>
       <c r="L17" s="110"/>
-      <c r="M17" s="213"/>
-      <c r="N17" s="218"/>
+      <c r="M17" s="202"/>
+      <c r="N17" s="207"/>
     </row>
     <row r="18" spans="2:14" ht="23.5" customHeight="1">
-      <c r="B18" s="202"/>
-      <c r="C18" s="208"/>
+      <c r="B18" s="213"/>
+      <c r="C18" s="219"/>
       <c r="D18" s="104" t="s">
         <v>93</v>
       </c>
@@ -11282,14 +11334,14 @@
       </c>
       <c r="K18" s="112"/>
       <c r="L18" s="112"/>
-      <c r="M18" s="214"/>
-      <c r="N18" s="217"/>
+      <c r="M18" s="203"/>
+      <c r="N18" s="206"/>
     </row>
     <row r="19" spans="2:14" ht="23.5" customHeight="1">
-      <c r="B19" s="200" t="s">
+      <c r="B19" s="211" t="s">
         <v>125</v>
       </c>
-      <c r="C19" s="203" t="s">
+      <c r="C19" s="214" t="s">
         <v>62</v>
       </c>
       <c r="D19" s="101" t="s">
@@ -11315,15 +11367,15 @@
       </c>
       <c r="K19" s="108"/>
       <c r="L19" s="108"/>
-      <c r="M19" s="211">
+      <c r="M19" s="200">
         <f>SUM(J19:J25)</f>
         <v>37422.35</v>
       </c>
-      <c r="N19" s="218"/>
+      <c r="N19" s="207"/>
     </row>
     <row r="20" spans="2:14" ht="23" customHeight="1">
-      <c r="B20" s="201"/>
-      <c r="C20" s="204"/>
+      <c r="B20" s="212"/>
+      <c r="C20" s="215"/>
       <c r="D20" s="102" t="s">
         <v>70</v>
       </c>
@@ -11347,12 +11399,12 @@
       </c>
       <c r="K20" s="105"/>
       <c r="L20" s="105"/>
-      <c r="M20" s="212"/>
-      <c r="N20" s="217"/>
+      <c r="M20" s="201"/>
+      <c r="N20" s="206"/>
     </row>
     <row r="21" spans="2:14" ht="23" customHeight="1">
-      <c r="B21" s="201"/>
-      <c r="C21" s="205" t="s">
+      <c r="B21" s="212"/>
+      <c r="C21" s="216" t="s">
         <v>74</v>
       </c>
       <c r="D21" s="103" t="s">
@@ -11378,12 +11430,12 @@
       </c>
       <c r="K21" s="110"/>
       <c r="L21" s="110"/>
-      <c r="M21" s="213"/>
-      <c r="N21" s="218"/>
+      <c r="M21" s="202"/>
+      <c r="N21" s="207"/>
     </row>
     <row r="22" spans="2:14" ht="23" customHeight="1">
-      <c r="B22" s="201"/>
-      <c r="C22" s="210"/>
+      <c r="B22" s="212"/>
+      <c r="C22" s="221"/>
       <c r="D22" s="102" t="s">
         <v>132</v>
       </c>
@@ -11407,12 +11459,12 @@
       </c>
       <c r="K22" s="105"/>
       <c r="L22" s="105"/>
-      <c r="M22" s="212"/>
-      <c r="N22" s="217"/>
+      <c r="M22" s="201"/>
+      <c r="N22" s="206"/>
     </row>
     <row r="23" spans="2:14" ht="23" customHeight="1">
-      <c r="B23" s="201"/>
-      <c r="C23" s="205" t="s">
+      <c r="B23" s="212"/>
+      <c r="C23" s="216" t="s">
         <v>92</v>
       </c>
       <c r="D23" s="103" t="s">
@@ -11438,12 +11490,12 @@
       </c>
       <c r="K23" s="110"/>
       <c r="L23" s="110"/>
-      <c r="M23" s="213"/>
-      <c r="N23" s="218"/>
+      <c r="M23" s="202"/>
+      <c r="N23" s="207"/>
     </row>
     <row r="24" spans="2:14" ht="23" customHeight="1">
-      <c r="B24" s="201"/>
-      <c r="C24" s="204"/>
+      <c r="B24" s="212"/>
+      <c r="C24" s="215"/>
       <c r="D24" s="102" t="s">
         <v>97</v>
       </c>
@@ -11467,11 +11519,11 @@
       </c>
       <c r="K24" s="105"/>
       <c r="L24" s="105"/>
-      <c r="M24" s="212"/>
-      <c r="N24" s="217"/>
+      <c r="M24" s="201"/>
+      <c r="N24" s="206"/>
     </row>
     <row r="25" spans="2:14" ht="23.5" customHeight="1">
-      <c r="B25" s="202"/>
+      <c r="B25" s="213"/>
       <c r="C25" s="106" t="s">
         <v>101</v>
       </c>
@@ -11500,16 +11552,11 @@
       <c r="L25" s="106" t="s">
         <v>143</v>
       </c>
-      <c r="M25" s="215"/>
-      <c r="N25" s="219"/>
+      <c r="M25" s="204"/>
+      <c r="N25" s="208"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="M3:M10"/>
-    <mergeCell ref="M11:M18"/>
-    <mergeCell ref="M19:M25"/>
-    <mergeCell ref="N3:N25"/>
-    <mergeCell ref="C2:D2"/>
     <mergeCell ref="B3:B10"/>
     <mergeCell ref="B11:B18"/>
     <mergeCell ref="B19:B25"/>
@@ -11522,6 +11569,11 @@
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C23:C24"/>
+    <mergeCell ref="M3:M10"/>
+    <mergeCell ref="M11:M18"/>
+    <mergeCell ref="M19:M25"/>
+    <mergeCell ref="N3:N25"/>
+    <mergeCell ref="C2:D2"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -13196,39 +13248,39 @@
   <sheetData>
     <row r="1" spans="2:30" ht="31" customHeight="1"/>
     <row r="2" spans="2:30" ht="25" customHeight="1">
-      <c r="B2" s="222" t="s">
+      <c r="B2" s="240" t="s">
         <v>295</v>
       </c>
-      <c r="C2" s="222"/>
+      <c r="C2" s="240"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="I2" s="222" t="s">
+      <c r="I2" s="240" t="s">
         <v>296</v>
       </c>
-      <c r="J2" s="222"/>
-      <c r="K2" s="222"/>
-      <c r="L2" s="222"/>
-      <c r="M2" s="222"/>
-      <c r="N2" s="222"/>
-      <c r="Q2" s="222" t="s">
+      <c r="J2" s="240"/>
+      <c r="K2" s="240"/>
+      <c r="L2" s="240"/>
+      <c r="M2" s="240"/>
+      <c r="N2" s="240"/>
+      <c r="Q2" s="240" t="s">
         <v>297</v>
       </c>
-      <c r="R2" s="222"/>
-      <c r="S2" s="222"/>
-      <c r="T2" s="222"/>
-      <c r="U2" s="222"/>
-      <c r="V2" s="222"/>
-      <c r="W2" s="222"/>
-      <c r="Y2" s="222" t="s">
+      <c r="R2" s="240"/>
+      <c r="S2" s="240"/>
+      <c r="T2" s="240"/>
+      <c r="U2" s="240"/>
+      <c r="V2" s="240"/>
+      <c r="W2" s="240"/>
+      <c r="Y2" s="240" t="s">
         <v>298</v>
       </c>
-      <c r="Z2" s="222"/>
-      <c r="AA2" s="222"/>
-      <c r="AB2" s="222"/>
-      <c r="AC2" s="222"/>
-      <c r="AD2" s="222"/>
+      <c r="Z2" s="240"/>
+      <c r="AA2" s="240"/>
+      <c r="AB2" s="240"/>
+      <c r="AC2" s="240"/>
+      <c r="AD2" s="240"/>
     </row>
     <row r="3" spans="2:30" ht="20" customHeight="1">
       <c r="B3" s="3" t="s">
@@ -13310,7 +13362,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="I4" s="236" t="s">
+      <c r="I4" s="229" t="s">
         <v>317</v>
       </c>
       <c r="J4" s="47" t="s">
@@ -13319,14 +13371,14 @@
       <c r="K4" s="48">
         <v>13000</v>
       </c>
-      <c r="L4" s="242">
+      <c r="L4" s="235">
         <f>SUM(K4:K8)</f>
         <v>13000</v>
       </c>
       <c r="M4" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="N4" s="223">
+      <c r="N4" s="241">
         <f>L4/J14</f>
         <v>0.56521739130434778</v>
       </c>
@@ -13390,18 +13442,18 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="I5" s="237"/>
+      <c r="I5" s="230"/>
       <c r="J5" s="47" t="s">
         <v>320</v>
       </c>
       <c r="K5" s="48">
         <v>0</v>
       </c>
-      <c r="L5" s="224"/>
+      <c r="L5" s="236"/>
       <c r="M5" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="N5" s="224"/>
+      <c r="N5" s="236"/>
       <c r="Q5" s="63" t="s">
         <v>254</v>
       </c>
@@ -13465,16 +13517,16 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-      <c r="I6" s="238"/>
+      <c r="I6" s="231"/>
       <c r="J6" s="47" t="s">
         <v>322</v>
       </c>
       <c r="K6" s="49"/>
-      <c r="L6" s="225"/>
+      <c r="L6" s="237"/>
       <c r="M6" s="54">
         <v>582000</v>
       </c>
-      <c r="N6" s="225"/>
+      <c r="N6" s="237"/>
       <c r="Q6" s="63" t="s">
         <v>256</v>
       </c>
@@ -13539,16 +13591,16 @@
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
-      <c r="I7" s="239"/>
+      <c r="I7" s="232"/>
       <c r="J7" s="47" t="s">
         <v>324</v>
       </c>
       <c r="K7" s="48">
         <v>0</v>
       </c>
-      <c r="L7" s="226"/>
+      <c r="L7" s="238"/>
       <c r="M7" s="55"/>
-      <c r="N7" s="226"/>
+      <c r="N7" s="238"/>
       <c r="Q7" s="63" t="s">
         <v>258</v>
       </c>
@@ -13612,14 +13664,14 @@
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="I8" s="239"/>
+      <c r="I8" s="232"/>
       <c r="J8" s="47" t="s">
         <v>326</v>
       </c>
       <c r="K8" s="49"/>
-      <c r="L8" s="226"/>
+      <c r="L8" s="238"/>
       <c r="M8" s="55"/>
-      <c r="N8" s="226"/>
+      <c r="N8" s="238"/>
       <c r="Q8" s="63" t="s">
         <v>260</v>
       </c>
@@ -13673,21 +13725,21 @@
       </c>
     </row>
     <row r="9" spans="2:30" ht="20" customHeight="1">
-      <c r="I9" s="236" t="s">
+      <c r="I9" s="229" t="s">
         <v>327</v>
       </c>
       <c r="J9" s="47" t="s">
         <v>328</v>
       </c>
       <c r="K9" s="49"/>
-      <c r="L9" s="243">
+      <c r="L9" s="239">
         <f>SUM(K9:K13)</f>
         <v>10000</v>
       </c>
       <c r="M9" s="54">
         <v>1000000</v>
       </c>
-      <c r="N9" s="227">
+      <c r="N9" s="242">
         <f>L9/J14</f>
         <v>0.43478260869565216</v>
       </c>
@@ -13744,18 +13796,18 @@
       </c>
     </row>
     <row r="10" spans="2:30" ht="20" customHeight="1">
-      <c r="I10" s="240"/>
+      <c r="I10" s="233"/>
       <c r="J10" s="47" t="s">
         <v>329</v>
       </c>
       <c r="K10" s="48">
         <v>0</v>
       </c>
-      <c r="L10" s="224"/>
+      <c r="L10" s="236"/>
       <c r="M10" s="54">
         <v>400000</v>
       </c>
-      <c r="N10" s="224"/>
+      <c r="N10" s="236"/>
       <c r="Q10" s="63" t="s">
         <v>264</v>
       </c>
@@ -13809,18 +13861,18 @@
       </c>
     </row>
     <row r="11" spans="2:30" ht="20" customHeight="1">
-      <c r="I11" s="240"/>
+      <c r="I11" s="233"/>
       <c r="J11" s="47" t="s">
         <v>330</v>
       </c>
       <c r="K11" s="50">
         <v>10000</v>
       </c>
-      <c r="L11" s="224"/>
+      <c r="L11" s="236"/>
       <c r="M11" s="56">
         <v>2000000</v>
       </c>
-      <c r="N11" s="224"/>
+      <c r="N11" s="236"/>
       <c r="Q11" s="63" t="s">
         <v>266</v>
       </c>
@@ -13874,24 +13926,24 @@
       </c>
     </row>
     <row r="12" spans="2:30" ht="20" customHeight="1">
-      <c r="B12" s="222" t="s">
+      <c r="B12" s="240" t="s">
         <v>331</v>
       </c>
-      <c r="C12" s="222"/>
-      <c r="D12" s="222"/>
-      <c r="E12" s="222"/>
-      <c r="F12" s="222"/>
-      <c r="G12" s="222"/>
-      <c r="I12" s="240"/>
+      <c r="C12" s="240"/>
+      <c r="D12" s="240"/>
+      <c r="E12" s="240"/>
+      <c r="F12" s="240"/>
+      <c r="G12" s="240"/>
+      <c r="I12" s="233"/>
       <c r="J12" s="47" t="s">
         <v>332</v>
       </c>
       <c r="K12" s="48">
         <v>0</v>
       </c>
-      <c r="L12" s="224"/>
+      <c r="L12" s="236"/>
       <c r="M12" s="55"/>
-      <c r="N12" s="224"/>
+      <c r="N12" s="236"/>
       <c r="Q12" s="63" t="s">
         <v>268</v>
       </c>
@@ -13963,16 +14015,16 @@
       <c r="G13" s="30" t="s">
         <v>336</v>
       </c>
-      <c r="I13" s="241"/>
+      <c r="I13" s="234"/>
       <c r="J13" s="51" t="s">
         <v>338</v>
       </c>
       <c r="K13" s="51" t="s">
         <v>338</v>
       </c>
-      <c r="L13" s="225"/>
+      <c r="L13" s="237"/>
       <c r="M13" s="55"/>
-      <c r="N13" s="228"/>
+      <c r="N13" s="243"/>
       <c r="Q13" s="63" t="s">
         <v>270</v>
       </c>
@@ -14049,12 +14101,12 @@
       <c r="I14" s="52" t="s">
         <v>339</v>
       </c>
-      <c r="J14" s="229">
+      <c r="J14" s="222">
         <f>SUM(K4:K13)</f>
         <v>23000</v>
       </c>
-      <c r="K14" s="230"/>
-      <c r="L14" s="231"/>
+      <c r="K14" s="223"/>
+      <c r="L14" s="224"/>
       <c r="M14" s="57">
         <f>SUM(M5:M11)</f>
         <v>3982000</v>
@@ -14137,12 +14189,12 @@
       <c r="I15" s="52" t="s">
         <v>340</v>
       </c>
-      <c r="J15" s="229">
+      <c r="J15" s="222">
         <f>J14/C7</f>
         <v>5321.681319084737</v>
       </c>
-      <c r="K15" s="230"/>
-      <c r="L15" s="232"/>
+      <c r="K15" s="223"/>
+      <c r="L15" s="225"/>
       <c r="M15" s="55"/>
       <c r="N15" s="59"/>
       <c r="Q15" s="63" t="s">
@@ -14222,13 +14274,13 @@
       <c r="I16" s="52" t="s">
         <v>341</v>
       </c>
-      <c r="J16" s="233">
+      <c r="J16" s="226">
         <f>J14/C7</f>
         <v>5321.681319084737</v>
       </c>
-      <c r="K16" s="234"/>
-      <c r="L16" s="234"/>
-      <c r="M16" s="235"/>
+      <c r="K16" s="227"/>
+      <c r="L16" s="227"/>
+      <c r="M16" s="228"/>
       <c r="N16" s="60"/>
       <c r="Q16" s="63" t="s">
         <v>276</v>
@@ -15621,6 +15673,13 @@
     <row r="110" ht="26.4" customHeight="1"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="Q2:W2"/>
+    <mergeCell ref="Y2:AD2"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="N4:N8"/>
+    <mergeCell ref="N9:N13"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J16:M16"/>
@@ -15628,13 +15687,6 @@
     <mergeCell ref="I9:I13"/>
     <mergeCell ref="L4:L8"/>
     <mergeCell ref="L9:L13"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="Q2:W2"/>
-    <mergeCell ref="Y2:AD2"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="N4:N8"/>
-    <mergeCell ref="N9:N13"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/article/家庭财务管理手册2025.xlsx
+++ b/article/家庭财务管理手册2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18717\Documents\GitHub\luyao.github.io\article\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD091932-1563-4C71-A0F7-7D0523E5D70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1703CA-F832-4BA9-8258-CFC624F17C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1、年度预算" sheetId="1" r:id="rId1"/>
@@ -4622,6 +4622,39 @@
     <xf numFmtId="0" fontId="13" fillId="17" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4655,38 +4688,26 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4730,29 +4751,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8792,7 +8792,7 @@
   </sheetPr>
   <dimension ref="B1:P15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="P14" sqref="P14"/>
     </sheetView>
@@ -9228,7 +9228,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L26" sqref="L26"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -9244,37 +9244,37 @@
         <v>366</v>
       </c>
       <c r="B1" s="117">
-        <v>2024.2</v>
+        <v>2025.2</v>
       </c>
       <c r="C1" s="117">
-        <v>2024.3</v>
+        <v>2025.3</v>
       </c>
       <c r="D1" s="117">
-        <v>2024.4</v>
+        <v>2025.4</v>
       </c>
       <c r="E1" s="117">
-        <v>2024.5</v>
+        <v>2025.5</v>
       </c>
       <c r="F1" s="117">
-        <v>2024.6</v>
+        <v>2025.6</v>
       </c>
       <c r="G1" s="117">
-        <v>2024.7</v>
+        <v>2025.7</v>
       </c>
       <c r="H1" s="117">
-        <v>2024.8</v>
+        <v>2025.8</v>
       </c>
       <c r="I1" s="117">
-        <v>2024.9</v>
+        <v>2025.9</v>
       </c>
       <c r="J1" s="127">
-        <v>2024.1</v>
+        <v>2025.1</v>
       </c>
       <c r="K1" s="117">
-        <v>2024.11</v>
+        <v>2025.11</v>
       </c>
       <c r="L1" s="117">
-        <v>2024.12</v>
+        <v>2025.12</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="20.5" customHeight="1">
@@ -9839,7 +9839,7 @@
         <v>1783074.8700000003</v>
       </c>
       <c r="K17" s="122">
-        <f t="shared" ref="K17:L17" si="0">SUM(K2:K16)</f>
+        <f t="shared" ref="K17" si="0">SUM(K2:K16)</f>
         <v>1828578.02</v>
       </c>
       <c r="L17" s="122">
@@ -10210,7 +10210,7 @@
   </sheetPr>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -10801,10 +10801,10 @@
       <c r="B2" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="209" t="s">
+      <c r="C2" s="220" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="210"/>
+      <c r="D2" s="221"/>
       <c r="E2" s="100" t="s">
         <v>51</v>
       </c>
@@ -10837,10 +10837,10 @@
       </c>
     </row>
     <row r="3" spans="2:14" ht="23.5" customHeight="1">
-      <c r="B3" s="211" t="s">
+      <c r="B3" s="200" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="214" t="s">
+      <c r="C3" s="203" t="s">
         <v>62</v>
       </c>
       <c r="D3" s="101" t="s">
@@ -10868,18 +10868,18 @@
       <c r="L3" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="M3" s="200">
+      <c r="M3" s="211">
         <f>SUM(J3:J10)</f>
         <v>58430.5</v>
       </c>
-      <c r="N3" s="205">
+      <c r="N3" s="216">
         <f>SUM(M3:M25)</f>
         <v>104966.35</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="23" customHeight="1">
-      <c r="B4" s="212"/>
-      <c r="C4" s="215"/>
+      <c r="B4" s="201"/>
+      <c r="C4" s="204"/>
       <c r="D4" s="102" t="s">
         <v>70</v>
       </c>
@@ -10903,12 +10903,12 @@
       </c>
       <c r="K4" s="105"/>
       <c r="L4" s="105"/>
-      <c r="M4" s="201"/>
-      <c r="N4" s="206"/>
+      <c r="M4" s="212"/>
+      <c r="N4" s="217"/>
     </row>
     <row r="5" spans="2:14" ht="23" customHeight="1">
-      <c r="B5" s="212"/>
-      <c r="C5" s="216" t="s">
+      <c r="B5" s="201"/>
+      <c r="C5" s="205" t="s">
         <v>74</v>
       </c>
       <c r="D5" s="103" t="s">
@@ -10936,12 +10936,12 @@
       <c r="L5" s="103" t="s">
         <v>80</v>
       </c>
-      <c r="M5" s="202"/>
-      <c r="N5" s="207"/>
+      <c r="M5" s="213"/>
+      <c r="N5" s="218"/>
     </row>
     <row r="6" spans="2:14" ht="23" customHeight="1">
-      <c r="B6" s="212"/>
-      <c r="C6" s="215"/>
+      <c r="B6" s="201"/>
+      <c r="C6" s="204"/>
       <c r="D6" s="102" t="s">
         <v>81</v>
       </c>
@@ -10965,11 +10965,11 @@
       </c>
       <c r="K6" s="105"/>
       <c r="L6" s="105"/>
-      <c r="M6" s="201"/>
-      <c r="N6" s="206"/>
+      <c r="M6" s="212"/>
+      <c r="N6" s="217"/>
     </row>
     <row r="7" spans="2:14" ht="23" customHeight="1">
-      <c r="B7" s="212"/>
+      <c r="B7" s="201"/>
       <c r="C7" s="103" t="s">
         <v>87</v>
       </c>
@@ -10996,12 +10996,12 @@
       </c>
       <c r="K7" s="110"/>
       <c r="L7" s="110"/>
-      <c r="M7" s="202"/>
-      <c r="N7" s="207"/>
+      <c r="M7" s="213"/>
+      <c r="N7" s="218"/>
     </row>
     <row r="8" spans="2:14" ht="23" customHeight="1">
-      <c r="B8" s="212"/>
-      <c r="C8" s="217" t="s">
+      <c r="B8" s="201"/>
+      <c r="C8" s="206" t="s">
         <v>92</v>
       </c>
       <c r="D8" s="102" t="s">
@@ -11027,12 +11027,12 @@
       </c>
       <c r="K8" s="105"/>
       <c r="L8" s="105"/>
-      <c r="M8" s="201"/>
-      <c r="N8" s="206"/>
+      <c r="M8" s="212"/>
+      <c r="N8" s="217"/>
     </row>
     <row r="9" spans="2:14" ht="23" customHeight="1">
-      <c r="B9" s="212"/>
-      <c r="C9" s="218"/>
+      <c r="B9" s="201"/>
+      <c r="C9" s="207"/>
       <c r="D9" s="103" t="s">
         <v>97</v>
       </c>
@@ -11056,11 +11056,11 @@
       </c>
       <c r="K9" s="110"/>
       <c r="L9" s="110"/>
-      <c r="M9" s="202"/>
-      <c r="N9" s="207"/>
+      <c r="M9" s="213"/>
+      <c r="N9" s="218"/>
     </row>
     <row r="10" spans="2:14" ht="23.5" customHeight="1">
-      <c r="B10" s="213"/>
+      <c r="B10" s="202"/>
       <c r="C10" s="104" t="s">
         <v>101</v>
       </c>
@@ -11087,14 +11087,14 @@
       </c>
       <c r="K10" s="112"/>
       <c r="L10" s="112"/>
-      <c r="M10" s="203"/>
-      <c r="N10" s="206"/>
+      <c r="M10" s="214"/>
+      <c r="N10" s="217"/>
     </row>
     <row r="11" spans="2:14" ht="23.5" customHeight="1">
-      <c r="B11" s="211" t="s">
+      <c r="B11" s="200" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="214" t="s">
+      <c r="C11" s="203" t="s">
         <v>62</v>
       </c>
       <c r="D11" s="101" t="s">
@@ -11120,15 +11120,15 @@
       </c>
       <c r="K11" s="108"/>
       <c r="L11" s="108"/>
-      <c r="M11" s="200">
+      <c r="M11" s="211">
         <f>SUM(J11:J18)</f>
         <v>9113.5</v>
       </c>
-      <c r="N11" s="207"/>
+      <c r="N11" s="218"/>
     </row>
     <row r="12" spans="2:14" ht="23" customHeight="1">
-      <c r="B12" s="212"/>
-      <c r="C12" s="219"/>
+      <c r="B12" s="201"/>
+      <c r="C12" s="208"/>
       <c r="D12" s="102" t="s">
         <v>70</v>
       </c>
@@ -11152,12 +11152,12 @@
       </c>
       <c r="K12" s="105"/>
       <c r="L12" s="105"/>
-      <c r="M12" s="201"/>
-      <c r="N12" s="206"/>
+      <c r="M12" s="212"/>
+      <c r="N12" s="217"/>
     </row>
     <row r="13" spans="2:14" ht="23" customHeight="1">
-      <c r="B13" s="212"/>
-      <c r="C13" s="220"/>
+      <c r="B13" s="201"/>
+      <c r="C13" s="209"/>
       <c r="D13" s="103" t="s">
         <v>70</v>
       </c>
@@ -11183,12 +11183,12 @@
       <c r="L13" s="103" t="s">
         <v>115</v>
       </c>
-      <c r="M13" s="202"/>
-      <c r="N13" s="207"/>
+      <c r="M13" s="213"/>
+      <c r="N13" s="218"/>
     </row>
     <row r="14" spans="2:14" ht="23" customHeight="1">
-      <c r="B14" s="212"/>
-      <c r="C14" s="217" t="s">
+      <c r="B14" s="201"/>
+      <c r="C14" s="206" t="s">
         <v>74</v>
       </c>
       <c r="D14" s="102" t="s">
@@ -11214,12 +11214,12 @@
       </c>
       <c r="K14" s="105"/>
       <c r="L14" s="105"/>
-      <c r="M14" s="201"/>
-      <c r="N14" s="206"/>
+      <c r="M14" s="212"/>
+      <c r="N14" s="217"/>
     </row>
     <row r="15" spans="2:14" ht="23" customHeight="1">
-      <c r="B15" s="212"/>
-      <c r="C15" s="218"/>
+      <c r="B15" s="201"/>
+      <c r="C15" s="207"/>
       <c r="D15" s="103" t="s">
         <v>75</v>
       </c>
@@ -11243,11 +11243,11 @@
       </c>
       <c r="K15" s="110"/>
       <c r="L15" s="110"/>
-      <c r="M15" s="202"/>
-      <c r="N15" s="207"/>
+      <c r="M15" s="213"/>
+      <c r="N15" s="218"/>
     </row>
     <row r="16" spans="2:14" ht="23" customHeight="1">
-      <c r="B16" s="212"/>
+      <c r="B16" s="201"/>
       <c r="C16" s="102" t="s">
         <v>87</v>
       </c>
@@ -11274,12 +11274,12 @@
       </c>
       <c r="K16" s="105"/>
       <c r="L16" s="105"/>
-      <c r="M16" s="201"/>
-      <c r="N16" s="206"/>
+      <c r="M16" s="212"/>
+      <c r="N16" s="217"/>
     </row>
     <row r="17" spans="2:14" ht="23" customHeight="1">
-      <c r="B17" s="212"/>
-      <c r="C17" s="216" t="s">
+      <c r="B17" s="201"/>
+      <c r="C17" s="205" t="s">
         <v>92</v>
       </c>
       <c r="D17" s="103" t="s">
@@ -11305,12 +11305,12 @@
       </c>
       <c r="K17" s="110"/>
       <c r="L17" s="110"/>
-      <c r="M17" s="202"/>
-      <c r="N17" s="207"/>
+      <c r="M17" s="213"/>
+      <c r="N17" s="218"/>
     </row>
     <row r="18" spans="2:14" ht="23.5" customHeight="1">
-      <c r="B18" s="213"/>
-      <c r="C18" s="219"/>
+      <c r="B18" s="202"/>
+      <c r="C18" s="208"/>
       <c r="D18" s="104" t="s">
         <v>93</v>
       </c>
@@ -11334,14 +11334,14 @@
       </c>
       <c r="K18" s="112"/>
       <c r="L18" s="112"/>
-      <c r="M18" s="203"/>
-      <c r="N18" s="206"/>
+      <c r="M18" s="214"/>
+      <c r="N18" s="217"/>
     </row>
     <row r="19" spans="2:14" ht="23.5" customHeight="1">
-      <c r="B19" s="211" t="s">
+      <c r="B19" s="200" t="s">
         <v>125</v>
       </c>
-      <c r="C19" s="214" t="s">
+      <c r="C19" s="203" t="s">
         <v>62</v>
       </c>
       <c r="D19" s="101" t="s">
@@ -11367,15 +11367,15 @@
       </c>
       <c r="K19" s="108"/>
       <c r="L19" s="108"/>
-      <c r="M19" s="200">
+      <c r="M19" s="211">
         <f>SUM(J19:J25)</f>
         <v>37422.35</v>
       </c>
-      <c r="N19" s="207"/>
+      <c r="N19" s="218"/>
     </row>
     <row r="20" spans="2:14" ht="23" customHeight="1">
-      <c r="B20" s="212"/>
-      <c r="C20" s="215"/>
+      <c r="B20" s="201"/>
+      <c r="C20" s="204"/>
       <c r="D20" s="102" t="s">
         <v>70</v>
       </c>
@@ -11399,12 +11399,12 @@
       </c>
       <c r="K20" s="105"/>
       <c r="L20" s="105"/>
-      <c r="M20" s="201"/>
-      <c r="N20" s="206"/>
+      <c r="M20" s="212"/>
+      <c r="N20" s="217"/>
     </row>
     <row r="21" spans="2:14" ht="23" customHeight="1">
-      <c r="B21" s="212"/>
-      <c r="C21" s="216" t="s">
+      <c r="B21" s="201"/>
+      <c r="C21" s="205" t="s">
         <v>74</v>
       </c>
       <c r="D21" s="103" t="s">
@@ -11430,12 +11430,12 @@
       </c>
       <c r="K21" s="110"/>
       <c r="L21" s="110"/>
-      <c r="M21" s="202"/>
-      <c r="N21" s="207"/>
+      <c r="M21" s="213"/>
+      <c r="N21" s="218"/>
     </row>
     <row r="22" spans="2:14" ht="23" customHeight="1">
-      <c r="B22" s="212"/>
-      <c r="C22" s="221"/>
+      <c r="B22" s="201"/>
+      <c r="C22" s="210"/>
       <c r="D22" s="102" t="s">
         <v>132</v>
       </c>
@@ -11459,12 +11459,12 @@
       </c>
       <c r="K22" s="105"/>
       <c r="L22" s="105"/>
-      <c r="M22" s="201"/>
-      <c r="N22" s="206"/>
+      <c r="M22" s="212"/>
+      <c r="N22" s="217"/>
     </row>
     <row r="23" spans="2:14" ht="23" customHeight="1">
-      <c r="B23" s="212"/>
-      <c r="C23" s="216" t="s">
+      <c r="B23" s="201"/>
+      <c r="C23" s="205" t="s">
         <v>92</v>
       </c>
       <c r="D23" s="103" t="s">
@@ -11490,12 +11490,12 @@
       </c>
       <c r="K23" s="110"/>
       <c r="L23" s="110"/>
-      <c r="M23" s="202"/>
-      <c r="N23" s="207"/>
+      <c r="M23" s="213"/>
+      <c r="N23" s="218"/>
     </row>
     <row r="24" spans="2:14" ht="23" customHeight="1">
-      <c r="B24" s="212"/>
-      <c r="C24" s="215"/>
+      <c r="B24" s="201"/>
+      <c r="C24" s="204"/>
       <c r="D24" s="102" t="s">
         <v>97</v>
       </c>
@@ -11519,11 +11519,11 @@
       </c>
       <c r="K24" s="105"/>
       <c r="L24" s="105"/>
-      <c r="M24" s="201"/>
-      <c r="N24" s="206"/>
+      <c r="M24" s="212"/>
+      <c r="N24" s="217"/>
     </row>
     <row r="25" spans="2:14" ht="23.5" customHeight="1">
-      <c r="B25" s="213"/>
+      <c r="B25" s="202"/>
       <c r="C25" s="106" t="s">
         <v>101</v>
       </c>
@@ -11552,11 +11552,16 @@
       <c r="L25" s="106" t="s">
         <v>143</v>
       </c>
-      <c r="M25" s="204"/>
-      <c r="N25" s="208"/>
+      <c r="M25" s="215"/>
+      <c r="N25" s="219"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="M3:M10"/>
+    <mergeCell ref="M11:M18"/>
+    <mergeCell ref="M19:M25"/>
+    <mergeCell ref="N3:N25"/>
+    <mergeCell ref="C2:D2"/>
     <mergeCell ref="B3:B10"/>
     <mergeCell ref="B11:B18"/>
     <mergeCell ref="B19:B25"/>
@@ -11569,11 +11574,6 @@
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C23:C24"/>
-    <mergeCell ref="M3:M10"/>
-    <mergeCell ref="M11:M18"/>
-    <mergeCell ref="M19:M25"/>
-    <mergeCell ref="N3:N25"/>
-    <mergeCell ref="C2:D2"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -13248,39 +13248,39 @@
   <sheetData>
     <row r="1" spans="2:30" ht="31" customHeight="1"/>
     <row r="2" spans="2:30" ht="25" customHeight="1">
-      <c r="B2" s="240" t="s">
+      <c r="B2" s="222" t="s">
         <v>295</v>
       </c>
-      <c r="C2" s="240"/>
+      <c r="C2" s="222"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="I2" s="240" t="s">
+      <c r="I2" s="222" t="s">
         <v>296</v>
       </c>
-      <c r="J2" s="240"/>
-      <c r="K2" s="240"/>
-      <c r="L2" s="240"/>
-      <c r="M2" s="240"/>
-      <c r="N2" s="240"/>
-      <c r="Q2" s="240" t="s">
+      <c r="J2" s="222"/>
+      <c r="K2" s="222"/>
+      <c r="L2" s="222"/>
+      <c r="M2" s="222"/>
+      <c r="N2" s="222"/>
+      <c r="Q2" s="222" t="s">
         <v>297</v>
       </c>
-      <c r="R2" s="240"/>
-      <c r="S2" s="240"/>
-      <c r="T2" s="240"/>
-      <c r="U2" s="240"/>
-      <c r="V2" s="240"/>
-      <c r="W2" s="240"/>
-      <c r="Y2" s="240" t="s">
+      <c r="R2" s="222"/>
+      <c r="S2" s="222"/>
+      <c r="T2" s="222"/>
+      <c r="U2" s="222"/>
+      <c r="V2" s="222"/>
+      <c r="W2" s="222"/>
+      <c r="Y2" s="222" t="s">
         <v>298</v>
       </c>
-      <c r="Z2" s="240"/>
-      <c r="AA2" s="240"/>
-      <c r="AB2" s="240"/>
-      <c r="AC2" s="240"/>
-      <c r="AD2" s="240"/>
+      <c r="Z2" s="222"/>
+      <c r="AA2" s="222"/>
+      <c r="AB2" s="222"/>
+      <c r="AC2" s="222"/>
+      <c r="AD2" s="222"/>
     </row>
     <row r="3" spans="2:30" ht="20" customHeight="1">
       <c r="B3" s="3" t="s">
@@ -13362,7 +13362,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="I4" s="229" t="s">
+      <c r="I4" s="236" t="s">
         <v>317</v>
       </c>
       <c r="J4" s="47" t="s">
@@ -13371,14 +13371,14 @@
       <c r="K4" s="48">
         <v>13000</v>
       </c>
-      <c r="L4" s="235">
+      <c r="L4" s="242">
         <f>SUM(K4:K8)</f>
         <v>13000</v>
       </c>
       <c r="M4" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="N4" s="241">
+      <c r="N4" s="223">
         <f>L4/J14</f>
         <v>0.56521739130434778</v>
       </c>
@@ -13442,18 +13442,18 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="I5" s="230"/>
+      <c r="I5" s="237"/>
       <c r="J5" s="47" t="s">
         <v>320</v>
       </c>
       <c r="K5" s="48">
         <v>0</v>
       </c>
-      <c r="L5" s="236"/>
+      <c r="L5" s="224"/>
       <c r="M5" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="N5" s="236"/>
+      <c r="N5" s="224"/>
       <c r="Q5" s="63" t="s">
         <v>254</v>
       </c>
@@ -13517,16 +13517,16 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-      <c r="I6" s="231"/>
+      <c r="I6" s="238"/>
       <c r="J6" s="47" t="s">
         <v>322</v>
       </c>
       <c r="K6" s="49"/>
-      <c r="L6" s="237"/>
+      <c r="L6" s="225"/>
       <c r="M6" s="54">
         <v>582000</v>
       </c>
-      <c r="N6" s="237"/>
+      <c r="N6" s="225"/>
       <c r="Q6" s="63" t="s">
         <v>256</v>
       </c>
@@ -13591,16 +13591,16 @@
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
-      <c r="I7" s="232"/>
+      <c r="I7" s="239"/>
       <c r="J7" s="47" t="s">
         <v>324</v>
       </c>
       <c r="K7" s="48">
         <v>0</v>
       </c>
-      <c r="L7" s="238"/>
+      <c r="L7" s="226"/>
       <c r="M7" s="55"/>
-      <c r="N7" s="238"/>
+      <c r="N7" s="226"/>
       <c r="Q7" s="63" t="s">
         <v>258</v>
       </c>
@@ -13664,14 +13664,14 @@
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="I8" s="232"/>
+      <c r="I8" s="239"/>
       <c r="J8" s="47" t="s">
         <v>326</v>
       </c>
       <c r="K8" s="49"/>
-      <c r="L8" s="238"/>
+      <c r="L8" s="226"/>
       <c r="M8" s="55"/>
-      <c r="N8" s="238"/>
+      <c r="N8" s="226"/>
       <c r="Q8" s="63" t="s">
         <v>260</v>
       </c>
@@ -13725,21 +13725,21 @@
       </c>
     </row>
     <row r="9" spans="2:30" ht="20" customHeight="1">
-      <c r="I9" s="229" t="s">
+      <c r="I9" s="236" t="s">
         <v>327</v>
       </c>
       <c r="J9" s="47" t="s">
         <v>328</v>
       </c>
       <c r="K9" s="49"/>
-      <c r="L9" s="239">
+      <c r="L9" s="243">
         <f>SUM(K9:K13)</f>
         <v>10000</v>
       </c>
       <c r="M9" s="54">
         <v>1000000</v>
       </c>
-      <c r="N9" s="242">
+      <c r="N9" s="227">
         <f>L9/J14</f>
         <v>0.43478260869565216</v>
       </c>
@@ -13796,18 +13796,18 @@
       </c>
     </row>
     <row r="10" spans="2:30" ht="20" customHeight="1">
-      <c r="I10" s="233"/>
+      <c r="I10" s="240"/>
       <c r="J10" s="47" t="s">
         <v>329</v>
       </c>
       <c r="K10" s="48">
         <v>0</v>
       </c>
-      <c r="L10" s="236"/>
+      <c r="L10" s="224"/>
       <c r="M10" s="54">
         <v>400000</v>
       </c>
-      <c r="N10" s="236"/>
+      <c r="N10" s="224"/>
       <c r="Q10" s="63" t="s">
         <v>264</v>
       </c>
@@ -13861,18 +13861,18 @@
       </c>
     </row>
     <row r="11" spans="2:30" ht="20" customHeight="1">
-      <c r="I11" s="233"/>
+      <c r="I11" s="240"/>
       <c r="J11" s="47" t="s">
         <v>330</v>
       </c>
       <c r="K11" s="50">
         <v>10000</v>
       </c>
-      <c r="L11" s="236"/>
+      <c r="L11" s="224"/>
       <c r="M11" s="56">
         <v>2000000</v>
       </c>
-      <c r="N11" s="236"/>
+      <c r="N11" s="224"/>
       <c r="Q11" s="63" t="s">
         <v>266</v>
       </c>
@@ -13926,24 +13926,24 @@
       </c>
     </row>
     <row r="12" spans="2:30" ht="20" customHeight="1">
-      <c r="B12" s="240" t="s">
+      <c r="B12" s="222" t="s">
         <v>331</v>
       </c>
-      <c r="C12" s="240"/>
-      <c r="D12" s="240"/>
-      <c r="E12" s="240"/>
-      <c r="F12" s="240"/>
-      <c r="G12" s="240"/>
-      <c r="I12" s="233"/>
+      <c r="C12" s="222"/>
+      <c r="D12" s="222"/>
+      <c r="E12" s="222"/>
+      <c r="F12" s="222"/>
+      <c r="G12" s="222"/>
+      <c r="I12" s="240"/>
       <c r="J12" s="47" t="s">
         <v>332</v>
       </c>
       <c r="K12" s="48">
         <v>0</v>
       </c>
-      <c r="L12" s="236"/>
+      <c r="L12" s="224"/>
       <c r="M12" s="55"/>
-      <c r="N12" s="236"/>
+      <c r="N12" s="224"/>
       <c r="Q12" s="63" t="s">
         <v>268</v>
       </c>
@@ -14015,16 +14015,16 @@
       <c r="G13" s="30" t="s">
         <v>336</v>
       </c>
-      <c r="I13" s="234"/>
+      <c r="I13" s="241"/>
       <c r="J13" s="51" t="s">
         <v>338</v>
       </c>
       <c r="K13" s="51" t="s">
         <v>338</v>
       </c>
-      <c r="L13" s="237"/>
+      <c r="L13" s="225"/>
       <c r="M13" s="55"/>
-      <c r="N13" s="243"/>
+      <c r="N13" s="228"/>
       <c r="Q13" s="63" t="s">
         <v>270</v>
       </c>
@@ -14101,12 +14101,12 @@
       <c r="I14" s="52" t="s">
         <v>339</v>
       </c>
-      <c r="J14" s="222">
+      <c r="J14" s="229">
         <f>SUM(K4:K13)</f>
         <v>23000</v>
       </c>
-      <c r="K14" s="223"/>
-      <c r="L14" s="224"/>
+      <c r="K14" s="230"/>
+      <c r="L14" s="231"/>
       <c r="M14" s="57">
         <f>SUM(M5:M11)</f>
         <v>3982000</v>
@@ -14189,12 +14189,12 @@
       <c r="I15" s="52" t="s">
         <v>340</v>
       </c>
-      <c r="J15" s="222">
+      <c r="J15" s="229">
         <f>J14/C7</f>
         <v>5321.681319084737</v>
       </c>
-      <c r="K15" s="223"/>
-      <c r="L15" s="225"/>
+      <c r="K15" s="230"/>
+      <c r="L15" s="232"/>
       <c r="M15" s="55"/>
       <c r="N15" s="59"/>
       <c r="Q15" s="63" t="s">
@@ -14274,13 +14274,13 @@
       <c r="I16" s="52" t="s">
         <v>341</v>
       </c>
-      <c r="J16" s="226">
+      <c r="J16" s="233">
         <f>J14/C7</f>
         <v>5321.681319084737</v>
       </c>
-      <c r="K16" s="227"/>
-      <c r="L16" s="227"/>
-      <c r="M16" s="228"/>
+      <c r="K16" s="234"/>
+      <c r="L16" s="234"/>
+      <c r="M16" s="235"/>
       <c r="N16" s="60"/>
       <c r="Q16" s="63" t="s">
         <v>276</v>
@@ -15673,6 +15673,13 @@
     <row r="110" ht="26.4" customHeight="1"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="L4:L8"/>
+    <mergeCell ref="L9:L13"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="I2:N2"/>
     <mergeCell ref="Q2:W2"/>
@@ -15680,13 +15687,6 @@
     <mergeCell ref="B12:G12"/>
     <mergeCell ref="N4:N8"/>
     <mergeCell ref="N9:N13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="L4:L8"/>
-    <mergeCell ref="L9:L13"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
